--- a/umbilical_cable/Conections.xlsx
+++ b/umbilical_cable/Conections.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deanf_iwtm3ll\OneDrive\Documents\RobotArms\Staubli RX60\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3E5B35F6-9FF7-48B4-80DC-4AE6E85B1BA4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5930FA53-4D1A-4831-B185-FDFE7B8A5507}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="1" xr2:uid="{95819A87-8FD1-41E7-BA50-ADC82AE61CE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="2" xr2:uid="{95819A87-8FD1-41E7-BA50-ADC82AE61CE3}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="RJ45 - Han 108" sheetId="1" r:id="rId1"/>
+    <sheet name="RJ 45" sheetId="2" r:id="rId2"/>
+    <sheet name="PD RX60 Function" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$K$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'RJ 45'!$A$1:$K$60</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="148">
   <si>
     <t>PIN</t>
   </si>
@@ -122,13 +123,364 @@
   </si>
   <si>
     <t>||G 6 |  B 2  |  B 13  ||</t>
+  </si>
+  <si>
+    <t>Cont HanK6/36</t>
+  </si>
+  <si>
+    <t>JT6 W</t>
+  </si>
+  <si>
+    <t>Arm Han108</t>
+  </si>
+  <si>
+    <t>JT6 V</t>
+  </si>
+  <si>
+    <t>JT6 U</t>
+  </si>
+  <si>
+    <t>21 ohm all</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>95 ohm</t>
+  </si>
+  <si>
+    <t>VALVE1+</t>
+  </si>
+  <si>
+    <t>Cont Han72</t>
+  </si>
+  <si>
+    <t>JT6 SIN SHIELD</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>JT6 SIN- S4</t>
+  </si>
+  <si>
+    <t>JT6 SIN+ S2</t>
+  </si>
+  <si>
+    <t>91 ohm</t>
+  </si>
+  <si>
+    <t>JT6 COS SHIELD</t>
+  </si>
+  <si>
+    <t>JT6 COS- S3</t>
+  </si>
+  <si>
+    <t>JT6 COS+ S1</t>
+  </si>
+  <si>
+    <t>JT6 REF SHIELD</t>
+  </si>
+  <si>
+    <t>JT6 REF- R3</t>
+  </si>
+  <si>
+    <t>JT6 REF+ R1</t>
+  </si>
+  <si>
+    <t>44 ohm</t>
+  </si>
+  <si>
+    <t>JT5 W</t>
+  </si>
+  <si>
+    <t>JT5 V</t>
+  </si>
+  <si>
+    <t>JT5 U</t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>BRE</t>
+  </si>
+  <si>
+    <t>PB RLS</t>
+  </si>
+  <si>
+    <t>BRK</t>
+  </si>
+  <si>
+    <t>JT5 SIN SHIELD</t>
+  </si>
+  <si>
+    <t>JT5 SIN- S4</t>
+  </si>
+  <si>
+    <t>JT5 SIN+ S2</t>
+  </si>
+  <si>
+    <t>92 ohm</t>
+  </si>
+  <si>
+    <t>JT5 COS SHIELD</t>
+  </si>
+  <si>
+    <t>JT5 COS- S3</t>
+  </si>
+  <si>
+    <t>JT5 COS+ S1</t>
+  </si>
+  <si>
+    <t>JT5 REF SHIELD</t>
+  </si>
+  <si>
+    <t>JT5 REF- R3</t>
+  </si>
+  <si>
+    <t>JT5 REF+ R1</t>
+  </si>
+  <si>
+    <t>JT4 W</t>
+  </si>
+  <si>
+    <t>JT4 V</t>
+  </si>
+  <si>
+    <t>JT4 U</t>
+  </si>
+  <si>
+    <t>JT4 SIN SHIELD</t>
+  </si>
+  <si>
+    <t>JT4 SIN- S4</t>
+  </si>
+  <si>
+    <t>JT4 SIN+ S2</t>
+  </si>
+  <si>
+    <t>JT4 COS SHIELD</t>
+  </si>
+  <si>
+    <t>JT4 COS- S3</t>
+  </si>
+  <si>
+    <t>JT4 COS+ S1</t>
+  </si>
+  <si>
+    <t>JT4 REF SHIELD</t>
+  </si>
+  <si>
+    <t>JT4 REF- R3</t>
+  </si>
+  <si>
+    <t>JT4 REF+ R1</t>
+  </si>
+  <si>
+    <t>JT3 W</t>
+  </si>
+  <si>
+    <t>JT3 V</t>
+  </si>
+  <si>
+    <t>JT3 U</t>
+  </si>
+  <si>
+    <t>4 ohm all</t>
+  </si>
+  <si>
+    <t>JT3 SIN SHIELD</t>
+  </si>
+  <si>
+    <t>JT3 SIN- S4</t>
+  </si>
+  <si>
+    <t>JT3 SIN+ S2</t>
+  </si>
+  <si>
+    <t>105 ohm</t>
+  </si>
+  <si>
+    <t>JT3 COS SHIELD</t>
+  </si>
+  <si>
+    <t>JT3 COS- S3</t>
+  </si>
+  <si>
+    <t>JT3 COS+ S1</t>
+  </si>
+  <si>
+    <t>JT3 REF SHIELD</t>
+  </si>
+  <si>
+    <t>JT3 REF- R3</t>
+  </si>
+  <si>
+    <t>JT6 THS</t>
+  </si>
+  <si>
+    <t>JT3 REF+ R1</t>
+  </si>
+  <si>
+    <t>109 ohm</t>
+  </si>
+  <si>
+    <t>JT2 W</t>
+  </si>
+  <si>
+    <t>JT5 THS</t>
+  </si>
+  <si>
+    <t>JT2 V</t>
+  </si>
+  <si>
+    <t>JT2 U</t>
+  </si>
+  <si>
+    <t>3 ohm all</t>
+  </si>
+  <si>
+    <t>JT4 THS</t>
+  </si>
+  <si>
+    <t>JT2 THS</t>
+  </si>
+  <si>
+    <t>SHORT</t>
+  </si>
+  <si>
+    <t>JT3 THS</t>
+  </si>
+  <si>
+    <t>CLAMP1-</t>
+  </si>
+  <si>
+    <t>0V2</t>
+  </si>
+  <si>
+    <t>CLAMP1+</t>
+  </si>
+  <si>
+    <t>JT2 SIN SHIELD</t>
+  </si>
+  <si>
+    <t>JT2 SIN- S4</t>
+  </si>
+  <si>
+    <t>JT2 SIN+ S2</t>
+  </si>
+  <si>
+    <t>116 ohm</t>
+  </si>
+  <si>
+    <t>JT2 COS SHIELD</t>
+  </si>
+  <si>
+    <t>JT2 COS- S3</t>
+  </si>
+  <si>
+    <t>JT2 COS+ S1</t>
+  </si>
+  <si>
+    <t>JT2 REF SHIELD</t>
+  </si>
+  <si>
+    <t>JT2 REF- R3</t>
+  </si>
+  <si>
+    <t>JT2 REF+ R1</t>
+  </si>
+  <si>
+    <t>46 ohm</t>
+  </si>
+  <si>
+    <t>JT1 W</t>
+  </si>
+  <si>
+    <t>JT1 V</t>
+  </si>
+  <si>
+    <t>JT1 U</t>
+  </si>
+  <si>
+    <t>JT1 THS</t>
+  </si>
+  <si>
+    <t>BRAKE-</t>
+  </si>
+  <si>
+    <t>BRAKE+</t>
+  </si>
+  <si>
+    <t>DIODE</t>
+  </si>
+  <si>
+    <t>PWR BRK+</t>
+  </si>
+  <si>
+    <t>JT1 SIN SHIELD</t>
+  </si>
+  <si>
+    <t>LS2 Limit-</t>
+  </si>
+  <si>
+    <t>JT1 SIN- S4</t>
+  </si>
+  <si>
+    <t>JT1 SIN+ S2</t>
+  </si>
+  <si>
+    <t>113 ohm</t>
+  </si>
+  <si>
+    <t>JT1 COS SHIELD</t>
+  </si>
+  <si>
+    <t>JT1 COS- S3</t>
+  </si>
+  <si>
+    <t>JT1 COS+ S1</t>
+  </si>
+  <si>
+    <t>JT1 REF SHIELD</t>
+  </si>
+  <si>
+    <t>JT1 REF- R3</t>
+  </si>
+  <si>
+    <t>LS1 Limit+</t>
+  </si>
+  <si>
+    <t>JT1 REF+ R1</t>
+  </si>
+  <si>
+    <t>42 ohm</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>Function Minor</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Pin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +488,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +516,54 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFABF8F"/>
+        <bgColor rgb="FFFABF8F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCC0D9"/>
+        <bgColor rgb="FFCCC0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
   </fills>
@@ -493,10 +903,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -553,9 +964,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00AA5851-3301-4F61-B486-42A8438B87F1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1825,7 +2258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB2F320-D2E2-45EE-9963-3839DBB747CD}">
   <dimension ref="B1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -2795,4 +3228,2909 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39428A26-CF52-49B3-8663-C4128E0BA154}">
+  <dimension ref="A1:L109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="10" style="36" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="10" style="36" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="17" style="36" customWidth="1"/>
+    <col min="9" max="9" width="10" style="36" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="36" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="17" style="36" customWidth="1"/>
+    <col min="13" max="16384" width="17.28515625" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="37">
+        <v>1</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="37">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="37">
+        <v>10</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="37">
+        <v>2</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="37">
+        <v>2</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37">
+        <v>11</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="37">
+        <v>3</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="37">
+        <v>3</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37">
+        <v>12</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="37">
+        <v>4</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="37">
+        <v>4</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37">
+        <v>23</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="37">
+        <v>5</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="37">
+        <v>5</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37">
+        <v>24</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="37">
+        <v>6</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="37">
+        <v>6</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37">
+        <v>35</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="37">
+        <v>7</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="37">
+        <v>7</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37">
+        <v>36</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="37">
+        <v>8</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="37">
+        <v>8</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="37">
+        <v>46</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="37">
+        <v>9</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="37">
+        <v>9</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37">
+        <v>47</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="37">
+        <v>10</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37">
+        <v>48</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="37">
+        <v>11</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37">
+        <v>59</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="37">
+        <v>12</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="37">
+        <v>16</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37">
+        <v>60</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="37">
+        <v>13</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="37">
+        <v>22</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37">
+        <v>70</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="37">
+        <v>14</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="37">
+        <v>14</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37">
+        <v>71</v>
+      </c>
+      <c r="L15" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="37">
+        <v>15</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="37">
+        <v>15</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37">
+        <v>72</v>
+      </c>
+      <c r="L16" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="37">
+        <v>16</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="37">
+        <v>1</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37">
+        <v>7</v>
+      </c>
+      <c r="L17" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="37">
+        <v>17</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="37">
+        <v>2</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37">
+        <v>8</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="37">
+        <v>18</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="37">
+        <v>3</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37">
+        <v>9</v>
+      </c>
+      <c r="L19" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="37">
+        <v>19</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="37">
+        <v>13</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37">
+        <v>10</v>
+      </c>
+      <c r="L20" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="37">
+        <v>20</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="37">
+        <v>14</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37">
+        <v>11</v>
+      </c>
+      <c r="L21" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="37">
+        <v>21</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="37">
+        <v>15</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37">
+        <v>12</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="37">
+        <v>22</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="37">
+        <v>16</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37">
+        <v>13</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="37">
+        <v>23</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="37">
+        <v>17</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37">
+        <v>17</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="37">
+        <v>24</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="F25" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="37">
+        <v>18</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37">
+        <v>18</v>
+      </c>
+      <c r="L25" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="37">
+        <v>25</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="37">
+        <v>19</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="37"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="37">
+        <v>19</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="37">
+        <v>26</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="37">
+        <v>20</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="37"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="37">
+        <v>28</v>
+      </c>
+      <c r="L27" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="37">
+        <v>27</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="37">
+        <v>21</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="37">
+        <v>34</v>
+      </c>
+      <c r="L28" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="37">
+        <v>28</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="K29" s="37">
+        <v>40</v>
+      </c>
+      <c r="L29" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="37">
+        <v>29</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" s="37">
+        <v>46</v>
+      </c>
+      <c r="L30" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="37">
+        <v>30</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" s="37">
+        <v>26</v>
+      </c>
+      <c r="L31" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="37">
+        <v>31</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" s="37">
+        <v>27</v>
+      </c>
+      <c r="L32" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="37">
+        <v>32</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="37">
+        <v>20</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="37"/>
+      <c r="J33" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="K33" s="37">
+        <v>32</v>
+      </c>
+      <c r="L33" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="37">
+        <v>33</v>
+      </c>
+      <c r="C34" s="40"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="37">
+        <v>21</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="K34" s="37">
+        <v>33</v>
+      </c>
+      <c r="L34" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="37">
+        <v>34</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="37">
+        <v>4</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="37"/>
+      <c r="J35" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" s="37">
+        <v>38</v>
+      </c>
+      <c r="L35" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="37">
+        <v>35</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" s="37">
+        <v>5</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="K36" s="37">
+        <v>39</v>
+      </c>
+      <c r="L36" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="37">
+        <v>36</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="37">
+        <v>6</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="K37" s="37">
+        <v>44</v>
+      </c>
+      <c r="L37" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="37">
+        <v>37</v>
+      </c>
+      <c r="C38" s="40"/>
+      <c r="D38" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="37"/>
+      <c r="F38" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="37">
+        <v>25</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="37"/>
+      <c r="J38" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="K38" s="37">
+        <v>45</v>
+      </c>
+      <c r="L38" s="38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="37">
+        <v>38</v>
+      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="37">
+        <v>26</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="37"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="38"/>
+    </row>
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="37">
+        <v>39</v>
+      </c>
+      <c r="C40" s="40"/>
+      <c r="D40" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="37"/>
+      <c r="F40" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="37">
+        <v>27</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="38"/>
+    </row>
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="37">
+        <v>40</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="37">
+        <v>28</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+    </row>
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="37">
+        <v>41</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="37">
+        <v>29</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+    </row>
+    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="37">
+        <v>42</v>
+      </c>
+      <c r="C43" s="40"/>
+      <c r="D43" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="37"/>
+      <c r="F43" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="37">
+        <v>30</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+    </row>
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="37">
+        <v>43</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="37"/>
+      <c r="F44" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="37">
+        <v>31</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+    </row>
+    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="37">
+        <v>44</v>
+      </c>
+      <c r="C45" s="40"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="37">
+        <v>32</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+    </row>
+    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="37">
+        <v>45</v>
+      </c>
+      <c r="C46" s="40"/>
+      <c r="D46" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G46" s="37">
+        <v>33</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+    </row>
+    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="37">
+        <v>46</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="37">
+        <v>47</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+    </row>
+    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="37">
+        <v>48</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="37">
+        <v>49</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+    </row>
+    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="37">
+        <v>50</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+    </row>
+    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="37">
+        <v>51</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="37">
+        <v>52</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="37"/>
+      <c r="F53" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" s="37">
+        <v>23</v>
+      </c>
+      <c r="H53" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+    </row>
+    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="37">
+        <v>53</v>
+      </c>
+      <c r="C54" s="40"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="37">
+        <v>24</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+    </row>
+    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="37">
+        <v>54</v>
+      </c>
+      <c r="C55" s="40"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" s="37">
+        <v>25</v>
+      </c>
+      <c r="H55" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+    </row>
+    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="37">
+        <v>55</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="37"/>
+      <c r="F56" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" s="37">
+        <v>37</v>
+      </c>
+      <c r="H56" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+    </row>
+    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="37">
+        <v>56</v>
+      </c>
+      <c r="C57" s="40"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" s="37">
+        <v>38</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+    </row>
+    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="37">
+        <v>57</v>
+      </c>
+      <c r="C58" s="40"/>
+      <c r="D58" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="37"/>
+      <c r="F58" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" s="37">
+        <v>39</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+    </row>
+    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="37">
+        <v>58</v>
+      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="37"/>
+      <c r="F59" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="37">
+        <v>40</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+    </row>
+    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="37">
+        <v>59</v>
+      </c>
+      <c r="C60" s="40"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="37">
+        <v>41</v>
+      </c>
+      <c r="H60" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+    </row>
+    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="37">
+        <v>60</v>
+      </c>
+      <c r="C61" s="40"/>
+      <c r="D61" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="37"/>
+      <c r="F61" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" s="37">
+        <v>42</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+    </row>
+    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="37">
+        <v>61</v>
+      </c>
+      <c r="C62" s="40"/>
+      <c r="D62" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="37"/>
+      <c r="F62" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" s="37">
+        <v>43</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+    </row>
+    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="37">
+        <v>62</v>
+      </c>
+      <c r="C63" s="40"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" s="37">
+        <v>44</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+    </row>
+    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="37">
+        <v>63</v>
+      </c>
+      <c r="C64" s="40"/>
+      <c r="D64" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="37"/>
+      <c r="F64" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G64" s="37">
+        <v>45</v>
+      </c>
+      <c r="H64" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+    </row>
+    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="37">
+        <v>64</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+    </row>
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="37">
+        <v>65</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+    </row>
+    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="37">
+        <v>66</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+    </row>
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="37">
+        <v>67</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+    </row>
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="37">
+        <v>68</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+    </row>
+    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="37">
+        <v>69</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+    </row>
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="37">
+        <v>70</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="37"/>
+      <c r="F71" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" s="37">
+        <v>29</v>
+      </c>
+      <c r="H71" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+    </row>
+    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="37">
+        <v>71</v>
+      </c>
+      <c r="C72" s="40"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G72" s="37">
+        <v>30</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+    </row>
+    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="37">
+        <v>72</v>
+      </c>
+      <c r="C73" s="40"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G73" s="37">
+        <v>31</v>
+      </c>
+      <c r="H73" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+    </row>
+    <row r="74" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="37">
+        <v>73</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" s="37"/>
+      <c r="F74" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="G74" s="37">
+        <v>49</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+    </row>
+    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="37">
+        <v>74</v>
+      </c>
+      <c r="C75" s="40"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G75" s="37">
+        <v>50</v>
+      </c>
+      <c r="H75" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+    </row>
+    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="37">
+        <v>75</v>
+      </c>
+      <c r="C76" s="40"/>
+      <c r="D76" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" s="37"/>
+      <c r="F76" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G76" s="37">
+        <v>51</v>
+      </c>
+      <c r="H76" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+    </row>
+    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="37">
+        <v>76</v>
+      </c>
+      <c r="C77" s="40"/>
+      <c r="D77" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="37"/>
+      <c r="F77" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G77" s="37">
+        <v>52</v>
+      </c>
+      <c r="H77" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+    </row>
+    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="37">
+        <v>77</v>
+      </c>
+      <c r="C78" s="40"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G78" s="37">
+        <v>53</v>
+      </c>
+      <c r="H78" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="37"/>
+    </row>
+    <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" s="37">
+        <v>78</v>
+      </c>
+      <c r="C79" s="40"/>
+      <c r="D79" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="37"/>
+      <c r="F79" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G79" s="37">
+        <v>54</v>
+      </c>
+      <c r="H79" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+    </row>
+    <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="37">
+        <v>79</v>
+      </c>
+      <c r="C80" s="40"/>
+      <c r="D80" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="37"/>
+      <c r="F80" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G80" s="37">
+        <v>55</v>
+      </c>
+      <c r="H80" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+    </row>
+    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="37">
+        <v>80</v>
+      </c>
+      <c r="C81" s="40"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="G81" s="37">
+        <v>56</v>
+      </c>
+      <c r="H81" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+    </row>
+    <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="37">
+        <v>81</v>
+      </c>
+      <c r="C82" s="40"/>
+      <c r="D82" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" s="37"/>
+      <c r="F82" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G82" s="37">
+        <v>57</v>
+      </c>
+      <c r="H82" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+    </row>
+    <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="37">
+        <v>82</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="37"/>
+    </row>
+    <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="37">
+        <v>83</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+    </row>
+    <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="37">
+        <v>84</v>
+      </c>
+      <c r="C85" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="46"/>
+      <c r="E85" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F85" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G85" s="37">
+        <v>34</v>
+      </c>
+      <c r="H85" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+    </row>
+    <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="37">
+        <v>85</v>
+      </c>
+      <c r="C86" s="40"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F86" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G86" s="37">
+        <v>22</v>
+      </c>
+      <c r="H86" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+    </row>
+    <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="37">
+        <v>86</v>
+      </c>
+      <c r="C87" s="40"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F87" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G87" s="37">
+        <v>58</v>
+      </c>
+      <c r="H87" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="37"/>
+    </row>
+    <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="37">
+        <v>87</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+    </row>
+    <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="37">
+        <v>88</v>
+      </c>
+      <c r="C89" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="37"/>
+      <c r="F89" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G89" s="37">
+        <v>35</v>
+      </c>
+      <c r="H89" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+    </row>
+    <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="37">
+        <v>89</v>
+      </c>
+      <c r="C90" s="40"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G90" s="37">
+        <v>36</v>
+      </c>
+      <c r="H90" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+    </row>
+    <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="37">
+        <v>90</v>
+      </c>
+      <c r="C91" s="40"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G91" s="37">
+        <v>37</v>
+      </c>
+      <c r="H91" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+    </row>
+    <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="37">
+        <v>91</v>
+      </c>
+      <c r="C92" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E92" s="37"/>
+      <c r="F92" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G92" s="37">
+        <v>61</v>
+      </c>
+      <c r="H92" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
+    </row>
+    <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="37">
+        <v>92</v>
+      </c>
+      <c r="C93" s="40"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="G93" s="37">
+        <v>62</v>
+      </c>
+      <c r="H93" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="37"/>
+    </row>
+    <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="37">
+        <v>93</v>
+      </c>
+      <c r="C94" s="40"/>
+      <c r="D94" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" s="37"/>
+      <c r="F94" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G94" s="37">
+        <v>63</v>
+      </c>
+      <c r="H94" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+    </row>
+    <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="37">
+        <v>94</v>
+      </c>
+      <c r="C95" s="40"/>
+      <c r="D95" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95" s="37"/>
+      <c r="F95" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G95" s="37">
+        <v>64</v>
+      </c>
+      <c r="H95" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+    </row>
+    <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" s="37">
+        <v>95</v>
+      </c>
+      <c r="C96" s="40"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G96" s="37">
+        <v>65</v>
+      </c>
+      <c r="H96" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+    </row>
+    <row r="97" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" s="37">
+        <v>96</v>
+      </c>
+      <c r="C97" s="40"/>
+      <c r="D97" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E97" s="37"/>
+      <c r="F97" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G97" s="37">
+        <v>66</v>
+      </c>
+      <c r="H97" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I97" s="37"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="37"/>
+    </row>
+    <row r="98" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" s="37">
+        <v>97</v>
+      </c>
+      <c r="C98" s="40"/>
+      <c r="D98" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E98" s="37"/>
+      <c r="F98" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G98" s="37">
+        <v>67</v>
+      </c>
+      <c r="H98" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="37"/>
+    </row>
+    <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" s="37">
+        <v>98</v>
+      </c>
+      <c r="C99" s="40"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G99" s="37">
+        <v>68</v>
+      </c>
+      <c r="H99" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I99" s="37"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="37"/>
+      <c r="L99" s="37"/>
+    </row>
+    <row r="100" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="37">
+        <v>99</v>
+      </c>
+      <c r="C100" s="40"/>
+      <c r="D100" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E100" s="37"/>
+      <c r="F100" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G100" s="37">
+        <v>69</v>
+      </c>
+      <c r="H100" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
+    </row>
+    <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" s="37">
+        <v>100</v>
+      </c>
+      <c r="C101" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D101" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="37"/>
+    </row>
+    <row r="102" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="37">
+        <v>101</v>
+      </c>
+      <c r="C102" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D102" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="37"/>
+    </row>
+    <row r="103" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" s="37">
+        <v>102</v>
+      </c>
+      <c r="C103" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D103" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="37"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="37"/>
+      <c r="L103" s="37"/>
+    </row>
+    <row r="104" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" s="37">
+        <v>103</v>
+      </c>
+      <c r="C104" s="40"/>
+      <c r="D104" s="42">
+        <v>0</v>
+      </c>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="37"/>
+      <c r="K104" s="37"/>
+      <c r="L104" s="37"/>
+    </row>
+    <row r="105" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="37">
+        <v>104</v>
+      </c>
+      <c r="C105" s="40"/>
+      <c r="D105" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="37"/>
+      <c r="L105" s="37"/>
+    </row>
+    <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="37">
+        <v>105</v>
+      </c>
+      <c r="C106" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="37"/>
+    </row>
+    <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="37">
+        <v>106</v>
+      </c>
+      <c r="C107" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" s="37"/>
+      <c r="F107" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G107" s="37">
+        <v>41</v>
+      </c>
+      <c r="H107" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" s="37"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="37"/>
+      <c r="L107" s="37"/>
+    </row>
+    <row r="108" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="37">
+        <v>107</v>
+      </c>
+      <c r="C108" s="40"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" s="37">
+        <v>42</v>
+      </c>
+      <c r="H108" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" s="37"/>
+      <c r="J108" s="37"/>
+      <c r="K108" s="37"/>
+      <c r="L108" s="37"/>
+    </row>
+    <row r="109" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="37">
+        <v>108</v>
+      </c>
+      <c r="C109" s="40"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" s="37">
+        <v>43</v>
+      </c>
+      <c r="H109" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="I109" s="37"/>
+      <c r="J109" s="37"/>
+      <c r="K109" s="37"/>
+      <c r="L109" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C28"/>
+    <mergeCell ref="C33:C46"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C74:C82"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C92:C100"/>
+    <mergeCell ref="C103:C105"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/umbilical_cable/Conections.xlsx
+++ b/umbilical_cable/Conections.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deanf_iwtm3ll\OneDrive\Documents\RobotArms\Staubli RX60\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deanf_iwtm3ll\OneDrive\Documents\GitHub\Staubli_RX60L\umbilical_cable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5930FA53-4D1A-4831-B185-FDFE7B8A5507}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2132269F-3F2D-4B4B-84C3-B74B704C3CD3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" activeTab="2" xr2:uid="{95819A87-8FD1-41E7-BA50-ADC82AE61CE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="674" xr2:uid="{95819A87-8FD1-41E7-BA50-ADC82AE61CE3}"/>
   </bookViews>
   <sheets>
     <sheet name="RJ45 - Han 108" sheetId="1" r:id="rId1"/>
     <sheet name="RJ 45" sheetId="2" r:id="rId2"/>
-    <sheet name="PD RX60 Function" sheetId="3" r:id="rId3"/>
+    <sheet name="Han108_Wire_Details" sheetId="4" r:id="rId3"/>
+    <sheet name="PD RX60 Function" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'RJ 45'!$A$1:$K$60</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="166">
   <si>
     <t>PIN</t>
   </si>
@@ -474,13 +475,67 @@
   </si>
   <si>
     <t>Pin</t>
+  </si>
+  <si>
+    <t>Connecter</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>Han #</t>
+  </si>
+  <si>
+    <t>Group Colour</t>
+  </si>
+  <si>
+    <t>Cable #</t>
+  </si>
+  <si>
+    <t>Wire Colour</t>
+  </si>
+  <si>
+    <t>Resolver</t>
+  </si>
+  <si>
+    <t>Han 108</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tied to </t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Teal</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>check pin</t>
+  </si>
+  <si>
+    <t>Bue/White</t>
+  </si>
+  <si>
+    <t>Green/White</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,8 +553,16 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,8 +629,26 @@
         <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -902,12 +983,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -972,12 +1068,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -985,6 +1075,36 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1302,7 +1422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0362F590-B4AB-479F-8A21-3D3CE4565DE6}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3231,10 +3351,2065 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4FA9F6-B3B2-4EB3-A4D7-A65A4144CAA3}">
+  <dimension ref="A1:S1048576"/>
+  <sheetViews>
+    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="2" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="3.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O1" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="53">
+        <v>9</v>
+      </c>
+      <c r="C2" s="53">
+        <v>6</v>
+      </c>
+      <c r="D2" s="54">
+        <v>98</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="52">
+        <v>2</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="54">
+        <v>98</v>
+      </c>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="52">
+        <v>5</v>
+      </c>
+      <c r="N2" s="52"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="53">
+        <v>7</v>
+      </c>
+      <c r="C3" s="53">
+        <v>6</v>
+      </c>
+      <c r="D3" s="54">
+        <v>97</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="52">
+        <v>2</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="54">
+        <v>97</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="52">
+        <v>5</v>
+      </c>
+      <c r="N3" s="52"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="53">
+        <v>8</v>
+      </c>
+      <c r="C4" s="53">
+        <v>6</v>
+      </c>
+      <c r="D4" s="54">
+        <v>99</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="52">
+        <v>3</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="54">
+        <v>99</v>
+      </c>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="52">
+        <v>5</v>
+      </c>
+      <c r="N4" s="52"/>
+      <c r="O4" s="55"/>
+      <c r="Q4" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="R4">
+        <v>97</v>
+      </c>
+      <c r="S4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="53">
+        <v>1</v>
+      </c>
+      <c r="C5" s="53">
+        <v>6</v>
+      </c>
+      <c r="D5" s="54">
+        <v>91</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="56">
+        <v>6</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="54">
+        <v>91</v>
+      </c>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="52">
+        <v>5</v>
+      </c>
+      <c r="N5" s="52"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="53">
+        <v>2</v>
+      </c>
+      <c r="C6" s="53">
+        <v>6</v>
+      </c>
+      <c r="D6" s="54">
+        <v>92</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="56">
+        <v>6</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="54">
+        <v>92</v>
+      </c>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="52">
+        <v>5</v>
+      </c>
+      <c r="N6" s="52"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="53">
+        <v>3</v>
+      </c>
+      <c r="C7" s="53">
+        <v>6</v>
+      </c>
+      <c r="D7" s="54">
+        <v>92</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="56">
+        <v>6</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" s="54">
+        <v>92</v>
+      </c>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="52">
+        <v>5</v>
+      </c>
+      <c r="N7" s="52"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="53">
+        <v>5</v>
+      </c>
+      <c r="C8" s="53">
+        <v>6</v>
+      </c>
+      <c r="D8" s="54">
+        <v>95</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="52">
+        <v>12</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="54">
+        <v>95</v>
+      </c>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="52">
+        <v>5</v>
+      </c>
+      <c r="N8" s="52"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="53">
+        <v>4</v>
+      </c>
+      <c r="C9" s="53">
+        <v>6</v>
+      </c>
+      <c r="D9" s="54">
+        <v>94</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="52">
+        <v>12</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="54">
+        <v>94</v>
+      </c>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="52">
+        <v>5</v>
+      </c>
+      <c r="N9" s="52"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="53">
+        <v>6</v>
+      </c>
+      <c r="C10" s="53">
+        <v>6</v>
+      </c>
+      <c r="D10" s="54">
+        <v>96</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="52">
+        <v>12</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="54">
+        <v>96</v>
+      </c>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="52">
+        <v>5</v>
+      </c>
+      <c r="N10" s="52"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="57">
+        <v>1</v>
+      </c>
+      <c r="C12" s="57">
+        <v>5</v>
+      </c>
+      <c r="D12" s="54">
+        <v>73</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="52">
+        <v>5</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="54">
+        <v>73</v>
+      </c>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="52">
+        <v>4</v>
+      </c>
+      <c r="N12" s="52"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="58"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="52">
+        <v>2</v>
+      </c>
+      <c r="C13" s="52">
+        <v>5</v>
+      </c>
+      <c r="D13" s="54">
+        <v>74</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="52">
+        <v>5</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="54">
+        <v>74</v>
+      </c>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="52">
+        <v>4</v>
+      </c>
+      <c r="N13" s="52"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="52">
+        <v>3</v>
+      </c>
+      <c r="C14" s="52">
+        <v>5</v>
+      </c>
+      <c r="D14" s="54">
+        <v>75</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="52">
+        <v>5</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="54">
+        <v>75</v>
+      </c>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="52">
+        <v>4</v>
+      </c>
+      <c r="N14" s="52"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="52">
+        <v>4</v>
+      </c>
+      <c r="C15" s="52">
+        <v>5</v>
+      </c>
+      <c r="D15" s="54">
+        <v>76</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="56">
+        <v>11</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="54">
+        <v>76</v>
+      </c>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="52">
+        <v>4</v>
+      </c>
+      <c r="N15" s="52"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="52">
+        <v>5</v>
+      </c>
+      <c r="C16" s="52">
+        <v>5</v>
+      </c>
+      <c r="D16" s="54">
+        <v>77</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="56">
+        <v>11</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="54">
+        <v>77</v>
+      </c>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="52">
+        <v>4</v>
+      </c>
+      <c r="N16" s="52"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="52">
+        <v>6</v>
+      </c>
+      <c r="C17" s="52">
+        <v>5</v>
+      </c>
+      <c r="D17" s="54">
+        <v>78</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="56">
+        <v>11</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="54">
+        <v>78</v>
+      </c>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="52">
+        <v>4</v>
+      </c>
+      <c r="N17" s="52"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="52">
+        <v>7</v>
+      </c>
+      <c r="C18" s="52">
+        <v>5</v>
+      </c>
+      <c r="D18" s="54">
+        <v>79</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="52">
+        <v>1</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="54">
+        <v>79</v>
+      </c>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="52">
+        <v>4</v>
+      </c>
+      <c r="N18" s="52"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="52">
+        <v>8</v>
+      </c>
+      <c r="C19" s="52">
+        <v>5</v>
+      </c>
+      <c r="D19" s="54">
+        <v>80</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="52">
+        <v>1</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="54">
+        <v>80</v>
+      </c>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="52">
+        <v>4</v>
+      </c>
+      <c r="N19" s="52"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="52">
+        <v>9</v>
+      </c>
+      <c r="C20" s="52">
+        <v>5</v>
+      </c>
+      <c r="D20" s="54">
+        <v>81</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="52">
+        <v>1</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="54">
+        <v>81</v>
+      </c>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="52">
+        <v>4</v>
+      </c>
+      <c r="N20" s="52"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="52">
+        <v>1</v>
+      </c>
+      <c r="C22" s="52">
+        <v>4</v>
+      </c>
+      <c r="D22" s="54">
+        <v>57</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="52">
+        <v>4</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="54">
+        <v>57</v>
+      </c>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="52">
+        <v>3</v>
+      </c>
+      <c r="N22" s="52"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="57">
+        <v>2</v>
+      </c>
+      <c r="C23" s="57">
+        <v>4</v>
+      </c>
+      <c r="D23" s="54">
+        <v>56</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="52">
+        <v>4</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="54">
+        <v>56</v>
+      </c>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="52">
+        <v>3</v>
+      </c>
+      <c r="N23" s="52"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="57">
+        <v>3</v>
+      </c>
+      <c r="C24" s="57">
+        <v>4</v>
+      </c>
+      <c r="D24" s="54">
+        <v>55</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="52">
+        <v>4</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I24" s="54">
+        <v>55</v>
+      </c>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="52">
+        <v>3</v>
+      </c>
+      <c r="N24" s="52"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="57">
+        <v>9</v>
+      </c>
+      <c r="C25" s="57">
+        <v>4</v>
+      </c>
+      <c r="D25" s="54">
+        <v>63</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="56">
+        <v>16</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" s="54">
+        <v>63</v>
+      </c>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="52">
+        <v>3</v>
+      </c>
+      <c r="N25" s="52"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="52">
+        <v>8</v>
+      </c>
+      <c r="C26" s="52">
+        <v>4</v>
+      </c>
+      <c r="D26" s="54">
+        <v>62</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="56">
+        <v>16</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="54">
+        <v>62</v>
+      </c>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="52">
+        <v>3</v>
+      </c>
+      <c r="N26" s="52"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="52">
+        <v>7</v>
+      </c>
+      <c r="C27" s="52">
+        <v>4</v>
+      </c>
+      <c r="D27" s="54">
+        <v>61</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="56">
+        <v>16</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" s="54">
+        <v>61</v>
+      </c>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="52">
+        <v>3</v>
+      </c>
+      <c r="N27" s="52"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="52">
+        <v>4</v>
+      </c>
+      <c r="C28" s="52">
+        <v>4</v>
+      </c>
+      <c r="D28" s="54">
+        <v>60</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="52">
+        <v>10</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" s="54">
+        <v>60</v>
+      </c>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="52">
+        <v>3</v>
+      </c>
+      <c r="N28" s="52"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="52">
+        <v>5</v>
+      </c>
+      <c r="C29" s="52">
+        <v>4</v>
+      </c>
+      <c r="D29" s="54">
+        <v>59</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="52">
+        <v>10</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="54">
+        <v>59</v>
+      </c>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="52">
+        <v>3</v>
+      </c>
+      <c r="N29" s="52"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="52">
+        <v>6</v>
+      </c>
+      <c r="C30" s="52">
+        <v>4</v>
+      </c>
+      <c r="D30" s="54">
+        <v>58</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="52">
+        <v>10</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I30" s="54">
+        <v>58</v>
+      </c>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="52">
+        <v>3</v>
+      </c>
+      <c r="N30" s="52"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="52">
+        <v>3</v>
+      </c>
+      <c r="C32" s="52">
+        <v>3</v>
+      </c>
+      <c r="D32" s="54">
+        <v>39</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="52">
+        <v>3</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="54">
+        <v>39</v>
+      </c>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="52">
+        <v>2</v>
+      </c>
+      <c r="N32" s="52"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="52">
+        <v>2</v>
+      </c>
+      <c r="C33" s="52">
+        <v>3</v>
+      </c>
+      <c r="D33" s="54">
+        <v>38</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="52">
+        <v>3</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="54">
+        <v>38</v>
+      </c>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="52">
+        <v>2</v>
+      </c>
+      <c r="N33" s="52"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="52">
+        <v>1</v>
+      </c>
+      <c r="C34" s="52">
+        <v>3</v>
+      </c>
+      <c r="D34" s="54">
+        <v>37</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="52">
+        <v>3</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I34" s="54">
+        <v>37</v>
+      </c>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="52">
+        <v>2</v>
+      </c>
+      <c r="N34" s="52"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="52">
+        <v>9</v>
+      </c>
+      <c r="C35" s="52">
+        <v>3</v>
+      </c>
+      <c r="D35" s="54">
+        <v>45</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="52">
+        <v>15</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I35" s="54">
+        <v>45</v>
+      </c>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="52">
+        <v>2</v>
+      </c>
+      <c r="N35" s="52"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="52">
+        <v>8</v>
+      </c>
+      <c r="C36" s="52">
+        <v>3</v>
+      </c>
+      <c r="D36" s="54">
+        <v>44</v>
+      </c>
+      <c r="E36" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="52">
+        <v>15</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="54">
+        <v>44</v>
+      </c>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="52">
+        <v>2</v>
+      </c>
+      <c r="N36" s="52"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="52">
+        <v>7</v>
+      </c>
+      <c r="C37" s="52">
+        <v>3</v>
+      </c>
+      <c r="D37" s="54">
+        <v>43</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="52">
+        <v>15</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" s="54">
+        <v>43</v>
+      </c>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="52">
+        <v>2</v>
+      </c>
+      <c r="N37" s="52"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="52">
+        <v>6</v>
+      </c>
+      <c r="C38" s="52">
+        <v>3</v>
+      </c>
+      <c r="D38" s="54">
+        <v>42</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="52">
+        <v>9</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="54">
+        <v>42</v>
+      </c>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="52">
+        <v>2</v>
+      </c>
+      <c r="N38" s="52"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="52">
+        <v>5</v>
+      </c>
+      <c r="C39" s="52">
+        <v>3</v>
+      </c>
+      <c r="D39" s="54">
+        <v>41</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="52">
+        <v>9</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="54">
+        <v>41</v>
+      </c>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="52">
+        <v>2</v>
+      </c>
+      <c r="N39" s="52"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="52">
+        <v>4</v>
+      </c>
+      <c r="C40" s="52">
+        <v>3</v>
+      </c>
+      <c r="D40" s="54">
+        <v>40</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="52">
+        <v>9</v>
+      </c>
+      <c r="G40" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I40" s="54">
+        <v>40</v>
+      </c>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="52">
+        <v>2</v>
+      </c>
+      <c r="N40" s="52"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="52">
+        <v>3</v>
+      </c>
+      <c r="C42" s="52">
+        <v>2</v>
+      </c>
+      <c r="D42" s="54">
+        <v>21</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" s="52">
+        <v>2</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" s="54">
+        <v>21</v>
+      </c>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="52">
+        <v>1</v>
+      </c>
+      <c r="N42" s="52"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="R42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="52">
+        <v>2</v>
+      </c>
+      <c r="C43" s="52">
+        <v>2</v>
+      </c>
+      <c r="D43" s="54">
+        <v>20</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="52">
+        <v>2</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="54">
+        <v>20</v>
+      </c>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="52">
+        <v>1</v>
+      </c>
+      <c r="N43" s="52"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="52">
+        <v>1</v>
+      </c>
+      <c r="C44" s="52">
+        <v>2</v>
+      </c>
+      <c r="D44" s="54">
+        <v>19</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" s="52">
+        <v>2</v>
+      </c>
+      <c r="G44" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I44" s="54">
+        <v>19</v>
+      </c>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="52">
+        <v>1</v>
+      </c>
+      <c r="N44" s="52"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="52">
+        <v>6</v>
+      </c>
+      <c r="C45" s="52">
+        <v>2</v>
+      </c>
+      <c r="D45" s="54">
+        <v>42</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="52">
+        <v>8</v>
+      </c>
+      <c r="G45" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I45" s="54">
+        <v>42</v>
+      </c>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="52">
+        <v>1</v>
+      </c>
+      <c r="N45" s="52"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="55"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="52">
+        <v>5</v>
+      </c>
+      <c r="C46" s="52">
+        <v>2</v>
+      </c>
+      <c r="D46" s="54">
+        <v>41</v>
+      </c>
+      <c r="E46" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" s="52">
+        <v>8</v>
+      </c>
+      <c r="G46" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="54">
+        <v>41</v>
+      </c>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="52">
+        <v>1</v>
+      </c>
+      <c r="N46" s="52"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="52">
+        <v>4</v>
+      </c>
+      <c r="C47" s="52">
+        <v>2</v>
+      </c>
+      <c r="D47" s="54">
+        <v>40</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" s="52">
+        <v>8</v>
+      </c>
+      <c r="G47" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I47" s="54">
+        <v>40</v>
+      </c>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="52">
+        <v>1</v>
+      </c>
+      <c r="N47" s="52"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="52">
+        <v>9</v>
+      </c>
+      <c r="C48" s="52">
+        <v>2</v>
+      </c>
+      <c r="D48" s="54">
+        <v>27</v>
+      </c>
+      <c r="E48" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="52">
+        <v>14</v>
+      </c>
+      <c r="G48" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I48" s="54">
+        <v>27</v>
+      </c>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="52">
+        <v>1</v>
+      </c>
+      <c r="N48" s="52"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="52">
+        <v>8</v>
+      </c>
+      <c r="C49" s="52">
+        <v>2</v>
+      </c>
+      <c r="D49" s="54">
+        <v>26</v>
+      </c>
+      <c r="E49" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" s="52">
+        <v>14</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="54">
+        <v>26</v>
+      </c>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="52">
+        <v>1</v>
+      </c>
+      <c r="N49" s="52"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="52">
+        <v>7</v>
+      </c>
+      <c r="C50" s="52">
+        <v>2</v>
+      </c>
+      <c r="D50" s="54">
+        <v>25</v>
+      </c>
+      <c r="E50" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F50" s="52">
+        <v>14</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I50" s="54">
+        <v>25</v>
+      </c>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="52">
+        <v>1</v>
+      </c>
+      <c r="N50" s="52"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P51" s="51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="52">
+        <v>3</v>
+      </c>
+      <c r="C52" s="52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="54">
+        <v>3</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F52" s="52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I52" s="54">
+        <v>3</v>
+      </c>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="52">
+        <v>0</v>
+      </c>
+      <c r="N52" s="52"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="55"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="52">
+        <v>2</v>
+      </c>
+      <c r="C53" s="52">
+        <v>1</v>
+      </c>
+      <c r="D53" s="54">
+        <v>2</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" s="52">
+        <v>1</v>
+      </c>
+      <c r="G53" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="54">
+        <v>2</v>
+      </c>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="52">
+        <v>0</v>
+      </c>
+      <c r="N53" s="52"/>
+      <c r="O53" s="55">
+        <v>5</v>
+      </c>
+      <c r="P53" s="55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="52">
+        <v>1</v>
+      </c>
+      <c r="C54" s="52">
+        <v>1</v>
+      </c>
+      <c r="D54" s="54">
+        <v>1</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F54" s="52">
+        <v>1</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I54" s="54">
+        <v>1</v>
+      </c>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="52">
+        <v>0</v>
+      </c>
+      <c r="N54" s="52"/>
+      <c r="O54" s="55">
+        <v>4</v>
+      </c>
+      <c r="P54" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="52">
+        <v>9</v>
+      </c>
+      <c r="C55" s="52">
+        <v>1</v>
+      </c>
+      <c r="D55" s="54">
+        <v>9</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="52">
+        <v>13</v>
+      </c>
+      <c r="G55" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I55" s="54">
+        <v>9</v>
+      </c>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="52">
+        <v>0</v>
+      </c>
+      <c r="N55" s="52"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="55"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="52">
+        <v>8</v>
+      </c>
+      <c r="C56" s="52">
+        <v>1</v>
+      </c>
+      <c r="D56" s="54">
+        <v>8</v>
+      </c>
+      <c r="E56" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="52">
+        <v>13</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="54">
+        <v>8</v>
+      </c>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="52">
+        <v>0</v>
+      </c>
+      <c r="N56" s="52"/>
+      <c r="O56" s="55">
+        <v>3</v>
+      </c>
+      <c r="P56" s="55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="52">
+        <v>7</v>
+      </c>
+      <c r="C57" s="52">
+        <v>1</v>
+      </c>
+      <c r="D57" s="54">
+        <v>7</v>
+      </c>
+      <c r="E57" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="52">
+        <v>13</v>
+      </c>
+      <c r="G57" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I57" s="54">
+        <v>7</v>
+      </c>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="52">
+        <v>0</v>
+      </c>
+      <c r="N57" s="52"/>
+      <c r="O57" s="55">
+        <v>6</v>
+      </c>
+      <c r="P57" s="55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="52">
+        <v>6</v>
+      </c>
+      <c r="C58" s="52">
+        <v>1</v>
+      </c>
+      <c r="D58" s="54">
+        <v>6</v>
+      </c>
+      <c r="E58" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F58" s="52">
+        <v>7</v>
+      </c>
+      <c r="G58" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="I58" s="54">
+        <v>6</v>
+      </c>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="52">
+        <v>0</v>
+      </c>
+      <c r="N58" s="52"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" s="52">
+        <v>5</v>
+      </c>
+      <c r="C59" s="52">
+        <v>1</v>
+      </c>
+      <c r="D59" s="54">
+        <v>5</v>
+      </c>
+      <c r="E59" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" s="52">
+        <v>7</v>
+      </c>
+      <c r="G59" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="54">
+        <v>5</v>
+      </c>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="52">
+        <v>0</v>
+      </c>
+      <c r="N59" s="52"/>
+      <c r="O59" s="55">
+        <v>2</v>
+      </c>
+      <c r="P59" s="55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="52">
+        <v>4</v>
+      </c>
+      <c r="C60" s="52">
+        <v>1</v>
+      </c>
+      <c r="D60" s="54">
+        <v>4</v>
+      </c>
+      <c r="E60" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" s="52">
+        <v>7</v>
+      </c>
+      <c r="G60" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="I60" s="54">
+        <v>4</v>
+      </c>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="52">
+        <v>0</v>
+      </c>
+      <c r="N60" s="52"/>
+      <c r="O60" s="55">
+        <v>1</v>
+      </c>
+      <c r="P60" s="55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048576" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39428A26-CF52-49B3-8663-C4128E0BA154}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3286,14 +5461,14 @@
       <c r="B2" s="37">
         <v>1</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="43" t="s">
         <v>142</v>
       </c>
       <c r="E2" s="37"/>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="43" t="s">
         <v>141</v>
       </c>
       <c r="G2" s="37">
@@ -3320,10 +5495,10 @@
       <c r="B3" s="37">
         <v>2</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="45"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="37"/>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="43" t="s">
         <v>139</v>
       </c>
       <c r="G3" s="37">
@@ -3348,12 +5523,12 @@
       <c r="B4" s="37">
         <v>3</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="43" t="s">
         <v>138</v>
       </c>
       <c r="G4" s="37">
@@ -3378,12 +5553,12 @@
       <c r="B5" s="37">
         <v>4</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="42" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="37"/>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="42" t="s">
         <v>137</v>
       </c>
       <c r="G5" s="37">
@@ -3408,10 +5583,10 @@
       <c r="B6" s="37">
         <v>5</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="44"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="37"/>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="42" t="s">
         <v>136</v>
       </c>
       <c r="G6" s="37">
@@ -3436,12 +5611,12 @@
       <c r="B7" s="37">
         <v>6</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="44" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="42" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="37"/>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="42" t="s">
         <v>135</v>
       </c>
       <c r="G7" s="37">
@@ -3466,12 +5641,12 @@
       <c r="B8" s="37">
         <v>7</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="43" t="s">
+      <c r="C8" s="48"/>
+      <c r="D8" s="41" t="s">
         <v>134</v>
       </c>
       <c r="E8" s="37"/>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="41" t="s">
         <v>133</v>
       </c>
       <c r="G8" s="37">
@@ -3496,10 +5671,10 @@
       <c r="B9" s="37">
         <v>8</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="43"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="37"/>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="41" t="s">
         <v>132</v>
       </c>
       <c r="G9" s="37">
@@ -3526,12 +5701,12 @@
       <c r="B10" s="37">
         <v>9</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="43" t="s">
+      <c r="C10" s="48"/>
+      <c r="D10" s="41" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="37"/>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="41" t="s">
         <v>130</v>
       </c>
       <c r="G10" s="37">
@@ -3608,14 +5783,14 @@
       <c r="B13" s="37">
         <v>12</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="46" t="s">
         <v>128</v>
       </c>
       <c r="E13" s="37"/>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="46" t="s">
         <v>127</v>
       </c>
       <c r="G13" s="37">
@@ -3640,10 +5815,10 @@
       <c r="B14" s="37">
         <v>13</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="37"/>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="46" t="s">
         <v>126</v>
       </c>
       <c r="G14" s="37">
@@ -3668,16 +5843,16 @@
       <c r="B15" s="37">
         <v>14</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="45" t="s">
         <v>125</v>
       </c>
       <c r="G15" s="37">
@@ -3702,12 +5877,12 @@
       <c r="B16" s="37">
         <v>15</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47" t="s">
+      <c r="C16" s="48"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="45" t="s">
         <v>125</v>
       </c>
       <c r="G16" s="37">
@@ -3732,7 +5907,7 @@
       <c r="B17" s="37">
         <v>16</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="39" t="s">
         <v>103</v>
       </c>
@@ -3762,7 +5937,7 @@
       <c r="B18" s="37">
         <v>17</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="39"/>
       <c r="E18" s="37"/>
       <c r="F18" s="39" t="s">
@@ -3790,7 +5965,7 @@
       <c r="B19" s="37">
         <v>18</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="39"/>
       <c r="E19" s="37"/>
       <c r="F19" s="39" t="s">
@@ -3818,12 +5993,12 @@
       <c r="B20" s="37">
         <v>19</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="45" t="s">
+      <c r="C20" s="48"/>
+      <c r="D20" s="43" t="s">
         <v>121</v>
       </c>
       <c r="E20" s="37"/>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="43" t="s">
         <v>120</v>
       </c>
       <c r="G20" s="37">
@@ -3848,10 +6023,10 @@
       <c r="B21" s="37">
         <v>20</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="45"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="43" t="s">
         <v>119</v>
       </c>
       <c r="G21" s="37">
@@ -3876,12 +6051,12 @@
       <c r="B22" s="37">
         <v>21</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="45" t="s">
+      <c r="C22" s="48"/>
+      <c r="D22" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="37"/>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="43" t="s">
         <v>118</v>
       </c>
       <c r="G22" s="37">
@@ -3906,12 +6081,12 @@
       <c r="B23" s="37">
         <v>22</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="44" t="s">
+      <c r="C23" s="48"/>
+      <c r="D23" s="42" t="s">
         <v>114</v>
       </c>
       <c r="E23" s="37"/>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="42" t="s">
         <v>117</v>
       </c>
       <c r="G23" s="37">
@@ -3936,10 +6111,10 @@
       <c r="B24" s="37">
         <v>23</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="44"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="42" t="s">
         <v>116</v>
       </c>
       <c r="G24" s="37">
@@ -3964,12 +6139,12 @@
       <c r="B25" s="37">
         <v>24</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="44" t="s">
+      <c r="C25" s="48"/>
+      <c r="D25" s="42" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="37"/>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="42" t="s">
         <v>115</v>
       </c>
       <c r="G25" s="37">
@@ -3994,12 +6169,12 @@
       <c r="B26" s="37">
         <v>25</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="43" t="s">
+      <c r="C26" s="48"/>
+      <c r="D26" s="41" t="s">
         <v>114</v>
       </c>
       <c r="E26" s="37"/>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="41" t="s">
         <v>113</v>
       </c>
       <c r="G26" s="37">
@@ -4009,7 +6184,7 @@
         <v>40</v>
       </c>
       <c r="I26" s="37"/>
-      <c r="J26" s="47"/>
+      <c r="J26" s="45"/>
       <c r="K26" s="37">
         <v>19</v>
       </c>
@@ -4024,10 +6199,10 @@
       <c r="B27" s="37">
         <v>26</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="43"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="37"/>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="41" t="s">
         <v>112</v>
       </c>
       <c r="G27" s="37">
@@ -4037,7 +6212,7 @@
         <v>40</v>
       </c>
       <c r="I27" s="37"/>
-      <c r="J27" s="47"/>
+      <c r="J27" s="45"/>
       <c r="K27" s="37">
         <v>28</v>
       </c>
@@ -4052,12 +6227,12 @@
       <c r="B28" s="37">
         <v>27</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="43" t="s">
+      <c r="C28" s="48"/>
+      <c r="D28" s="41" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="37"/>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="41" t="s">
         <v>111</v>
       </c>
       <c r="G28" s="37">
@@ -4179,7 +6354,7 @@
       <c r="G32" s="37"/>
       <c r="H32" s="38"/>
       <c r="I32" s="37"/>
-      <c r="J32" s="47" t="s">
+      <c r="J32" s="45" t="s">
         <v>107</v>
       </c>
       <c r="K32" s="37">
@@ -4196,16 +6371,16 @@
       <c r="B33" s="37">
         <v>32</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="45" t="s">
         <v>105</v>
       </c>
       <c r="G33" s="37">
@@ -4215,7 +6390,7 @@
         <v>31</v>
       </c>
       <c r="I33" s="37"/>
-      <c r="J33" s="47" t="s">
+      <c r="J33" s="45" t="s">
         <v>104</v>
       </c>
       <c r="K33" s="37">
@@ -4232,12 +6407,12 @@
       <c r="B34" s="37">
         <v>33</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47" t="s">
+      <c r="C34" s="48"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="47" t="s">
+      <c r="F34" s="45" t="s">
         <v>105</v>
       </c>
       <c r="G34" s="37">
@@ -4264,7 +6439,7 @@
       <c r="B35" s="37">
         <v>34</v>
       </c>
-      <c r="C35" s="40"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="39" t="s">
         <v>103</v>
       </c>
@@ -4279,7 +6454,7 @@
         <v>31</v>
       </c>
       <c r="I35" s="37"/>
-      <c r="J35" s="47" t="s">
+      <c r="J35" s="45" t="s">
         <v>100</v>
       </c>
       <c r="K35" s="37">
@@ -4296,7 +6471,7 @@
       <c r="B36" s="37">
         <v>35</v>
       </c>
-      <c r="C36" s="40"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="39"/>
       <c r="E36" s="37"/>
       <c r="F36" s="39" t="s">
@@ -4309,7 +6484,7 @@
         <v>31</v>
       </c>
       <c r="I36" s="37"/>
-      <c r="J36" s="47" t="s">
+      <c r="J36" s="45" t="s">
         <v>100</v>
       </c>
       <c r="K36" s="37">
@@ -4326,7 +6501,7 @@
       <c r="B37" s="37">
         <v>36</v>
       </c>
-      <c r="C37" s="40"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="39"/>
       <c r="E37" s="37"/>
       <c r="F37" s="39" t="s">
@@ -4356,12 +6531,12 @@
       <c r="B38" s="37">
         <v>37</v>
       </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="45" t="s">
+      <c r="C38" s="48"/>
+      <c r="D38" s="43" t="s">
         <v>98</v>
       </c>
       <c r="E38" s="37"/>
-      <c r="F38" s="45" t="s">
+      <c r="F38" s="43" t="s">
         <v>97</v>
       </c>
       <c r="G38" s="37">
@@ -4371,7 +6546,7 @@
         <v>40</v>
       </c>
       <c r="I38" s="37"/>
-      <c r="J38" s="47" t="s">
+      <c r="J38" s="45" t="s">
         <v>96</v>
       </c>
       <c r="K38" s="37">
@@ -4388,10 +6563,10 @@
       <c r="B39" s="37">
         <v>38</v>
       </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="45"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="37"/>
-      <c r="F39" s="45" t="s">
+      <c r="F39" s="43" t="s">
         <v>95</v>
       </c>
       <c r="G39" s="37">
@@ -4401,7 +6576,7 @@
         <v>40</v>
       </c>
       <c r="I39" s="37"/>
-      <c r="J39" s="47"/>
+      <c r="J39" s="45"/>
       <c r="K39" s="37"/>
       <c r="L39" s="38"/>
     </row>
@@ -4412,12 +6587,12 @@
       <c r="B40" s="37">
         <v>39</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="45" t="s">
+      <c r="C40" s="48"/>
+      <c r="D40" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E40" s="37"/>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="43" t="s">
         <v>94</v>
       </c>
       <c r="G40" s="37">
@@ -4438,12 +6613,12 @@
       <c r="B41" s="37">
         <v>40</v>
       </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="44" t="s">
+      <c r="C41" s="48"/>
+      <c r="D41" s="42" t="s">
         <v>90</v>
       </c>
       <c r="E41" s="37"/>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="42" t="s">
         <v>93</v>
       </c>
       <c r="G41" s="37">
@@ -4464,10 +6639,10 @@
       <c r="B42" s="37">
         <v>41</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="44"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="42"/>
       <c r="E42" s="37"/>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="42" t="s">
         <v>92</v>
       </c>
       <c r="G42" s="37">
@@ -4488,12 +6663,12 @@
       <c r="B43" s="37">
         <v>42</v>
       </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="44" t="s">
+      <c r="C43" s="48"/>
+      <c r="D43" s="42" t="s">
         <v>42</v>
       </c>
       <c r="E43" s="37"/>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="42" t="s">
         <v>91</v>
       </c>
       <c r="G43" s="37">
@@ -4514,12 +6689,12 @@
       <c r="B44" s="37">
         <v>43</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="43" t="s">
+      <c r="C44" s="48"/>
+      <c r="D44" s="41" t="s">
         <v>90</v>
       </c>
       <c r="E44" s="37"/>
-      <c r="F44" s="43" t="s">
+      <c r="F44" s="41" t="s">
         <v>89</v>
       </c>
       <c r="G44" s="37">
@@ -4540,10 +6715,10 @@
       <c r="B45" s="37">
         <v>44</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="43"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="41"/>
       <c r="E45" s="37"/>
-      <c r="F45" s="43" t="s">
+      <c r="F45" s="41" t="s">
         <v>88</v>
       </c>
       <c r="G45" s="37">
@@ -4564,12 +6739,12 @@
       <c r="B46" s="37">
         <v>45</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="43" t="s">
+      <c r="C46" s="48"/>
+      <c r="D46" s="41" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="37"/>
-      <c r="F46" s="43" t="s">
+      <c r="F46" s="41" t="s">
         <v>87</v>
       </c>
       <c r="G46" s="37">
@@ -4722,7 +6897,7 @@
       <c r="B53" s="37">
         <v>52</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="47" t="s">
         <v>85</v>
       </c>
       <c r="D53" s="39" t="s">
@@ -4750,7 +6925,7 @@
       <c r="B54" s="37">
         <v>53</v>
       </c>
-      <c r="C54" s="40"/>
+      <c r="C54" s="48"/>
       <c r="D54" s="39"/>
       <c r="E54" s="37"/>
       <c r="F54" s="39" t="s">
@@ -4774,7 +6949,7 @@
       <c r="B55" s="37">
         <v>54</v>
       </c>
-      <c r="C55" s="40"/>
+      <c r="C55" s="48"/>
       <c r="D55" s="39"/>
       <c r="E55" s="37"/>
       <c r="F55" s="39" t="s">
@@ -4798,14 +6973,14 @@
       <c r="B56" s="37">
         <v>55</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="D56" s="43" t="s">
         <v>52</v>
       </c>
       <c r="E56" s="37"/>
-      <c r="F56" s="45" t="s">
+      <c r="F56" s="43" t="s">
         <v>82</v>
       </c>
       <c r="G56" s="37">
@@ -4826,10 +7001,10 @@
       <c r="B57" s="37">
         <v>56</v>
       </c>
-      <c r="C57" s="40"/>
-      <c r="D57" s="45"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="37"/>
-      <c r="F57" s="45" t="s">
+      <c r="F57" s="43" t="s">
         <v>81</v>
       </c>
       <c r="G57" s="37">
@@ -4850,12 +7025,12 @@
       <c r="B58" s="37">
         <v>57</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="45" t="s">
+      <c r="C58" s="48"/>
+      <c r="D58" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E58" s="37"/>
-      <c r="F58" s="45" t="s">
+      <c r="F58" s="43" t="s">
         <v>80</v>
       </c>
       <c r="G58" s="37">
@@ -4876,12 +7051,12 @@
       <c r="B59" s="37">
         <v>58</v>
       </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="44" t="s">
+      <c r="C59" s="48"/>
+      <c r="D59" s="42" t="s">
         <v>64</v>
       </c>
       <c r="E59" s="37"/>
-      <c r="F59" s="44" t="s">
+      <c r="F59" s="42" t="s">
         <v>79</v>
       </c>
       <c r="G59" s="37">
@@ -4902,10 +7077,10 @@
       <c r="B60" s="37">
         <v>59</v>
       </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="44"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="42"/>
       <c r="E60" s="37"/>
-      <c r="F60" s="44" t="s">
+      <c r="F60" s="42" t="s">
         <v>78</v>
       </c>
       <c r="G60" s="37">
@@ -4926,12 +7101,12 @@
       <c r="B61" s="37">
         <v>60</v>
       </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="44" t="s">
+      <c r="C61" s="48"/>
+      <c r="D61" s="42" t="s">
         <v>42</v>
       </c>
       <c r="E61" s="37"/>
-      <c r="F61" s="44" t="s">
+      <c r="F61" s="42" t="s">
         <v>77</v>
       </c>
       <c r="G61" s="37">
@@ -4952,12 +7127,12 @@
       <c r="B62" s="37">
         <v>61</v>
       </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="43" t="s">
+      <c r="C62" s="48"/>
+      <c r="D62" s="41" t="s">
         <v>64</v>
       </c>
       <c r="E62" s="37"/>
-      <c r="F62" s="43" t="s">
+      <c r="F62" s="41" t="s">
         <v>76</v>
       </c>
       <c r="G62" s="37">
@@ -4978,10 +7153,10 @@
       <c r="B63" s="37">
         <v>62</v>
       </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="43"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="41"/>
       <c r="E63" s="37"/>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="41" t="s">
         <v>75</v>
       </c>
       <c r="G63" s="37">
@@ -5002,12 +7177,12 @@
       <c r="B64" s="37">
         <v>63</v>
       </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="43" t="s">
+      <c r="C64" s="48"/>
+      <c r="D64" s="41" t="s">
         <v>42</v>
       </c>
       <c r="E64" s="37"/>
-      <c r="F64" s="43" t="s">
+      <c r="F64" s="41" t="s">
         <v>74</v>
       </c>
       <c r="G64" s="37">
@@ -5160,7 +7335,7 @@
       <c r="B71" s="37">
         <v>70</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="47" t="s">
         <v>73</v>
       </c>
       <c r="D71" s="39" t="s">
@@ -5188,7 +7363,7 @@
       <c r="B72" s="37">
         <v>71</v>
       </c>
-      <c r="C72" s="40"/>
+      <c r="C72" s="48"/>
       <c r="D72" s="39"/>
       <c r="E72" s="37"/>
       <c r="F72" s="39" t="s">
@@ -5212,7 +7387,7 @@
       <c r="B73" s="37">
         <v>72</v>
       </c>
-      <c r="C73" s="40"/>
+      <c r="C73" s="48"/>
       <c r="D73" s="39"/>
       <c r="E73" s="37"/>
       <c r="F73" s="39" t="s">
@@ -5236,14 +7411,14 @@
       <c r="B74" s="37">
         <v>73</v>
       </c>
-      <c r="C74" s="41" t="s">
+      <c r="C74" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="D74" s="45" t="s">
+      <c r="D74" s="43" t="s">
         <v>52</v>
       </c>
       <c r="E74" s="37"/>
-      <c r="F74" s="45" t="s">
+      <c r="F74" s="43" t="s">
         <v>70</v>
       </c>
       <c r="G74" s="37">
@@ -5264,10 +7439,10 @@
       <c r="B75" s="37">
         <v>74</v>
       </c>
-      <c r="C75" s="40"/>
-      <c r="D75" s="45"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="43"/>
       <c r="E75" s="37"/>
-      <c r="F75" s="45" t="s">
+      <c r="F75" s="43" t="s">
         <v>69</v>
       </c>
       <c r="G75" s="37">
@@ -5288,12 +7463,12 @@
       <c r="B76" s="37">
         <v>75</v>
       </c>
-      <c r="C76" s="40"/>
-      <c r="D76" s="45" t="s">
+      <c r="C76" s="48"/>
+      <c r="D76" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E76" s="37"/>
-      <c r="F76" s="45" t="s">
+      <c r="F76" s="43" t="s">
         <v>68</v>
       </c>
       <c r="G76" s="37">
@@ -5314,12 +7489,12 @@
       <c r="B77" s="37">
         <v>76</v>
       </c>
-      <c r="C77" s="40"/>
-      <c r="D77" s="44" t="s">
+      <c r="C77" s="48"/>
+      <c r="D77" s="42" t="s">
         <v>64</v>
       </c>
       <c r="E77" s="37"/>
-      <c r="F77" s="44" t="s">
+      <c r="F77" s="42" t="s">
         <v>67</v>
       </c>
       <c r="G77" s="37">
@@ -5340,10 +7515,10 @@
       <c r="B78" s="37">
         <v>77</v>
       </c>
-      <c r="C78" s="40"/>
-      <c r="D78" s="44"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="42"/>
       <c r="E78" s="37"/>
-      <c r="F78" s="44" t="s">
+      <c r="F78" s="42" t="s">
         <v>66</v>
       </c>
       <c r="G78" s="37">
@@ -5364,12 +7539,12 @@
       <c r="B79" s="37">
         <v>78</v>
       </c>
-      <c r="C79" s="40"/>
-      <c r="D79" s="44" t="s">
+      <c r="C79" s="48"/>
+      <c r="D79" s="42" t="s">
         <v>42</v>
       </c>
       <c r="E79" s="37"/>
-      <c r="F79" s="44" t="s">
+      <c r="F79" s="42" t="s">
         <v>65</v>
       </c>
       <c r="G79" s="37">
@@ -5390,12 +7565,12 @@
       <c r="B80" s="37">
         <v>79</v>
       </c>
-      <c r="C80" s="40"/>
-      <c r="D80" s="43" t="s">
+      <c r="C80" s="48"/>
+      <c r="D80" s="41" t="s">
         <v>64</v>
       </c>
       <c r="E80" s="37"/>
-      <c r="F80" s="43" t="s">
+      <c r="F80" s="41" t="s">
         <v>63</v>
       </c>
       <c r="G80" s="37">
@@ -5416,10 +7591,10 @@
       <c r="B81" s="37">
         <v>80</v>
       </c>
-      <c r="C81" s="40"/>
-      <c r="D81" s="43"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="41"/>
       <c r="E81" s="37"/>
-      <c r="F81" s="43" t="s">
+      <c r="F81" s="41" t="s">
         <v>62</v>
       </c>
       <c r="G81" s="37">
@@ -5440,12 +7615,12 @@
       <c r="B82" s="37">
         <v>81</v>
       </c>
-      <c r="C82" s="40"/>
-      <c r="D82" s="43" t="s">
+      <c r="C82" s="48"/>
+      <c r="D82" s="41" t="s">
         <v>42</v>
       </c>
       <c r="E82" s="37"/>
-      <c r="F82" s="43" t="s">
+      <c r="F82" s="41" t="s">
         <v>61</v>
       </c>
       <c r="G82" s="37">
@@ -5510,10 +7685,10 @@
       <c r="B85" s="37">
         <v>84</v>
       </c>
-      <c r="C85" s="41" t="s">
+      <c r="C85" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D85" s="46"/>
+      <c r="D85" s="44"/>
       <c r="E85" s="37" t="s">
         <v>57</v>
       </c>
@@ -5538,12 +7713,12 @@
       <c r="B86" s="37">
         <v>85</v>
       </c>
-      <c r="C86" s="40"/>
-      <c r="D86" s="46"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="44"/>
       <c r="E86" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="46" t="s">
+      <c r="F86" s="44" t="s">
         <v>58</v>
       </c>
       <c r="G86" s="37">
@@ -5564,12 +7739,12 @@
       <c r="B87" s="37">
         <v>86</v>
       </c>
-      <c r="C87" s="40"/>
-      <c r="D87" s="46"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="44"/>
       <c r="E87" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F87" s="46" t="s">
+      <c r="F87" s="44" t="s">
         <v>56</v>
       </c>
       <c r="G87" s="37">
@@ -5612,7 +7787,7 @@
       <c r="B89" s="37">
         <v>88</v>
       </c>
-      <c r="C89" s="41" t="s">
+      <c r="C89" s="47" t="s">
         <v>55</v>
       </c>
       <c r="D89" s="39" t="s">
@@ -5640,7 +7815,7 @@
       <c r="B90" s="37">
         <v>89</v>
       </c>
-      <c r="C90" s="40"/>
+      <c r="C90" s="48"/>
       <c r="D90" s="39"/>
       <c r="E90" s="37"/>
       <c r="F90" s="39" t="s">
@@ -5664,7 +7839,7 @@
       <c r="B91" s="37">
         <v>90</v>
       </c>
-      <c r="C91" s="40"/>
+      <c r="C91" s="48"/>
       <c r="D91" s="39"/>
       <c r="E91" s="37"/>
       <c r="F91" s="39" t="s">
@@ -5688,14 +7863,14 @@
       <c r="B92" s="37">
         <v>91</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D92" s="45" t="s">
+      <c r="D92" s="43" t="s">
         <v>52</v>
       </c>
       <c r="E92" s="37"/>
-      <c r="F92" s="45" t="s">
+      <c r="F92" s="43" t="s">
         <v>51</v>
       </c>
       <c r="G92" s="37">
@@ -5716,10 +7891,10 @@
       <c r="B93" s="37">
         <v>92</v>
       </c>
-      <c r="C93" s="40"/>
-      <c r="D93" s="45"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="43"/>
       <c r="E93" s="37"/>
-      <c r="F93" s="45" t="s">
+      <c r="F93" s="43" t="s">
         <v>50</v>
       </c>
       <c r="G93" s="37">
@@ -5740,12 +7915,12 @@
       <c r="B94" s="37">
         <v>93</v>
       </c>
-      <c r="C94" s="40"/>
-      <c r="D94" s="45" t="s">
+      <c r="C94" s="48"/>
+      <c r="D94" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E94" s="37"/>
-      <c r="F94" s="45" t="s">
+      <c r="F94" s="43" t="s">
         <v>49</v>
       </c>
       <c r="G94" s="37">
@@ -5766,12 +7941,12 @@
       <c r="B95" s="37">
         <v>94</v>
       </c>
-      <c r="C95" s="40"/>
-      <c r="D95" s="44" t="s">
+      <c r="C95" s="48"/>
+      <c r="D95" s="42" t="s">
         <v>45</v>
       </c>
       <c r="E95" s="37"/>
-      <c r="F95" s="44" t="s">
+      <c r="F95" s="42" t="s">
         <v>48</v>
       </c>
       <c r="G95" s="37">
@@ -5792,10 +7967,10 @@
       <c r="B96" s="37">
         <v>95</v>
       </c>
-      <c r="C96" s="40"/>
-      <c r="D96" s="44"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="42"/>
       <c r="E96" s="37"/>
-      <c r="F96" s="44" t="s">
+      <c r="F96" s="42" t="s">
         <v>47</v>
       </c>
       <c r="G96" s="37">
@@ -5816,12 +7991,12 @@
       <c r="B97" s="37">
         <v>96</v>
       </c>
-      <c r="C97" s="40"/>
-      <c r="D97" s="44" t="s">
+      <c r="C97" s="48"/>
+      <c r="D97" s="42" t="s">
         <v>42</v>
       </c>
       <c r="E97" s="37"/>
-      <c r="F97" s="44" t="s">
+      <c r="F97" s="42" t="s">
         <v>46</v>
       </c>
       <c r="G97" s="37">
@@ -5842,12 +8017,12 @@
       <c r="B98" s="37">
         <v>97</v>
       </c>
-      <c r="C98" s="40"/>
-      <c r="D98" s="43" t="s">
+      <c r="C98" s="48"/>
+      <c r="D98" s="41" t="s">
         <v>45</v>
       </c>
       <c r="E98" s="37"/>
-      <c r="F98" s="43" t="s">
+      <c r="F98" s="41" t="s">
         <v>44</v>
       </c>
       <c r="G98" s="37">
@@ -5868,10 +8043,10 @@
       <c r="B99" s="37">
         <v>98</v>
       </c>
-      <c r="C99" s="40"/>
-      <c r="D99" s="43"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="41"/>
       <c r="E99" s="37"/>
-      <c r="F99" s="43" t="s">
+      <c r="F99" s="41" t="s">
         <v>43</v>
       </c>
       <c r="G99" s="37">
@@ -5892,12 +8067,12 @@
       <c r="B100" s="37">
         <v>99</v>
       </c>
-      <c r="C100" s="40"/>
-      <c r="D100" s="43" t="s">
+      <c r="C100" s="48"/>
+      <c r="D100" s="41" t="s">
         <v>42</v>
       </c>
       <c r="E100" s="37"/>
-      <c r="F100" s="43" t="s">
+      <c r="F100" s="41" t="s">
         <v>41</v>
       </c>
       <c r="G100" s="37">
@@ -5962,10 +8137,10 @@
       <c r="B103" s="37">
         <v>102</v>
       </c>
-      <c r="C103" s="41" t="s">
+      <c r="C103" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D103" s="42" t="s">
+      <c r="D103" s="40" t="s">
         <v>38</v>
       </c>
       <c r="E103" s="37"/>
@@ -5984,8 +8159,8 @@
       <c r="B104" s="37">
         <v>103</v>
       </c>
-      <c r="C104" s="40"/>
-      <c r="D104" s="42">
+      <c r="C104" s="48"/>
+      <c r="D104" s="40">
         <v>0</v>
       </c>
       <c r="E104" s="37"/>
@@ -6004,8 +8179,8 @@
       <c r="B105" s="37">
         <v>104</v>
       </c>
-      <c r="C105" s="40"/>
-      <c r="D105" s="42" t="s">
+      <c r="C105" s="48"/>
+      <c r="D105" s="40" t="s">
         <v>38</v>
       </c>
       <c r="E105" s="37"/>
@@ -6046,7 +8221,7 @@
       <c r="B107" s="37">
         <v>106</v>
       </c>
-      <c r="C107" s="41" t="s">
+      <c r="C107" s="47" t="s">
         <v>35</v>
       </c>
       <c r="D107" s="39" t="s">
@@ -6074,7 +8249,7 @@
       <c r="B108" s="37">
         <v>107</v>
       </c>
-      <c r="C108" s="40"/>
+      <c r="C108" s="48"/>
       <c r="D108" s="39"/>
       <c r="E108" s="37"/>
       <c r="F108" s="39" t="s">
@@ -6098,7 +8273,7 @@
       <c r="B109" s="37">
         <v>108</v>
       </c>
-      <c r="C109" s="40"/>
+      <c r="C109" s="48"/>
       <c r="D109" s="39"/>
       <c r="E109" s="37"/>
       <c r="F109" s="39" t="s">
@@ -6117,6 +8292,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C92:C100"/>
     <mergeCell ref="C107:C109"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C28"/>
@@ -6124,11 +8304,6 @@
     <mergeCell ref="C53:C55"/>
     <mergeCell ref="C74:C82"/>
     <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C92:C100"/>
     <mergeCell ref="C103:C105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/umbilical_cable/Conections.xlsx
+++ b/umbilical_cable/Conections.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f2aeb4bf82bb6ff/Documents/GitHub/Staubli_RX60L/umbilical_cable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deanf_iwtm3ll\OneDrive\Documents\GitHub\Staubli_RX60L\umbilical_cable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2824144B-9A08-4ABF-BB87-CF416B28C923}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FB8A0503-42BB-4443-A1D1-88860ADA32EA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="674" activeTab="1" xr2:uid="{95819A87-8FD1-41E7-BA50-ADC82AE61CE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="674" activeTab="2" xr2:uid="{95819A87-8FD1-41E7-BA50-ADC82AE61CE3}"/>
   </bookViews>
   <sheets>
     <sheet name="ATQ RJ45 Han108" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ATQ RJ45 Han108'!$A$1:$K$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Han108_Wire_Details!$A$1:$S$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Han108_Wire_Details!$A$1:$Q$61</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Han108_Wire_Details!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="166">
   <si>
     <t>=</t>
   </si>
@@ -527,13 +527,16 @@
   </si>
   <si>
     <t>HAN 108</t>
+  </si>
+  <si>
+    <t>97/98</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +557,14 @@
     <font>
       <u val="double"/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1001,7 +1012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1088,12 +1099,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1101,6 +1106,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1421,7 +1441,7 @@
   <dimension ref="B1:P60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,7 +1473,7 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="52" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1477,7 +1497,7 @@
       <c r="H3" s="26">
         <v>3</v>
       </c>
-      <c r="J3" s="55">
+      <c r="J3" s="53">
         <v>26</v>
       </c>
     </row>
@@ -1497,7 +1517,7 @@
       <c r="H4" s="27">
         <v>6</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="53">
         <v>25</v>
       </c>
     </row>
@@ -1509,7 +1529,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
-      <c r="J5" s="55"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
@@ -1531,7 +1551,7 @@
       <c r="H6" s="26">
         <v>2</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="53">
         <v>22</v>
       </c>
     </row>
@@ -1551,7 +1571,7 @@
       <c r="H7" s="27">
         <v>1</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="53">
         <v>23</v>
       </c>
     </row>
@@ -1563,7 +1583,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="J8" s="55"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
@@ -1585,7 +1605,7 @@
       <c r="H9" s="28">
         <v>4</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="53">
         <v>19</v>
       </c>
     </row>
@@ -1605,7 +1625,7 @@
       <c r="H10" s="27">
         <v>5</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="53">
         <v>20</v>
       </c>
     </row>
@@ -1617,7 +1637,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="J11" s="55"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
@@ -1631,7 +1651,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="55"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
@@ -1651,7 +1671,7 @@
       <c r="H13" s="26">
         <v>3</v>
       </c>
-      <c r="J13" s="55">
+      <c r="J13" s="53">
         <v>44</v>
       </c>
     </row>
@@ -1671,7 +1691,7 @@
       <c r="H14" s="27">
         <v>6</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="53">
         <v>43</v>
       </c>
     </row>
@@ -1683,7 +1703,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
-      <c r="J15" s="55"/>
+      <c r="J15" s="53"/>
     </row>
     <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
@@ -1703,7 +1723,7 @@
       <c r="H16" s="26">
         <v>2</v>
       </c>
-      <c r="J16" s="55">
+      <c r="J16" s="53">
         <v>40</v>
       </c>
       <c r="P16" s="25"/>
@@ -1724,7 +1744,7 @@
       <c r="H17" s="27">
         <v>1</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="53">
         <v>41</v>
       </c>
     </row>
@@ -1736,7 +1756,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
-      <c r="J18" s="55"/>
+      <c r="J18" s="53"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -1756,7 +1776,7 @@
       <c r="H19" s="26">
         <v>4</v>
       </c>
-      <c r="J19" s="55">
+      <c r="J19" s="53">
         <v>37</v>
       </c>
     </row>
@@ -1776,7 +1796,7 @@
       <c r="H20" s="27">
         <v>5</v>
       </c>
-      <c r="J20" s="55">
+      <c r="J20" s="53">
         <v>38</v>
       </c>
     </row>
@@ -1788,7 +1808,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
-      <c r="J21" s="55"/>
+      <c r="J21" s="53"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
@@ -1802,7 +1822,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
-      <c r="J22" s="55"/>
+      <c r="J22" s="53"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
@@ -1822,7 +1842,7 @@
       <c r="H23" s="28">
         <v>3</v>
       </c>
-      <c r="J23" s="55">
+      <c r="J23" s="53">
         <v>61</v>
       </c>
     </row>
@@ -1842,7 +1862,7 @@
       <c r="H24" s="26">
         <v>6</v>
       </c>
-      <c r="J24" s="55">
+      <c r="J24" s="53">
         <v>62</v>
       </c>
     </row>
@@ -1854,7 +1874,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
-      <c r="J25" s="55"/>
+      <c r="J25" s="53"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
@@ -1874,7 +1894,7 @@
       <c r="H26" s="26">
         <v>2</v>
       </c>
-      <c r="J26" s="55">
+      <c r="J26" s="53">
         <v>59</v>
       </c>
     </row>
@@ -1894,7 +1914,7 @@
       <c r="H27" s="27">
         <v>1</v>
       </c>
-      <c r="J27" s="55">
+      <c r="J27" s="53">
         <v>58</v>
       </c>
     </row>
@@ -1906,7 +1926,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
-      <c r="J28" s="55"/>
+      <c r="J28" s="53"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
@@ -1926,7 +1946,7 @@
       <c r="H29" s="26">
         <v>4</v>
       </c>
-      <c r="J29" s="55">
+      <c r="J29" s="53">
         <v>56</v>
       </c>
     </row>
@@ -1946,7 +1966,7 @@
       <c r="H30" s="27">
         <v>5</v>
       </c>
-      <c r="J30" s="55">
+      <c r="J30" s="53">
         <v>55</v>
       </c>
     </row>
@@ -1958,7 +1978,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
-      <c r="J31" s="55"/>
+      <c r="J31" s="53"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
@@ -1972,7 +1992,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
-      <c r="J32" s="55"/>
+      <c r="J32" s="53"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
@@ -1992,7 +2012,7 @@
       <c r="H33" s="26">
         <v>2</v>
       </c>
-      <c r="J33" s="55">
+      <c r="J33" s="53">
         <v>79</v>
       </c>
     </row>
@@ -2012,7 +2032,7 @@
       <c r="H34" s="27">
         <v>1</v>
       </c>
-      <c r="J34" s="55">
+      <c r="J34" s="53">
         <v>80</v>
       </c>
     </row>
@@ -2024,7 +2044,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="7"/>
-      <c r="J35" s="55"/>
+      <c r="J35" s="53"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
@@ -2044,7 +2064,7 @@
       <c r="H36" s="26">
         <v>3</v>
       </c>
-      <c r="J36" s="55">
+      <c r="J36" s="53">
         <v>77</v>
       </c>
     </row>
@@ -2064,7 +2084,7 @@
       <c r="H37" s="27">
         <v>6</v>
       </c>
-      <c r="J37" s="55">
+      <c r="J37" s="53">
         <v>78</v>
       </c>
     </row>
@@ -2076,7 +2096,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="7"/>
-      <c r="J38" s="55"/>
+      <c r="J38" s="53"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
@@ -2096,7 +2116,7 @@
       <c r="H39" s="26">
         <v>4</v>
       </c>
-      <c r="J39" s="55">
+      <c r="J39" s="53">
         <v>74</v>
       </c>
     </row>
@@ -2116,7 +2136,7 @@
       <c r="H40" s="27">
         <v>5</v>
       </c>
-      <c r="J40" s="55">
+      <c r="J40" s="53">
         <v>73</v>
       </c>
     </row>
@@ -2128,7 +2148,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
-      <c r="J41" s="55"/>
+      <c r="J41" s="53"/>
     </row>
     <row r="42" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
@@ -2142,7 +2162,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="7"/>
-      <c r="J42" s="55"/>
+      <c r="J42" s="53"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
@@ -2162,7 +2182,7 @@
       <c r="H43" s="26">
         <v>3</v>
       </c>
-      <c r="J43" s="55">
+      <c r="J43" s="53">
         <v>97</v>
       </c>
     </row>
@@ -2182,7 +2202,7 @@
       <c r="H44" s="27">
         <v>6</v>
       </c>
-      <c r="J44" s="55">
+      <c r="J44" s="53">
         <v>96</v>
       </c>
     </row>
@@ -2194,7 +2214,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="7"/>
-      <c r="J45" s="55"/>
+      <c r="J45" s="53"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
@@ -2214,7 +2234,7 @@
       <c r="H46" s="26">
         <v>2</v>
       </c>
-      <c r="J46" s="55">
+      <c r="J46" s="53">
         <v>95</v>
       </c>
     </row>
@@ -2234,7 +2254,7 @@
       <c r="H47" s="27">
         <v>1</v>
       </c>
-      <c r="J47" s="55">
+      <c r="J47" s="53">
         <v>94</v>
       </c>
     </row>
@@ -2246,7 +2266,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="55"/>
+      <c r="J48" s="53"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
@@ -2266,7 +2286,7 @@
       <c r="H49" s="26">
         <v>4</v>
       </c>
-      <c r="J49" s="55">
+      <c r="J49" s="53">
         <v>92</v>
       </c>
     </row>
@@ -2286,7 +2306,7 @@
       <c r="H50" s="27">
         <v>5</v>
       </c>
-      <c r="J50" s="55">
+      <c r="J50" s="53">
         <v>91</v>
       </c>
     </row>
@@ -2298,7 +2318,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
-      <c r="J51" s="55"/>
+      <c r="J51" s="53"/>
     </row>
     <row r="52" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
@@ -2312,7 +2332,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="7"/>
-      <c r="J52" s="55"/>
+      <c r="J52" s="53"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
@@ -2332,7 +2352,7 @@
       <c r="H53" s="26">
         <v>3</v>
       </c>
-      <c r="J53" s="55">
+      <c r="J53" s="53">
         <v>115</v>
       </c>
     </row>
@@ -2352,7 +2372,7 @@
       <c r="H54" s="27">
         <v>6</v>
       </c>
-      <c r="J54" s="55">
+      <c r="J54" s="53">
         <v>116</v>
       </c>
     </row>
@@ -2364,7 +2384,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="7"/>
-      <c r="J55" s="55"/>
+      <c r="J55" s="53"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
@@ -2384,7 +2404,7 @@
       <c r="H56" s="26">
         <v>2</v>
       </c>
-      <c r="J56" s="55">
+      <c r="J56" s="53">
         <v>113</v>
       </c>
     </row>
@@ -2404,7 +2424,7 @@
       <c r="H57" s="27">
         <v>1</v>
       </c>
-      <c r="J57" s="55">
+      <c r="J57" s="53">
         <v>112</v>
       </c>
     </row>
@@ -2416,7 +2436,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="7"/>
-      <c r="J58" s="55"/>
+      <c r="J58" s="53"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
@@ -2436,7 +2456,7 @@
       <c r="H59" s="26">
         <v>4</v>
       </c>
-      <c r="J59" s="55">
+      <c r="J59" s="53">
         <v>110</v>
       </c>
     </row>
@@ -2456,7 +2476,7 @@
       <c r="H60" s="12">
         <v>5</v>
       </c>
-      <c r="J60" s="56">
+      <c r="J60" s="54">
         <v>109</v>
       </c>
     </row>
@@ -2468,11 +2488,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4FA9F6-B3B2-4EB3-A4D7-A65A4144CAA3}">
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:Q1047512"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="132" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="132" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2490,14 +2510,14 @@
     <col min="11" max="11" width="8.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="3.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.140625" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -2507,7 +2527,7 @@
       <c r="C1" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>148</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2519,7 +2539,7 @@
       <c r="G1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>148</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -2535,1988 +2555,2086 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="46">
-        <v>9</v>
-      </c>
-      <c r="C2" s="46">
-        <v>6</v>
-      </c>
-      <c r="D2" s="47">
-        <v>98</v>
-      </c>
-      <c r="E2" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="45">
-        <v>2</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="47">
-        <v>98</v>
-      </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="45">
-        <v>5</v>
-      </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="P2" s="51"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="46">
-        <v>7</v>
-      </c>
-      <c r="C3" s="46">
-        <v>6</v>
+      <c r="B3" s="45">
+        <v>3</v>
+      </c>
+      <c r="C3" s="45">
+        <v>1</v>
       </c>
       <c r="D3" s="47">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="F3" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="I3" s="47">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="J3" s="48"/>
-      <c r="K3" s="45"/>
+      <c r="K3" s="59"/>
       <c r="L3" s="48"/>
       <c r="M3" s="45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N3" s="45"/>
       <c r="O3" s="48"/>
       <c r="P3" s="48"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="46">
-        <v>8</v>
-      </c>
-      <c r="C4" s="46">
-        <v>6</v>
+      <c r="B4" s="45">
+        <v>2</v>
+      </c>
+      <c r="C4" s="45">
+        <v>1</v>
       </c>
       <c r="D4" s="47">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="F4" s="45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="I4" s="47">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="J4" s="48"/>
-      <c r="K4" s="45"/>
+      <c r="K4" s="59">
+        <v>20</v>
+      </c>
       <c r="L4" s="48"/>
       <c r="M4" s="45">
+        <v>0</v>
+      </c>
+      <c r="N4" s="45"/>
+      <c r="O4" s="48">
         <v>5</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="48"/>
-      <c r="Q4" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="R4">
-        <v>97</v>
-      </c>
-      <c r="S4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P4" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
-      <c r="C5" s="46">
-        <v>6</v>
+      <c r="C5" s="45">
+        <v>1</v>
       </c>
       <c r="D5" s="47">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="E5" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="49">
-        <v>6</v>
+      <c r="F5" s="45">
+        <v>1</v>
       </c>
       <c r="G5" s="45" t="s">
         <v>157</v>
       </c>
       <c r="I5" s="47">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="J5" s="48"/>
-      <c r="K5" s="45"/>
+      <c r="K5" s="59">
+        <v>19</v>
+      </c>
       <c r="L5" s="48"/>
       <c r="M5" s="45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N5" s="45"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O5" s="48">
+        <v>4</v>
+      </c>
+      <c r="P5" s="48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="46">
-        <v>2</v>
-      </c>
-      <c r="C6" s="46">
-        <v>6</v>
+      <c r="B6" s="45">
+        <v>9</v>
+      </c>
+      <c r="C6" s="45">
+        <v>1</v>
       </c>
       <c r="D6" s="47">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" s="49">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="45">
+        <v>13</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="I6" s="47">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="J6" s="48"/>
-      <c r="K6" s="45"/>
+      <c r="K6" s="59"/>
       <c r="L6" s="48"/>
       <c r="M6" s="45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N6" s="45"/>
       <c r="O6" s="48"/>
       <c r="P6" s="48"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="46">
-        <v>3</v>
-      </c>
-      <c r="C7" s="46">
-        <v>6</v>
+      <c r="B7" s="45">
+        <v>8</v>
+      </c>
+      <c r="C7" s="45">
+        <v>1</v>
       </c>
       <c r="D7" s="47">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" s="49">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="F7" s="45">
+        <v>13</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="I7" s="47">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="J7" s="48"/>
-      <c r="K7" s="45"/>
+      <c r="K7" s="59">
+        <v>26</v>
+      </c>
       <c r="L7" s="48"/>
       <c r="M7" s="45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N7" s="45"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O7" s="48">
+        <v>3</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="46">
-        <v>5</v>
-      </c>
-      <c r="C8" s="46">
-        <v>6</v>
+      <c r="B8" s="45">
+        <v>7</v>
+      </c>
+      <c r="C8" s="45">
+        <v>1</v>
       </c>
       <c r="D8" s="47">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="45">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="I8" s="47">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="J8" s="48"/>
-      <c r="K8" s="45"/>
+      <c r="K8" s="59">
+        <v>25</v>
+      </c>
       <c r="L8" s="48"/>
       <c r="M8" s="45">
+        <v>0</v>
+      </c>
+      <c r="N8" s="45"/>
+      <c r="O8" s="48">
+        <v>6</v>
+      </c>
+      <c r="P8" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="46">
-        <v>4</v>
-      </c>
-      <c r="C9" s="46">
+      <c r="B9" s="45">
         <v>6</v>
       </c>
+      <c r="C9" s="45">
+        <v>1</v>
+      </c>
       <c r="D9" s="47">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="F9" s="45">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I9" s="47">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="J9" s="48"/>
-      <c r="K9" s="45"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="48"/>
       <c r="M9" s="45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N9" s="45"/>
       <c r="O9" s="48"/>
       <c r="P9" s="48"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="46">
-        <v>6</v>
-      </c>
-      <c r="C10" s="46">
-        <v>6</v>
+      <c r="B10" s="45">
+        <v>5</v>
+      </c>
+      <c r="C10" s="45">
+        <v>1</v>
       </c>
       <c r="D10" s="47">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="F10" s="45">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="I10" s="47">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="J10" s="48"/>
-      <c r="K10" s="45"/>
+      <c r="K10" s="59">
+        <v>22</v>
+      </c>
       <c r="L10" s="48"/>
       <c r="M10" s="45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N10" s="45"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="O10" s="48">
+        <v>2</v>
+      </c>
+      <c r="P10" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="45">
+        <v>4</v>
+      </c>
+      <c r="C11" s="45">
+        <v>1</v>
+      </c>
+      <c r="D11" s="47">
+        <v>4</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="45">
+        <v>7</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="47">
+        <v>4</v>
+      </c>
+      <c r="J11" s="48"/>
+      <c r="K11" s="59">
+        <v>21</v>
+      </c>
+      <c r="L11" s="48"/>
+      <c r="M11" s="45">
+        <v>0</v>
+      </c>
+      <c r="N11" s="45"/>
+      <c r="O11" s="48">
+        <v>1</v>
+      </c>
+      <c r="P11" s="48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="50">
-        <v>1</v>
-      </c>
-      <c r="C12" s="50">
-        <v>5</v>
-      </c>
-      <c r="D12" s="47">
-        <v>73</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" s="45">
-        <v>5</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="47">
-        <v>73</v>
-      </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="45">
-        <v>4</v>
-      </c>
-      <c r="N12" s="45"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="51"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B13" s="45">
+        <v>3</v>
+      </c>
+      <c r="C13" s="45">
         <v>2</v>
       </c>
-      <c r="C13" s="45">
-        <v>5</v>
-      </c>
       <c r="D13" s="47">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="E13" s="45" t="s">
         <v>156</v>
       </c>
       <c r="F13" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="I13" s="47">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="J13" s="48"/>
-      <c r="K13" s="45"/>
+      <c r="K13" s="57"/>
       <c r="L13" s="48"/>
       <c r="M13" s="45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" s="45"/>
       <c r="O13" s="48"/>
       <c r="P13" s="48"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B14" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" s="47">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E14" s="45" t="s">
         <v>156</v>
       </c>
       <c r="F14" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="I14" s="47">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J14" s="48"/>
-      <c r="K14" s="45"/>
+      <c r="K14" s="57">
+        <v>44</v>
+      </c>
       <c r="L14" s="48"/>
       <c r="M14" s="45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N14" s="45"/>
       <c r="O14" s="48"/>
       <c r="P14" s="48"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B15" s="45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" s="47">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="49">
-        <v>11</v>
+        <v>156</v>
+      </c>
+      <c r="F15" s="45">
+        <v>2</v>
       </c>
       <c r="G15" s="45" t="s">
         <v>157</v>
       </c>
       <c r="I15" s="47">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J15" s="48"/>
-      <c r="K15" s="45"/>
+      <c r="K15" s="57">
+        <v>43</v>
+      </c>
       <c r="L15" s="48"/>
       <c r="M15" s="45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N15" s="45"/>
       <c r="O15" s="48"/>
       <c r="P15" s="48"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B16" s="45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" s="47">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="49">
-        <v>11</v>
+        <v>156</v>
+      </c>
+      <c r="F16" s="45">
+        <v>8</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="I16" s="47">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J16" s="48"/>
-      <c r="K16" s="45"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="48"/>
       <c r="M16" s="45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" s="45"/>
       <c r="O16" s="48"/>
       <c r="P16" s="48"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B17" s="45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" s="47">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="49">
+        <v>156</v>
+      </c>
+      <c r="F17" s="45">
+        <v>8</v>
+      </c>
+      <c r="G17" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="45" t="s">
-        <v>154</v>
-      </c>
       <c r="I17" s="47">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="J17" s="48"/>
-      <c r="K17" s="45"/>
+      <c r="K17" s="57">
+        <v>40</v>
+      </c>
       <c r="L17" s="48"/>
       <c r="M17" s="45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" s="45"/>
       <c r="O17" s="48"/>
       <c r="P17" s="48"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B18" s="45">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" s="47">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="F18" s="45">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="I18" s="47">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="J18" s="48"/>
-      <c r="K18" s="45"/>
+      <c r="K18" s="57">
+        <v>41</v>
+      </c>
       <c r="L18" s="48"/>
       <c r="M18" s="45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N18" s="45"/>
       <c r="O18" s="48"/>
       <c r="P18" s="48"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B19" s="45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="47">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="F19" s="45">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="I19" s="47">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="J19" s="48"/>
-      <c r="K19" s="45"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="48"/>
       <c r="M19" s="45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N19" s="45"/>
       <c r="O19" s="48"/>
       <c r="P19" s="48"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B20" s="45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" s="47">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="F20" s="45">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="47">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="J20" s="48"/>
-      <c r="K20" s="45"/>
+      <c r="K20" s="57">
+        <v>37</v>
+      </c>
       <c r="L20" s="48"/>
       <c r="M20" s="45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N20" s="45"/>
       <c r="O20" s="48"/>
       <c r="P20" s="48"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="45">
+        <v>7</v>
+      </c>
+      <c r="C21" s="45">
+        <v>2</v>
+      </c>
+      <c r="D21" s="47">
+        <v>25</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="45">
+        <v>14</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="47">
+        <v>25</v>
+      </c>
+      <c r="J21" s="48"/>
+      <c r="K21" s="57">
+        <v>38</v>
+      </c>
+      <c r="L21" s="48"/>
+      <c r="M21" s="45">
+        <v>1</v>
+      </c>
+      <c r="N21" s="45"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="45">
-        <v>1</v>
-      </c>
-      <c r="C22" s="45">
-        <v>4</v>
-      </c>
-      <c r="D22" s="47">
-        <v>57</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="45">
-        <v>4</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" s="47">
-        <v>57</v>
-      </c>
-      <c r="J22" s="48"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="45">
-        <v>3</v>
-      </c>
-      <c r="N22" s="45"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="42"/>
+      <c r="K22" s="57"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="50">
-        <v>2</v>
-      </c>
-      <c r="C23" s="50">
-        <v>4</v>
+      <c r="B23" s="45">
+        <v>3</v>
+      </c>
+      <c r="C23" s="45">
+        <v>3</v>
       </c>
       <c r="D23" s="47">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E23" s="45" t="s">
         <v>156</v>
       </c>
       <c r="F23" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="I23" s="47">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J23" s="48"/>
-      <c r="K23" s="45"/>
+      <c r="K23" s="57"/>
       <c r="L23" s="48"/>
       <c r="M23" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" s="45"/>
       <c r="O23" s="48"/>
       <c r="P23" s="48"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="50">
+      <c r="B24" s="45">
+        <v>2</v>
+      </c>
+      <c r="C24" s="45">
         <v>3</v>
       </c>
-      <c r="C24" s="50">
-        <v>4</v>
-      </c>
       <c r="D24" s="47">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E24" s="45" t="s">
         <v>156</v>
       </c>
       <c r="F24" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="I24" s="47">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J24" s="48"/>
-      <c r="K24" s="45"/>
+      <c r="K24" s="57">
+        <v>61</v>
+      </c>
       <c r="L24" s="48"/>
       <c r="M24" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" s="45"/>
       <c r="O24" s="48"/>
       <c r="P24" s="48"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="50">
-        <v>9</v>
-      </c>
-      <c r="C25" s="50">
-        <v>4</v>
+      <c r="B25" s="45">
+        <v>1</v>
+      </c>
+      <c r="C25" s="45">
+        <v>3</v>
       </c>
       <c r="D25" s="47">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="49">
-        <v>16</v>
+        <v>156</v>
+      </c>
+      <c r="F25" s="45">
+        <v>3</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I25" s="47">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="J25" s="48"/>
-      <c r="K25" s="45"/>
+      <c r="K25" s="57">
+        <v>62</v>
+      </c>
       <c r="L25" s="48"/>
       <c r="M25" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N25" s="45"/>
       <c r="O25" s="48"/>
       <c r="P25" s="48"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" s="48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B26" s="45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E26" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="49">
-        <v>16</v>
+      <c r="F26" s="45">
+        <v>15</v>
       </c>
       <c r="G26" s="45" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="I26" s="47">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J26" s="48"/>
-      <c r="K26" s="45"/>
+      <c r="K26" s="57"/>
       <c r="L26" s="48"/>
       <c r="M26" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26" s="45"/>
       <c r="O26" s="48"/>
       <c r="P26" s="48"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B27" s="45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="47">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E27" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="49">
-        <v>16</v>
+      <c r="F27" s="45">
+        <v>15</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="I27" s="47">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J27" s="48"/>
-      <c r="K27" s="45"/>
+      <c r="K27" s="57">
+        <v>59</v>
+      </c>
       <c r="L27" s="48"/>
       <c r="M27" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27" s="45"/>
       <c r="O27" s="48"/>
       <c r="P27" s="48"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B28" s="45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C28" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="47">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E28" s="45" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="45">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G28" s="45" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I28" s="47">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="J28" s="48"/>
-      <c r="K28" s="45"/>
+      <c r="K28" s="57">
+        <v>58</v>
+      </c>
       <c r="L28" s="48"/>
       <c r="M28" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N28" s="45"/>
       <c r="O28" s="48"/>
       <c r="P28" s="48"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B29" s="45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="47">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E29" s="45" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="I29" s="47">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J29" s="48"/>
-      <c r="K29" s="45"/>
+      <c r="K29" s="57"/>
       <c r="L29" s="48"/>
       <c r="M29" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" s="45"/>
       <c r="O29" s="48"/>
       <c r="P29" s="48"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B30" s="45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="47">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E30" s="45" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="I30" s="47">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="J30" s="48"/>
-      <c r="K30" s="45"/>
+      <c r="K30" s="57">
+        <v>56</v>
+      </c>
       <c r="L30" s="48"/>
       <c r="M30" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30" s="45"/>
       <c r="O30" s="48"/>
       <c r="P30" s="48"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="45">
+        <v>4</v>
+      </c>
+      <c r="C31" s="45">
+        <v>3</v>
+      </c>
+      <c r="D31" s="47">
+        <v>40</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="45">
+        <v>9</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="47">
+        <v>40</v>
+      </c>
+      <c r="J31" s="48"/>
+      <c r="K31" s="57">
+        <v>55</v>
+      </c>
+      <c r="L31" s="48"/>
+      <c r="M31" s="45">
+        <v>2</v>
+      </c>
+      <c r="N31" s="45"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" s="45">
-        <v>3</v>
-      </c>
-      <c r="C32" s="45">
-        <v>3</v>
-      </c>
-      <c r="D32" s="47">
-        <v>39</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="F32" s="45">
-        <v>3</v>
-      </c>
-      <c r="G32" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="I32" s="47">
-        <v>39</v>
-      </c>
-      <c r="J32" s="48"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="45">
-        <v>2</v>
-      </c>
-      <c r="N32" s="45"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="42"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B33" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" s="47">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E33" s="45" t="s">
         <v>156</v>
       </c>
       <c r="F33" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="I33" s="47">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J33" s="48"/>
-      <c r="K33" s="45"/>
+      <c r="K33" s="57"/>
       <c r="L33" s="48"/>
       <c r="M33" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33" s="45"/>
       <c r="O33" s="48"/>
       <c r="P33" s="48"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="45">
-        <v>1</v>
-      </c>
-      <c r="C34" s="45">
-        <v>3</v>
+      <c r="B34" s="50">
+        <v>2</v>
+      </c>
+      <c r="C34" s="50">
+        <v>4</v>
       </c>
       <c r="D34" s="47">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E34" s="45" t="s">
         <v>156</v>
       </c>
       <c r="F34" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G34" s="45" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="I34" s="47">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="J34" s="48"/>
-      <c r="K34" s="45"/>
+      <c r="K34" s="57">
+        <v>79</v>
+      </c>
       <c r="L34" s="48"/>
       <c r="M34" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34" s="45"/>
       <c r="O34" s="48"/>
       <c r="P34" s="48"/>
-      <c r="Q34" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="45">
-        <v>9</v>
-      </c>
-      <c r="C35" s="45">
+      <c r="B35" s="50">
         <v>3</v>
       </c>
+      <c r="C35" s="50">
+        <v>4</v>
+      </c>
       <c r="D35" s="47">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="F35" s="45">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G35" s="45" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I35" s="47">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J35" s="48"/>
-      <c r="K35" s="45"/>
+      <c r="K35" s="57">
+        <v>80</v>
+      </c>
       <c r="L35" s="48"/>
       <c r="M35" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N35" s="45"/>
       <c r="O35" s="48"/>
       <c r="P35" s="48"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="45">
-        <v>8</v>
-      </c>
-      <c r="C36" s="45">
-        <v>3</v>
+      <c r="B36" s="50">
+        <v>9</v>
+      </c>
+      <c r="C36" s="50">
+        <v>4</v>
       </c>
       <c r="D36" s="47">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E36" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="45">
-        <v>15</v>
+      <c r="F36" s="49">
+        <v>16</v>
       </c>
       <c r="G36" s="45" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="I36" s="47">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="J36" s="48"/>
-      <c r="K36" s="45"/>
+      <c r="K36" s="57"/>
       <c r="L36" s="48"/>
       <c r="M36" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N36" s="45"/>
       <c r="O36" s="48"/>
       <c r="P36" s="48"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B37" s="45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" s="47">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E37" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="45">
-        <v>15</v>
+      <c r="F37" s="49">
+        <v>16</v>
       </c>
       <c r="G37" s="45" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="I37" s="47">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="J37" s="48"/>
-      <c r="K37" s="45"/>
+      <c r="K37" s="57">
+        <v>77</v>
+      </c>
       <c r="L37" s="48"/>
       <c r="M37" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N37" s="45"/>
       <c r="O37" s="48"/>
       <c r="P37" s="48"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B38" s="45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" s="47">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E38" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="45">
-        <v>9</v>
+      <c r="F38" s="49">
+        <v>16</v>
       </c>
       <c r="G38" s="45" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I38" s="47">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="J38" s="48"/>
-      <c r="K38" s="45"/>
+      <c r="K38" s="57">
+        <v>78</v>
+      </c>
       <c r="L38" s="48"/>
       <c r="M38" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N38" s="45"/>
       <c r="O38" s="48"/>
       <c r="P38" s="48"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B39" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" s="47">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E39" s="45" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="I39" s="47">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="J39" s="48"/>
-      <c r="K39" s="45"/>
+      <c r="K39" s="57"/>
       <c r="L39" s="48"/>
       <c r="M39" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N39" s="45"/>
       <c r="O39" s="48"/>
       <c r="P39" s="48"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B40" s="45">
+        <v>5</v>
+      </c>
+      <c r="C40" s="45">
         <v>4</v>
       </c>
-      <c r="C40" s="45">
-        <v>3</v>
-      </c>
       <c r="D40" s="47">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E40" s="45" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G40" s="45" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="I40" s="47">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="J40" s="48"/>
-      <c r="K40" s="45"/>
+      <c r="K40" s="57">
+        <v>74</v>
+      </c>
       <c r="L40" s="48"/>
       <c r="M40" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N40" s="45"/>
       <c r="O40" s="48"/>
       <c r="P40" s="48"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="45">
+        <v>6</v>
+      </c>
+      <c r="C41" s="45">
+        <v>4</v>
+      </c>
+      <c r="D41" s="47">
+        <v>58</v>
+      </c>
+      <c r="E41" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="45">
+        <v>10</v>
+      </c>
+      <c r="G41" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="I41" s="47">
+        <v>58</v>
+      </c>
+      <c r="J41" s="48"/>
+      <c r="K41" s="57">
+        <v>73</v>
+      </c>
+      <c r="L41" s="48"/>
+      <c r="M41" s="45">
+        <v>3</v>
+      </c>
+      <c r="N41" s="45"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="45">
-        <v>3</v>
-      </c>
-      <c r="C42" s="45">
-        <v>2</v>
-      </c>
-      <c r="D42" s="47">
-        <v>21</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="F42" s="45">
-        <v>2</v>
-      </c>
-      <c r="G42" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="I42" s="47">
-        <v>21</v>
-      </c>
-      <c r="J42" s="48"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="45">
-        <v>1</v>
-      </c>
-      <c r="N42" s="45"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="R42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="42"/>
+      <c r="K42" s="57"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="45">
-        <v>2</v>
-      </c>
-      <c r="C43" s="45">
-        <v>2</v>
+      <c r="B43" s="50">
+        <v>1</v>
+      </c>
+      <c r="C43" s="50">
+        <v>5</v>
       </c>
       <c r="D43" s="47">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E43" s="45" t="s">
         <v>156</v>
       </c>
       <c r="F43" s="45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G43" s="45" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="I43" s="47">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="J43" s="48"/>
-      <c r="K43" s="45"/>
+      <c r="K43" s="58"/>
       <c r="L43" s="48"/>
       <c r="M43" s="45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N43" s="45"/>
       <c r="O43" s="48"/>
       <c r="P43" s="48"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B44" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" s="47">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E44" s="45" t="s">
         <v>156</v>
       </c>
       <c r="F44" s="45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G44" s="45" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="I44" s="47">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="J44" s="48"/>
-      <c r="K44" s="45"/>
+      <c r="K44" s="57">
+        <v>97</v>
+      </c>
       <c r="L44" s="48"/>
       <c r="M44" s="45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N44" s="45"/>
       <c r="O44" s="48"/>
       <c r="P44" s="48"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B45" s="45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C45" s="45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" s="47">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E45" s="45" t="s">
         <v>156</v>
       </c>
       <c r="F45" s="45">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G45" s="45" t="s">
         <v>154</v>
       </c>
       <c r="I45" s="47">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="J45" s="48"/>
-      <c r="K45" s="45"/>
+      <c r="K45" s="57">
+        <v>96</v>
+      </c>
       <c r="L45" s="48"/>
       <c r="M45" s="45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N45" s="45"/>
       <c r="O45" s="48"/>
       <c r="P45" s="48"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B46" s="45">
+        <v>4</v>
+      </c>
+      <c r="C46" s="45">
         <v>5</v>
       </c>
-      <c r="C46" s="45">
-        <v>2</v>
-      </c>
       <c r="D46" s="47">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="F46" s="45">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="F46" s="49">
+        <v>11</v>
       </c>
       <c r="G46" s="45" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="I46" s="47">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="J46" s="48"/>
-      <c r="K46" s="45"/>
+      <c r="K46" s="57"/>
       <c r="L46" s="48"/>
       <c r="M46" s="45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N46" s="45"/>
       <c r="O46" s="48"/>
       <c r="P46" s="48"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B47" s="45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47" s="45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" s="47">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="F47" s="45">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="F47" s="49">
+        <v>11</v>
       </c>
       <c r="G47" s="45" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="I47" s="47">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J47" s="48"/>
-      <c r="K47" s="45"/>
+      <c r="K47" s="57">
+        <v>95</v>
+      </c>
       <c r="L47" s="48"/>
       <c r="M47" s="45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N47" s="45"/>
       <c r="O47" s="48"/>
       <c r="P47" s="48"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B48" s="45">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C48" s="45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" s="47">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="F48" s="45">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="F48" s="49">
+        <v>11</v>
       </c>
       <c r="G48" s="45" t="s">
         <v>154</v>
       </c>
       <c r="I48" s="47">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="J48" s="48"/>
-      <c r="K48" s="45"/>
+      <c r="K48" s="57">
+        <v>94</v>
+      </c>
       <c r="L48" s="48"/>
       <c r="M48" s="45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N48" s="45"/>
       <c r="O48" s="48"/>
       <c r="P48" s="48"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B49" s="45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" s="45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" s="47">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="F49" s="45">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G49" s="45" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I49" s="47">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="J49" s="48"/>
-      <c r="K49" s="45"/>
+      <c r="K49" s="57"/>
       <c r="L49" s="48"/>
       <c r="M49" s="45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N49" s="45"/>
       <c r="O49" s="48"/>
       <c r="P49" s="48"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
         <v>153</v>
       </c>
       <c r="B50" s="45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" s="45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" s="47">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="F50" s="45">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G50" s="45" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="I50" s="47">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="J50" s="48"/>
-      <c r="K50" s="45"/>
+      <c r="K50" s="57">
+        <v>92</v>
+      </c>
       <c r="L50" s="48"/>
       <c r="M50" s="45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N50" s="45"/>
       <c r="O50" s="48"/>
       <c r="P50" s="48"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="45">
+        <v>9</v>
+      </c>
+      <c r="C51" s="45">
+        <v>5</v>
+      </c>
+      <c r="D51" s="47">
+        <v>81</v>
+      </c>
+      <c r="E51" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="45">
+        <v>1</v>
+      </c>
+      <c r="G51" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="47">
+        <v>81</v>
+      </c>
+      <c r="J51" s="48"/>
+      <c r="K51" s="57">
+        <v>91</v>
+      </c>
+      <c r="L51" s="48"/>
+      <c r="M51" s="45">
+        <v>4</v>
+      </c>
+      <c r="N51" s="45"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="P51" s="44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B52" s="45">
-        <v>3</v>
-      </c>
-      <c r="C52" s="45">
-        <v>1</v>
-      </c>
-      <c r="D52" s="47">
-        <v>3</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="F52" s="45">
-        <v>1</v>
-      </c>
-      <c r="G52" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="I52" s="47">
-        <v>3</v>
-      </c>
-      <c r="J52" s="48"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="45">
-        <v>0</v>
-      </c>
-      <c r="N52" s="45"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="57"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B53" s="45">
+      <c r="B53" s="46">
+        <v>9</v>
+      </c>
+      <c r="C53" s="46">
+        <v>6</v>
+      </c>
+      <c r="D53" s="47">
+        <v>98</v>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="45">
         <v>2</v>
       </c>
-      <c r="C53" s="45">
-        <v>1</v>
-      </c>
-      <c r="D53" s="47">
-        <v>2</v>
-      </c>
-      <c r="E53" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="F53" s="45">
-        <v>1</v>
-      </c>
       <c r="G53" s="45" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I53" s="47">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="J53" s="48"/>
-      <c r="K53" s="45"/>
+      <c r="K53" s="57">
+        <v>115</v>
+      </c>
       <c r="L53" s="48"/>
       <c r="M53" s="45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N53" s="45"/>
-      <c r="O53" s="48">
-        <v>5</v>
-      </c>
-      <c r="P53" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="45">
-        <v>1</v>
-      </c>
-      <c r="C54" s="45">
-        <v>1</v>
+      <c r="B54" s="46">
+        <v>7</v>
+      </c>
+      <c r="C54" s="46">
+        <v>6</v>
       </c>
       <c r="D54" s="47">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="E54" s="45" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="F54" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="45" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="I54" s="47">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="J54" s="48"/>
-      <c r="K54" s="45"/>
+      <c r="K54" s="57">
+        <v>116</v>
+      </c>
       <c r="L54" s="48"/>
       <c r="M54" s="45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N54" s="45"/>
-      <c r="O54" s="48">
-        <v>4</v>
-      </c>
-      <c r="P54" s="48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="45">
-        <v>9</v>
-      </c>
-      <c r="C55" s="45">
-        <v>1</v>
+      <c r="B55" s="46">
+        <v>8</v>
+      </c>
+      <c r="C55" s="46">
+        <v>6</v>
       </c>
       <c r="D55" s="47">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E55" s="45" t="s">
         <v>18</v>
       </c>
       <c r="F55" s="45">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G55" s="45" t="s">
         <v>154</v>
       </c>
       <c r="I55" s="47">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="J55" s="48"/>
-      <c r="K55" s="45"/>
+      <c r="K55" s="57"/>
       <c r="L55" s="48"/>
       <c r="M55" s="45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N55" s="45"/>
       <c r="O55" s="48"/>
       <c r="P55" s="48"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55" s="48" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="45">
-        <v>8</v>
-      </c>
-      <c r="C56" s="45">
+      <c r="B56" s="46">
         <v>1</v>
       </c>
+      <c r="C56" s="46">
+        <v>6</v>
+      </c>
       <c r="D56" s="47">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="45">
-        <v>13</v>
+        <v>156</v>
+      </c>
+      <c r="F56" s="49">
+        <v>6</v>
       </c>
       <c r="G56" s="45" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="I56" s="47">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="J56" s="48"/>
-      <c r="K56" s="45"/>
+      <c r="K56" s="57">
+        <v>113</v>
+      </c>
       <c r="L56" s="48"/>
       <c r="M56" s="45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N56" s="45"/>
-      <c r="O56" s="48">
-        <v>3</v>
-      </c>
-      <c r="P56" s="48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B57" s="45">
-        <v>7</v>
-      </c>
-      <c r="C57" s="45">
-        <v>1</v>
+      <c r="B57" s="46">
+        <v>2</v>
+      </c>
+      <c r="C57" s="46">
+        <v>6</v>
       </c>
       <c r="D57" s="47">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="E57" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="45">
-        <v>13</v>
+        <v>156</v>
+      </c>
+      <c r="F57" s="49">
+        <v>6</v>
       </c>
       <c r="G57" s="45" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="I57" s="47">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="J57" s="48"/>
-      <c r="K57" s="45"/>
+      <c r="K57" s="57">
+        <v>112</v>
+      </c>
       <c r="L57" s="48"/>
       <c r="M57" s="45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N57" s="45"/>
-      <c r="O57" s="48">
-        <v>6</v>
-      </c>
-      <c r="P57" s="48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B58" s="45">
+      <c r="B58" s="46">
+        <v>3</v>
+      </c>
+      <c r="C58" s="46">
         <v>6</v>
       </c>
-      <c r="C58" s="45">
-        <v>1</v>
-      </c>
       <c r="D58" s="47">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E58" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="F58" s="45">
-        <v>7</v>
+      <c r="F58" s="49">
+        <v>6</v>
       </c>
       <c r="G58" s="45" t="s">
         <v>154</v>
       </c>
       <c r="I58" s="47">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="J58" s="48"/>
-      <c r="K58" s="45"/>
+      <c r="K58" s="57"/>
       <c r="L58" s="48"/>
       <c r="M58" s="45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N58" s="45"/>
       <c r="O58" s="48"/>
       <c r="P58" s="48"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B59" s="45">
+      <c r="B59" s="46">
         <v>5</v>
       </c>
-      <c r="C59" s="45">
-        <v>1</v>
+      <c r="C59" s="46">
+        <v>6</v>
       </c>
       <c r="D59" s="47">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E59" s="45" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="F59" s="45">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G59" s="45" t="s">
         <v>11</v>
       </c>
       <c r="I59" s="47">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="J59" s="48"/>
-      <c r="K59" s="45"/>
+      <c r="K59" s="57">
+        <v>110</v>
+      </c>
       <c r="L59" s="48"/>
       <c r="M59" s="45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N59" s="45"/>
-      <c r="O59" s="48">
-        <v>2</v>
-      </c>
-      <c r="P59" s="48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O59" s="48"/>
+      <c r="P59" s="48"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B60" s="45">
+      <c r="B60" s="46">
         <v>4</v>
       </c>
-      <c r="C60" s="45">
-        <v>1</v>
+      <c r="C60" s="46">
+        <v>6</v>
       </c>
       <c r="D60" s="47">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="E60" s="45" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="F60" s="45">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G60" s="45" t="s">
         <v>157</v>
       </c>
       <c r="I60" s="47">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="J60" s="48"/>
-      <c r="K60" s="45"/>
+      <c r="K60" s="57">
+        <v>109</v>
+      </c>
       <c r="L60" s="48"/>
       <c r="M60" s="45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N60" s="45"/>
-      <c r="O60" s="48">
-        <v>1</v>
-      </c>
-      <c r="P60" s="48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048576" s="1" t="s">
+      <c r="O60" s="48"/>
+      <c r="P60" s="48"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="46">
+        <v>6</v>
+      </c>
+      <c r="C61" s="46">
+        <v>6</v>
+      </c>
+      <c r="D61" s="47">
+        <v>96</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="45">
+        <v>12</v>
+      </c>
+      <c r="G61" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="I61" s="47">
+        <v>96</v>
+      </c>
+      <c r="J61" s="48"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="48"/>
+      <c r="M61" s="45">
+        <v>5</v>
+      </c>
+      <c r="N61" s="45"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="48"/>
+    </row>
+    <row r="1047512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1047512" s="1" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4524,7 +4642,7 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" fitToHeight="2" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="31" max="18" man="1"/>
+    <brk id="32" max="16" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -4533,7 +4651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39428A26-CF52-49B3-8663-C4128E0BA154}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4585,7 +4705,7 @@
       <c r="B2" s="32">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="55" t="s">
         <v>138</v>
       </c>
       <c r="D2" s="38" t="s">
@@ -4619,7 +4739,7 @@
       <c r="B3" s="32">
         <v>2</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="38"/>
       <c r="E3" s="32"/>
       <c r="F3" s="38" t="s">
@@ -4647,7 +4767,7 @@
       <c r="B4" s="32">
         <v>3</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="38" t="s">
         <v>39</v>
       </c>
@@ -4677,7 +4797,7 @@
       <c r="B5" s="32">
         <v>4</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="37" t="s">
         <v>131</v>
       </c>
@@ -4707,7 +4827,7 @@
       <c r="B6" s="32">
         <v>5</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="37"/>
       <c r="E6" s="32"/>
       <c r="F6" s="37" t="s">
@@ -4735,7 +4855,7 @@
       <c r="B7" s="32">
         <v>6</v>
       </c>
-      <c r="C7" s="53"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="37" t="s">
         <v>39</v>
       </c>
@@ -4765,7 +4885,7 @@
       <c r="B8" s="32">
         <v>7</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="36" t="s">
         <v>131</v>
       </c>
@@ -4795,7 +4915,7 @@
       <c r="B9" s="32">
         <v>8</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="36"/>
       <c r="E9" s="32"/>
       <c r="F9" s="36" t="s">
@@ -4825,7 +4945,7 @@
       <c r="B10" s="32">
         <v>9</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="36" t="s">
         <v>39</v>
       </c>
@@ -4907,7 +5027,7 @@
       <c r="B13" s="32">
         <v>12</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="55" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="41" t="s">
@@ -4939,7 +5059,7 @@
       <c r="B14" s="32">
         <v>13</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="41"/>
       <c r="E14" s="32"/>
       <c r="F14" s="41" t="s">
@@ -4967,7 +5087,7 @@
       <c r="B15" s="32">
         <v>14</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="55" t="s">
         <v>122</v>
       </c>
       <c r="D15" s="40" t="s">
@@ -5001,7 +5121,7 @@
       <c r="B16" s="32">
         <v>15</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40" t="s">
         <v>54</v>
@@ -5031,7 +5151,7 @@
       <c r="B17" s="32">
         <v>16</v>
       </c>
-      <c r="C17" s="53"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="34" t="s">
         <v>100</v>
       </c>
@@ -5061,7 +5181,7 @@
       <c r="B18" s="32">
         <v>17</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="34"/>
       <c r="E18" s="32"/>
       <c r="F18" s="34" t="s">
@@ -5089,7 +5209,7 @@
       <c r="B19" s="32">
         <v>18</v>
       </c>
-      <c r="C19" s="53"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="34"/>
       <c r="E19" s="32"/>
       <c r="F19" s="34" t="s">
@@ -5117,7 +5237,7 @@
       <c r="B20" s="32">
         <v>19</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="38" t="s">
         <v>118</v>
       </c>
@@ -5147,7 +5267,7 @@
       <c r="B21" s="32">
         <v>20</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="38"/>
       <c r="E21" s="32"/>
       <c r="F21" s="38" t="s">
@@ -5175,7 +5295,7 @@
       <c r="B22" s="32">
         <v>21</v>
       </c>
-      <c r="C22" s="53"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="38" t="s">
         <v>39</v>
       </c>
@@ -5205,7 +5325,7 @@
       <c r="B23" s="32">
         <v>22</v>
       </c>
-      <c r="C23" s="53"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="37" t="s">
         <v>111</v>
       </c>
@@ -5235,7 +5355,7 @@
       <c r="B24" s="32">
         <v>23</v>
       </c>
-      <c r="C24" s="53"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="37"/>
       <c r="E24" s="32"/>
       <c r="F24" s="37" t="s">
@@ -5263,7 +5383,7 @@
       <c r="B25" s="32">
         <v>24</v>
       </c>
-      <c r="C25" s="53"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="37" t="s">
         <v>39</v>
       </c>
@@ -5293,7 +5413,7 @@
       <c r="B26" s="32">
         <v>25</v>
       </c>
-      <c r="C26" s="53"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="36" t="s">
         <v>111</v>
       </c>
@@ -5323,7 +5443,7 @@
       <c r="B27" s="32">
         <v>26</v>
       </c>
-      <c r="C27" s="53"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="36"/>
       <c r="E27" s="32"/>
       <c r="F27" s="36" t="s">
@@ -5351,7 +5471,7 @@
       <c r="B28" s="32">
         <v>27</v>
       </c>
-      <c r="C28" s="53"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="36" t="s">
         <v>39</v>
       </c>
@@ -5495,7 +5615,7 @@
       <c r="B33" s="32">
         <v>32</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="55" t="s">
         <v>102</v>
       </c>
       <c r="D33" s="40" t="s">
@@ -5531,7 +5651,7 @@
       <c r="B34" s="32">
         <v>33</v>
       </c>
-      <c r="C34" s="53"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="40"/>
       <c r="E34" s="40" t="s">
         <v>54</v>
@@ -5563,7 +5683,7 @@
       <c r="B35" s="32">
         <v>34</v>
       </c>
-      <c r="C35" s="53"/>
+      <c r="C35" s="56"/>
       <c r="D35" s="34" t="s">
         <v>100</v>
       </c>
@@ -5595,7 +5715,7 @@
       <c r="B36" s="32">
         <v>35</v>
       </c>
-      <c r="C36" s="53"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="34"/>
       <c r="E36" s="32"/>
       <c r="F36" s="34" t="s">
@@ -5625,7 +5745,7 @@
       <c r="B37" s="32">
         <v>36</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="34"/>
       <c r="E37" s="32"/>
       <c r="F37" s="34" t="s">
@@ -5655,7 +5775,7 @@
       <c r="B38" s="32">
         <v>37</v>
       </c>
-      <c r="C38" s="53"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="38" t="s">
         <v>95</v>
       </c>
@@ -5687,7 +5807,7 @@
       <c r="B39" s="32">
         <v>38</v>
       </c>
-      <c r="C39" s="53"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="38"/>
       <c r="E39" s="32"/>
       <c r="F39" s="38" t="s">
@@ -5711,7 +5831,7 @@
       <c r="B40" s="32">
         <v>39</v>
       </c>
-      <c r="C40" s="53"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="38" t="s">
         <v>39</v>
       </c>
@@ -5737,7 +5857,7 @@
       <c r="B41" s="32">
         <v>40</v>
       </c>
-      <c r="C41" s="53"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="37" t="s">
         <v>87</v>
       </c>
@@ -5763,7 +5883,7 @@
       <c r="B42" s="32">
         <v>41</v>
       </c>
-      <c r="C42" s="53"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="37"/>
       <c r="E42" s="32"/>
       <c r="F42" s="37" t="s">
@@ -5787,7 +5907,7 @@
       <c r="B43" s="32">
         <v>42</v>
       </c>
-      <c r="C43" s="53"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="37" t="s">
         <v>39</v>
       </c>
@@ -5813,7 +5933,7 @@
       <c r="B44" s="32">
         <v>43</v>
       </c>
-      <c r="C44" s="53"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="36" t="s">
         <v>87</v>
       </c>
@@ -5839,7 +5959,7 @@
       <c r="B45" s="32">
         <v>44</v>
       </c>
-      <c r="C45" s="53"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="36"/>
       <c r="E45" s="32"/>
       <c r="F45" s="36" t="s">
@@ -5863,7 +5983,7 @@
       <c r="B46" s="32">
         <v>45</v>
       </c>
-      <c r="C46" s="53"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="36" t="s">
         <v>39</v>
       </c>
@@ -6021,7 +6141,7 @@
       <c r="B53" s="32">
         <v>52</v>
       </c>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="55" t="s">
         <v>82</v>
       </c>
       <c r="D53" s="34" t="s">
@@ -6049,7 +6169,7 @@
       <c r="B54" s="32">
         <v>53</v>
       </c>
-      <c r="C54" s="53"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="34"/>
       <c r="E54" s="32"/>
       <c r="F54" s="34" t="s">
@@ -6073,7 +6193,7 @@
       <c r="B55" s="32">
         <v>54</v>
       </c>
-      <c r="C55" s="53"/>
+      <c r="C55" s="56"/>
       <c r="D55" s="34"/>
       <c r="E55" s="32"/>
       <c r="F55" s="34" t="s">
@@ -6097,7 +6217,7 @@
       <c r="B56" s="32">
         <v>55</v>
       </c>
-      <c r="C56" s="52" t="s">
+      <c r="C56" s="55" t="s">
         <v>79</v>
       </c>
       <c r="D56" s="38" t="s">
@@ -6125,7 +6245,7 @@
       <c r="B57" s="32">
         <v>56</v>
       </c>
-      <c r="C57" s="53"/>
+      <c r="C57" s="56"/>
       <c r="D57" s="38"/>
       <c r="E57" s="32"/>
       <c r="F57" s="38" t="s">
@@ -6149,7 +6269,7 @@
       <c r="B58" s="32">
         <v>57</v>
       </c>
-      <c r="C58" s="53"/>
+      <c r="C58" s="56"/>
       <c r="D58" s="38" t="s">
         <v>39</v>
       </c>
@@ -6175,7 +6295,7 @@
       <c r="B59" s="32">
         <v>58</v>
       </c>
-      <c r="C59" s="53"/>
+      <c r="C59" s="56"/>
       <c r="D59" s="37" t="s">
         <v>61</v>
       </c>
@@ -6201,7 +6321,7 @@
       <c r="B60" s="32">
         <v>59</v>
       </c>
-      <c r="C60" s="53"/>
+      <c r="C60" s="56"/>
       <c r="D60" s="37"/>
       <c r="E60" s="32"/>
       <c r="F60" s="37" t="s">
@@ -6225,7 +6345,7 @@
       <c r="B61" s="32">
         <v>60</v>
       </c>
-      <c r="C61" s="53"/>
+      <c r="C61" s="56"/>
       <c r="D61" s="37" t="s">
         <v>39</v>
       </c>
@@ -6251,7 +6371,7 @@
       <c r="B62" s="32">
         <v>61</v>
       </c>
-      <c r="C62" s="53"/>
+      <c r="C62" s="56"/>
       <c r="D62" s="36" t="s">
         <v>61</v>
       </c>
@@ -6277,7 +6397,7 @@
       <c r="B63" s="32">
         <v>62</v>
       </c>
-      <c r="C63" s="53"/>
+      <c r="C63" s="56"/>
       <c r="D63" s="36"/>
       <c r="E63" s="32"/>
       <c r="F63" s="36" t="s">
@@ -6301,7 +6421,7 @@
       <c r="B64" s="32">
         <v>63</v>
       </c>
-      <c r="C64" s="53"/>
+      <c r="C64" s="56"/>
       <c r="D64" s="36" t="s">
         <v>39</v>
       </c>
@@ -6459,7 +6579,7 @@
       <c r="B71" s="32">
         <v>70</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="55" t="s">
         <v>70</v>
       </c>
       <c r="D71" s="34" t="s">
@@ -6487,7 +6607,7 @@
       <c r="B72" s="32">
         <v>71</v>
       </c>
-      <c r="C72" s="53"/>
+      <c r="C72" s="56"/>
       <c r="D72" s="34"/>
       <c r="E72" s="32"/>
       <c r="F72" s="34" t="s">
@@ -6511,7 +6631,7 @@
       <c r="B73" s="32">
         <v>72</v>
       </c>
-      <c r="C73" s="53"/>
+      <c r="C73" s="56"/>
       <c r="D73" s="34"/>
       <c r="E73" s="32"/>
       <c r="F73" s="34" t="s">
@@ -6535,7 +6655,7 @@
       <c r="B74" s="32">
         <v>73</v>
       </c>
-      <c r="C74" s="52" t="s">
+      <c r="C74" s="55" t="s">
         <v>67</v>
       </c>
       <c r="D74" s="38" t="s">
@@ -6563,7 +6683,7 @@
       <c r="B75" s="32">
         <v>74</v>
       </c>
-      <c r="C75" s="53"/>
+      <c r="C75" s="56"/>
       <c r="D75" s="38"/>
       <c r="E75" s="32"/>
       <c r="F75" s="38" t="s">
@@ -6587,7 +6707,7 @@
       <c r="B76" s="32">
         <v>75</v>
       </c>
-      <c r="C76" s="53"/>
+      <c r="C76" s="56"/>
       <c r="D76" s="38" t="s">
         <v>39</v>
       </c>
@@ -6613,7 +6733,7 @@
       <c r="B77" s="32">
         <v>76</v>
       </c>
-      <c r="C77" s="53"/>
+      <c r="C77" s="56"/>
       <c r="D77" s="37" t="s">
         <v>61</v>
       </c>
@@ -6639,7 +6759,7 @@
       <c r="B78" s="32">
         <v>77</v>
       </c>
-      <c r="C78" s="53"/>
+      <c r="C78" s="56"/>
       <c r="D78" s="37"/>
       <c r="E78" s="32"/>
       <c r="F78" s="37" t="s">
@@ -6663,7 +6783,7 @@
       <c r="B79" s="32">
         <v>78</v>
       </c>
-      <c r="C79" s="53"/>
+      <c r="C79" s="56"/>
       <c r="D79" s="37" t="s">
         <v>39</v>
       </c>
@@ -6689,7 +6809,7 @@
       <c r="B80" s="32">
         <v>79</v>
       </c>
-      <c r="C80" s="53"/>
+      <c r="C80" s="56"/>
       <c r="D80" s="36" t="s">
         <v>61</v>
       </c>
@@ -6715,7 +6835,7 @@
       <c r="B81" s="32">
         <v>80</v>
       </c>
-      <c r="C81" s="53"/>
+      <c r="C81" s="56"/>
       <c r="D81" s="36"/>
       <c r="E81" s="32"/>
       <c r="F81" s="36" t="s">
@@ -6739,7 +6859,7 @@
       <c r="B82" s="32">
         <v>81</v>
       </c>
-      <c r="C82" s="53"/>
+      <c r="C82" s="56"/>
       <c r="D82" s="36" t="s">
         <v>39</v>
       </c>
@@ -6809,7 +6929,7 @@
       <c r="B85" s="32">
         <v>84</v>
       </c>
-      <c r="C85" s="52" t="s">
+      <c r="C85" s="55" t="s">
         <v>57</v>
       </c>
       <c r="D85" s="39"/>
@@ -6837,7 +6957,7 @@
       <c r="B86" s="32">
         <v>85</v>
       </c>
-      <c r="C86" s="53"/>
+      <c r="C86" s="56"/>
       <c r="D86" s="39"/>
       <c r="E86" s="32" t="s">
         <v>54</v>
@@ -6863,7 +6983,7 @@
       <c r="B87" s="32">
         <v>86</v>
       </c>
-      <c r="C87" s="53"/>
+      <c r="C87" s="56"/>
       <c r="D87" s="39"/>
       <c r="E87" s="32" t="s">
         <v>54</v>
@@ -6911,7 +7031,7 @@
       <c r="B89" s="32">
         <v>88</v>
       </c>
-      <c r="C89" s="52" t="s">
+      <c r="C89" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D89" s="34" t="s">
@@ -6939,7 +7059,7 @@
       <c r="B90" s="32">
         <v>89</v>
       </c>
-      <c r="C90" s="53"/>
+      <c r="C90" s="56"/>
       <c r="D90" s="34"/>
       <c r="E90" s="32"/>
       <c r="F90" s="34" t="s">
@@ -6963,7 +7083,7 @@
       <c r="B91" s="32">
         <v>90</v>
       </c>
-      <c r="C91" s="53"/>
+      <c r="C91" s="56"/>
       <c r="D91" s="34"/>
       <c r="E91" s="32"/>
       <c r="F91" s="34" t="s">
@@ -6987,7 +7107,7 @@
       <c r="B92" s="32">
         <v>91</v>
       </c>
-      <c r="C92" s="52" t="s">
+      <c r="C92" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D92" s="38" t="s">
@@ -7015,7 +7135,7 @@
       <c r="B93" s="32">
         <v>92</v>
       </c>
-      <c r="C93" s="53"/>
+      <c r="C93" s="56"/>
       <c r="D93" s="38"/>
       <c r="E93" s="32"/>
       <c r="F93" s="38" t="s">
@@ -7039,7 +7159,7 @@
       <c r="B94" s="32">
         <v>93</v>
       </c>
-      <c r="C94" s="53"/>
+      <c r="C94" s="56"/>
       <c r="D94" s="38" t="s">
         <v>39</v>
       </c>
@@ -7065,7 +7185,7 @@
       <c r="B95" s="32">
         <v>94</v>
       </c>
-      <c r="C95" s="53"/>
+      <c r="C95" s="56"/>
       <c r="D95" s="37" t="s">
         <v>42</v>
       </c>
@@ -7091,7 +7211,7 @@
       <c r="B96" s="32">
         <v>95</v>
       </c>
-      <c r="C96" s="53"/>
+      <c r="C96" s="56"/>
       <c r="D96" s="37"/>
       <c r="E96" s="32"/>
       <c r="F96" s="37" t="s">
@@ -7115,7 +7235,7 @@
       <c r="B97" s="32">
         <v>96</v>
       </c>
-      <c r="C97" s="53"/>
+      <c r="C97" s="56"/>
       <c r="D97" s="37" t="s">
         <v>39</v>
       </c>
@@ -7141,7 +7261,7 @@
       <c r="B98" s="32">
         <v>97</v>
       </c>
-      <c r="C98" s="53"/>
+      <c r="C98" s="56"/>
       <c r="D98" s="36" t="s">
         <v>42</v>
       </c>
@@ -7167,7 +7287,7 @@
       <c r="B99" s="32">
         <v>98</v>
       </c>
-      <c r="C99" s="53"/>
+      <c r="C99" s="56"/>
       <c r="D99" s="36"/>
       <c r="E99" s="32"/>
       <c r="F99" s="36" t="s">
@@ -7191,7 +7311,7 @@
       <c r="B100" s="32">
         <v>99</v>
       </c>
-      <c r="C100" s="53"/>
+      <c r="C100" s="56"/>
       <c r="D100" s="36" t="s">
         <v>39</v>
       </c>
@@ -7261,7 +7381,7 @@
       <c r="B103" s="32">
         <v>102</v>
       </c>
-      <c r="C103" s="52" t="s">
+      <c r="C103" s="55" t="s">
         <v>36</v>
       </c>
       <c r="D103" s="35" t="s">
@@ -7283,7 +7403,7 @@
       <c r="B104" s="32">
         <v>103</v>
       </c>
-      <c r="C104" s="53"/>
+      <c r="C104" s="56"/>
       <c r="D104" s="35">
         <v>0</v>
       </c>
@@ -7303,7 +7423,7 @@
       <c r="B105" s="32">
         <v>104</v>
       </c>
-      <c r="C105" s="53"/>
+      <c r="C105" s="56"/>
       <c r="D105" s="35" t="s">
         <v>35</v>
       </c>
@@ -7345,7 +7465,7 @@
       <c r="B107" s="32">
         <v>106</v>
       </c>
-      <c r="C107" s="52" t="s">
+      <c r="C107" s="55" t="s">
         <v>32</v>
       </c>
       <c r="D107" s="34" t="s">
@@ -7373,7 +7493,7 @@
       <c r="B108" s="32">
         <v>107</v>
       </c>
-      <c r="C108" s="53"/>
+      <c r="C108" s="56"/>
       <c r="D108" s="34"/>
       <c r="E108" s="32"/>
       <c r="F108" s="34" t="s">
@@ -7397,7 +7517,7 @@
       <c r="B109" s="32">
         <v>108</v>
       </c>
-      <c r="C109" s="53"/>
+      <c r="C109" s="56"/>
       <c r="D109" s="34"/>
       <c r="E109" s="32"/>
       <c r="F109" s="34" t="s">
@@ -7431,5 +7551,6 @@
     <mergeCell ref="C92:C100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/umbilical_cable/Conections.xlsx
+++ b/umbilical_cable/Conections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deanf_iwtm3ll\OneDrive\Documents\GitHub\Staubli_RX60L\umbilical_cable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FB8A0503-42BB-4443-A1D1-88860ADA32EA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{464DDA0D-C18C-4A65-B073-FFD8AED40646}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="674" activeTab="2" xr2:uid="{95819A87-8FD1-41E7-BA50-ADC82AE61CE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="674" activeTab="1" xr2:uid="{95819A87-8FD1-41E7-BA50-ADC82AE61CE3}"/>
   </bookViews>
   <sheets>
     <sheet name="ATQ RJ45 Han108" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="167">
   <si>
     <t>=</t>
   </si>
@@ -523,13 +523,16 @@
     <t>Green/White</t>
   </si>
   <si>
-    <t>ATQ</t>
-  </si>
-  <si>
     <t>HAN 108</t>
   </si>
   <si>
     <t>97/98</t>
+  </si>
+  <si>
+    <t>ATQ(A)</t>
+  </si>
+  <si>
+    <t>ATQ(O)</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,14 +653,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="31">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1007,12 +1004,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1085,9 +1143,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1108,21 +1163,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1473,8 +1542,8 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="J2" s="52" t="s">
-        <v>164</v>
+      <c r="J2" s="51" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
@@ -1497,7 +1566,7 @@
       <c r="H3" s="26">
         <v>3</v>
       </c>
-      <c r="J3" s="53">
+      <c r="J3" s="52">
         <v>26</v>
       </c>
     </row>
@@ -1517,7 +1586,7 @@
       <c r="H4" s="27">
         <v>6</v>
       </c>
-      <c r="J4" s="53">
+      <c r="J4" s="52">
         <v>25</v>
       </c>
     </row>
@@ -1529,7 +1598,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
-      <c r="J5" s="53"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
@@ -1551,7 +1620,7 @@
       <c r="H6" s="26">
         <v>2</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="52">
         <v>22</v>
       </c>
     </row>
@@ -1571,7 +1640,7 @@
       <c r="H7" s="27">
         <v>1</v>
       </c>
-      <c r="J7" s="53">
+      <c r="J7" s="52">
         <v>23</v>
       </c>
     </row>
@@ -1583,7 +1652,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="J8" s="53"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
@@ -1605,7 +1674,7 @@
       <c r="H9" s="28">
         <v>4</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="52">
         <v>19</v>
       </c>
     </row>
@@ -1625,7 +1694,7 @@
       <c r="H10" s="27">
         <v>5</v>
       </c>
-      <c r="J10" s="53">
+      <c r="J10" s="52">
         <v>20</v>
       </c>
     </row>
@@ -1637,7 +1706,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
-      <c r="J11" s="53"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
@@ -1651,7 +1720,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="J12" s="53"/>
+      <c r="J12" s="52"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
@@ -1671,7 +1740,7 @@
       <c r="H13" s="26">
         <v>3</v>
       </c>
-      <c r="J13" s="53">
+      <c r="J13" s="52">
         <v>44</v>
       </c>
     </row>
@@ -1691,7 +1760,7 @@
       <c r="H14" s="27">
         <v>6</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="52">
         <v>43</v>
       </c>
     </row>
@@ -1703,7 +1772,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
-      <c r="J15" s="53"/>
+      <c r="J15" s="52"/>
     </row>
     <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
@@ -1723,7 +1792,7 @@
       <c r="H16" s="26">
         <v>2</v>
       </c>
-      <c r="J16" s="53">
+      <c r="J16" s="52">
         <v>40</v>
       </c>
       <c r="P16" s="25"/>
@@ -1744,7 +1813,7 @@
       <c r="H17" s="27">
         <v>1</v>
       </c>
-      <c r="J17" s="53">
+      <c r="J17" s="52">
         <v>41</v>
       </c>
     </row>
@@ -1756,7 +1825,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
-      <c r="J18" s="53"/>
+      <c r="J18" s="52"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -1776,7 +1845,7 @@
       <c r="H19" s="26">
         <v>4</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="52">
         <v>37</v>
       </c>
     </row>
@@ -1796,7 +1865,7 @@
       <c r="H20" s="27">
         <v>5</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J20" s="52">
         <v>38</v>
       </c>
     </row>
@@ -1808,7 +1877,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
-      <c r="J21" s="53"/>
+      <c r="J21" s="52"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
@@ -1822,7 +1891,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
-      <c r="J22" s="53"/>
+      <c r="J22" s="52"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
@@ -1842,7 +1911,7 @@
       <c r="H23" s="28">
         <v>3</v>
       </c>
-      <c r="J23" s="53">
+      <c r="J23" s="52">
         <v>61</v>
       </c>
     </row>
@@ -1862,7 +1931,7 @@
       <c r="H24" s="26">
         <v>6</v>
       </c>
-      <c r="J24" s="53">
+      <c r="J24" s="52">
         <v>62</v>
       </c>
     </row>
@@ -1874,7 +1943,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
-      <c r="J25" s="53"/>
+      <c r="J25" s="52"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="8"/>
@@ -1894,7 +1963,7 @@
       <c r="H26" s="26">
         <v>2</v>
       </c>
-      <c r="J26" s="53">
+      <c r="J26" s="52">
         <v>59</v>
       </c>
     </row>
@@ -1914,7 +1983,7 @@
       <c r="H27" s="27">
         <v>1</v>
       </c>
-      <c r="J27" s="53">
+      <c r="J27" s="52">
         <v>58</v>
       </c>
     </row>
@@ -1926,7 +1995,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
-      <c r="J28" s="53"/>
+      <c r="J28" s="52"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
@@ -1946,7 +2015,7 @@
       <c r="H29" s="26">
         <v>4</v>
       </c>
-      <c r="J29" s="53">
+      <c r="J29" s="52">
         <v>56</v>
       </c>
     </row>
@@ -1966,7 +2035,7 @@
       <c r="H30" s="27">
         <v>5</v>
       </c>
-      <c r="J30" s="53">
+      <c r="J30" s="52">
         <v>55</v>
       </c>
     </row>
@@ -1978,7 +2047,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
-      <c r="J31" s="53"/>
+      <c r="J31" s="52"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
@@ -1992,7 +2061,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
-      <c r="J32" s="53"/>
+      <c r="J32" s="52"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
@@ -2012,7 +2081,7 @@
       <c r="H33" s="26">
         <v>2</v>
       </c>
-      <c r="J33" s="53">
+      <c r="J33" s="52">
         <v>79</v>
       </c>
     </row>
@@ -2032,7 +2101,7 @@
       <c r="H34" s="27">
         <v>1</v>
       </c>
-      <c r="J34" s="53">
+      <c r="J34" s="52">
         <v>80</v>
       </c>
     </row>
@@ -2044,7 +2113,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="7"/>
-      <c r="J35" s="53"/>
+      <c r="J35" s="52"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
@@ -2064,7 +2133,7 @@
       <c r="H36" s="26">
         <v>3</v>
       </c>
-      <c r="J36" s="53">
+      <c r="J36" s="52">
         <v>77</v>
       </c>
     </row>
@@ -2084,7 +2153,7 @@
       <c r="H37" s="27">
         <v>6</v>
       </c>
-      <c r="J37" s="53">
+      <c r="J37" s="52">
         <v>78</v>
       </c>
     </row>
@@ -2096,7 +2165,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="7"/>
-      <c r="J38" s="53"/>
+      <c r="J38" s="52"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
@@ -2116,7 +2185,7 @@
       <c r="H39" s="26">
         <v>4</v>
       </c>
-      <c r="J39" s="53">
+      <c r="J39" s="52">
         <v>74</v>
       </c>
     </row>
@@ -2136,7 +2205,7 @@
       <c r="H40" s="27">
         <v>5</v>
       </c>
-      <c r="J40" s="53">
+      <c r="J40" s="52">
         <v>73</v>
       </c>
     </row>
@@ -2148,7 +2217,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
-      <c r="J41" s="53"/>
+      <c r="J41" s="52"/>
     </row>
     <row r="42" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
@@ -2162,7 +2231,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="7"/>
-      <c r="J42" s="53"/>
+      <c r="J42" s="52"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
@@ -2182,7 +2251,7 @@
       <c r="H43" s="26">
         <v>3</v>
       </c>
-      <c r="J43" s="53">
+      <c r="J43" s="52">
         <v>97</v>
       </c>
     </row>
@@ -2202,7 +2271,7 @@
       <c r="H44" s="27">
         <v>6</v>
       </c>
-      <c r="J44" s="53">
+      <c r="J44" s="52">
         <v>96</v>
       </c>
     </row>
@@ -2214,7 +2283,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="7"/>
-      <c r="J45" s="53"/>
+      <c r="J45" s="52"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
@@ -2234,7 +2303,7 @@
       <c r="H46" s="26">
         <v>2</v>
       </c>
-      <c r="J46" s="53">
+      <c r="J46" s="52">
         <v>95</v>
       </c>
     </row>
@@ -2254,7 +2323,7 @@
       <c r="H47" s="27">
         <v>1</v>
       </c>
-      <c r="J47" s="53">
+      <c r="J47" s="52">
         <v>94</v>
       </c>
     </row>
@@ -2266,7 +2335,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="7"/>
-      <c r="J48" s="53"/>
+      <c r="J48" s="52"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
@@ -2286,7 +2355,7 @@
       <c r="H49" s="26">
         <v>4</v>
       </c>
-      <c r="J49" s="53">
+      <c r="J49" s="52">
         <v>92</v>
       </c>
     </row>
@@ -2306,7 +2375,7 @@
       <c r="H50" s="27">
         <v>5</v>
       </c>
-      <c r="J50" s="53">
+      <c r="J50" s="52">
         <v>91</v>
       </c>
     </row>
@@ -2318,7 +2387,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
-      <c r="J51" s="53"/>
+      <c r="J51" s="52"/>
     </row>
     <row r="52" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
@@ -2332,7 +2401,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="7"/>
-      <c r="J52" s="53"/>
+      <c r="J52" s="52"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
@@ -2352,7 +2421,7 @@
       <c r="H53" s="26">
         <v>3</v>
       </c>
-      <c r="J53" s="53">
+      <c r="J53" s="52">
         <v>115</v>
       </c>
     </row>
@@ -2372,7 +2441,7 @@
       <c r="H54" s="27">
         <v>6</v>
       </c>
-      <c r="J54" s="53">
+      <c r="J54" s="52">
         <v>116</v>
       </c>
     </row>
@@ -2384,7 +2453,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="7"/>
-      <c r="J55" s="53"/>
+      <c r="J55" s="52"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
@@ -2404,7 +2473,7 @@
       <c r="H56" s="26">
         <v>2</v>
       </c>
-      <c r="J56" s="53">
+      <c r="J56" s="52">
         <v>113</v>
       </c>
     </row>
@@ -2424,7 +2493,7 @@
       <c r="H57" s="27">
         <v>1</v>
       </c>
-      <c r="J57" s="53">
+      <c r="J57" s="52">
         <v>112</v>
       </c>
     </row>
@@ -2436,7 +2505,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="7"/>
-      <c r="J58" s="53"/>
+      <c r="J58" s="52"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
@@ -2456,7 +2525,7 @@
       <c r="H59" s="26">
         <v>4</v>
       </c>
-      <c r="J59" s="53">
+      <c r="J59" s="52">
         <v>110</v>
       </c>
     </row>
@@ -2476,7 +2545,7 @@
       <c r="H60" s="12">
         <v>5</v>
       </c>
-      <c r="J60" s="54">
+      <c r="J60" s="53">
         <v>109</v>
       </c>
     </row>
@@ -2490,9 +2559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4FA9F6-B3B2-4EB3-A4D7-A65A4144CAA3}">
   <dimension ref="A1:Q1047512"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="132" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="132" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,10 +2576,10 @@
     <col min="8" max="8" width="2.28515625" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="43" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="8" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.140625" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
@@ -2543,7 +2612,10 @@
         <v>148</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>152</v>
@@ -2564,7 +2636,9 @@
       </c>
       <c r="D2" s="42"/>
       <c r="I2" s="42"/>
-      <c r="P2" s="51"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="64"/>
+      <c r="P2" s="50"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
@@ -2576,7 +2650,7 @@
       <c r="C3" s="45">
         <v>1</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="46">
         <v>3</v>
       </c>
       <c r="E3" s="45" t="s">
@@ -2588,18 +2662,18 @@
       <c r="G3" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="46">
         <v>3</v>
       </c>
-      <c r="J3" s="48"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="59"/>
-      <c r="L3" s="48"/>
+      <c r="L3" s="63"/>
       <c r="M3" s="45">
         <v>0</v>
       </c>
       <c r="N3" s="45"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
@@ -2611,7 +2685,7 @@
       <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>2</v>
       </c>
       <c r="E4" s="45" t="s">
@@ -2623,22 +2697,24 @@
       <c r="G4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="46">
         <v>2</v>
       </c>
-      <c r="J4" s="48"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="59">
         <v>20</v>
       </c>
-      <c r="L4" s="48"/>
+      <c r="L4" s="55">
+        <v>26</v>
+      </c>
       <c r="M4" s="45">
         <v>0</v>
       </c>
       <c r="N4" s="45"/>
-      <c r="O4" s="48">
+      <c r="O4" s="47">
         <v>5</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="47" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2652,7 +2728,7 @@
       <c r="C5" s="45">
         <v>1</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="46">
         <v>1</v>
       </c>
       <c r="E5" s="45" t="s">
@@ -2664,22 +2740,24 @@
       <c r="G5" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="46">
         <v>1</v>
       </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="59">
+      <c r="J5" s="47"/>
+      <c r="K5" s="60">
         <v>19</v>
       </c>
-      <c r="L5" s="48"/>
+      <c r="L5" s="55">
+        <v>25</v>
+      </c>
       <c r="M5" s="45">
         <v>0</v>
       </c>
       <c r="N5" s="45"/>
-      <c r="O5" s="48">
+      <c r="O5" s="47">
         <v>4</v>
       </c>
-      <c r="P5" s="48" t="s">
+      <c r="P5" s="47" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2693,7 +2771,7 @@
       <c r="C6" s="45">
         <v>1</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="46">
         <v>9</v>
       </c>
       <c r="E6" s="45" t="s">
@@ -2705,18 +2783,18 @@
       <c r="G6" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="46">
         <v>9</v>
       </c>
-      <c r="J6" s="48"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="59"/>
-      <c r="L6" s="48"/>
+      <c r="L6" s="55"/>
       <c r="M6" s="45">
         <v>0</v>
       </c>
       <c r="N6" s="45"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
@@ -2728,7 +2806,7 @@
       <c r="C7" s="45">
         <v>1</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="46">
         <v>8</v>
       </c>
       <c r="E7" s="45" t="s">
@@ -2740,22 +2818,24 @@
       <c r="G7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="46">
         <v>8</v>
       </c>
-      <c r="J7" s="48"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="59">
         <v>26</v>
       </c>
-      <c r="L7" s="48"/>
+      <c r="L7" s="55">
+        <v>22</v>
+      </c>
       <c r="M7" s="45">
         <v>0</v>
       </c>
       <c r="N7" s="45"/>
-      <c r="O7" s="48">
+      <c r="O7" s="47">
         <v>3</v>
       </c>
-      <c r="P7" s="48" t="s">
+      <c r="P7" s="47" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2769,7 +2849,7 @@
       <c r="C8" s="45">
         <v>1</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="46">
         <v>7</v>
       </c>
       <c r="E8" s="45" t="s">
@@ -2781,22 +2861,24 @@
       <c r="G8" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="46">
         <v>7</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="47"/>
       <c r="K8" s="59">
         <v>25</v>
       </c>
-      <c r="L8" s="48"/>
+      <c r="L8" s="55">
+        <v>23</v>
+      </c>
       <c r="M8" s="45">
         <v>0</v>
       </c>
       <c r="N8" s="45"/>
-      <c r="O8" s="48">
+      <c r="O8" s="47">
         <v>6</v>
       </c>
-      <c r="P8" s="48" t="s">
+      <c r="P8" s="47" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2810,7 +2892,7 @@
       <c r="C9" s="45">
         <v>1</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="46">
         <v>6</v>
       </c>
       <c r="E9" s="45" t="s">
@@ -2822,18 +2904,18 @@
       <c r="G9" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="46">
         <v>6</v>
       </c>
-      <c r="J9" s="48"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="59"/>
-      <c r="L9" s="48"/>
+      <c r="L9" s="55"/>
       <c r="M9" s="45">
         <v>0</v>
       </c>
       <c r="N9" s="45"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
@@ -2845,7 +2927,7 @@
       <c r="C10" s="45">
         <v>1</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="46">
         <v>5</v>
       </c>
       <c r="E10" s="45" t="s">
@@ -2857,22 +2939,24 @@
       <c r="G10" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="46">
         <v>5</v>
       </c>
-      <c r="J10" s="48"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="59">
         <v>22</v>
       </c>
-      <c r="L10" s="48"/>
+      <c r="L10" s="55">
+        <v>19</v>
+      </c>
       <c r="M10" s="45">
         <v>0</v>
       </c>
       <c r="N10" s="45"/>
-      <c r="O10" s="48">
+      <c r="O10" s="47">
         <v>2</v>
       </c>
-      <c r="P10" s="48" t="s">
+      <c r="P10" s="47" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2886,7 +2970,7 @@
       <c r="C11" s="45">
         <v>1</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="46">
         <v>4</v>
       </c>
       <c r="E11" s="45" t="s">
@@ -2898,22 +2982,24 @@
       <c r="G11" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="46">
         <v>4</v>
       </c>
-      <c r="J11" s="48"/>
+      <c r="J11" s="47"/>
       <c r="K11" s="59">
         <v>21</v>
       </c>
-      <c r="L11" s="48"/>
+      <c r="L11" s="55">
+        <v>20</v>
+      </c>
       <c r="M11" s="45">
         <v>0</v>
       </c>
       <c r="N11" s="45"/>
-      <c r="O11" s="48">
+      <c r="O11" s="47">
         <v>1</v>
       </c>
-      <c r="P11" s="48" t="s">
+      <c r="P11" s="47" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2924,6 +3010,7 @@
       <c r="C12" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -2935,7 +3022,7 @@
       <c r="C13" s="45">
         <v>2</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="46">
         <v>21</v>
       </c>
       <c r="E13" s="45" t="s">
@@ -2947,18 +3034,18 @@
       <c r="G13" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="46">
         <v>21</v>
       </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="48"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="47"/>
       <c r="M13" s="45">
         <v>1</v>
       </c>
       <c r="N13" s="45"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
       <c r="Q13">
         <v>1</v>
       </c>
@@ -2973,7 +3060,7 @@
       <c r="C14" s="45">
         <v>2</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="46">
         <v>20</v>
       </c>
       <c r="E14" s="45" t="s">
@@ -2985,20 +3072,20 @@
       <c r="G14" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="46">
         <v>20</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="57">
+      <c r="J14" s="47"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="55">
         <v>44</v>
       </c>
-      <c r="L14" s="48"/>
       <c r="M14" s="45">
         <v>1</v>
       </c>
       <c r="N14" s="45"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
@@ -3010,7 +3097,7 @@
       <c r="C15" s="45">
         <v>2</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="46">
         <v>19</v>
       </c>
       <c r="E15" s="45" t="s">
@@ -3022,20 +3109,20 @@
       <c r="G15" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="46">
         <v>19</v>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="57">
+      <c r="J15" s="47"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="55">
         <v>43</v>
       </c>
-      <c r="L15" s="48"/>
       <c r="M15" s="45">
         <v>1</v>
       </c>
       <c r="N15" s="45"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
@@ -3047,7 +3134,7 @@
       <c r="C16" s="45">
         <v>2</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="46">
         <v>42</v>
       </c>
       <c r="E16" s="45" t="s">
@@ -3059,18 +3146,18 @@
       <c r="G16" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="46">
         <v>42</v>
       </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="48"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="55"/>
       <c r="M16" s="45">
         <v>1</v>
       </c>
       <c r="N16" s="45"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
@@ -3082,7 +3169,7 @@
       <c r="C17" s="45">
         <v>2</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="46">
         <v>41</v>
       </c>
       <c r="E17" s="45" t="s">
@@ -3094,20 +3181,20 @@
       <c r="G17" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="46">
         <v>41</v>
       </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="57">
+      <c r="J17" s="47"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="55">
         <v>40</v>
       </c>
-      <c r="L17" s="48"/>
       <c r="M17" s="45">
         <v>1</v>
       </c>
       <c r="N17" s="45"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
@@ -3119,7 +3206,7 @@
       <c r="C18" s="45">
         <v>2</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="46">
         <v>40</v>
       </c>
       <c r="E18" s="45" t="s">
@@ -3131,20 +3218,20 @@
       <c r="G18" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="46">
         <v>40</v>
       </c>
-      <c r="J18" s="48"/>
-      <c r="K18" s="57">
+      <c r="J18" s="47"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="55">
         <v>41</v>
       </c>
-      <c r="L18" s="48"/>
       <c r="M18" s="45">
         <v>1</v>
       </c>
       <c r="N18" s="45"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
@@ -3156,7 +3243,7 @@
       <c r="C19" s="45">
         <v>2</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="46">
         <v>27</v>
       </c>
       <c r="E19" s="45" t="s">
@@ -3168,18 +3255,18 @@
       <c r="G19" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="46">
         <v>27</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="48"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="55"/>
       <c r="M19" s="45">
         <v>1</v>
       </c>
       <c r="N19" s="45"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
@@ -3191,7 +3278,7 @@
       <c r="C20" s="45">
         <v>2</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="46">
         <v>26</v>
       </c>
       <c r="E20" s="45" t="s">
@@ -3203,20 +3290,20 @@
       <c r="G20" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="46">
         <v>26</v>
       </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="57">
-        <v>37</v>
-      </c>
-      <c r="L20" s="48"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="55">
+        <v>37</v>
+      </c>
       <c r="M20" s="45">
         <v>1</v>
       </c>
       <c r="N20" s="45"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
@@ -3228,7 +3315,7 @@
       <c r="C21" s="45">
         <v>2</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="46">
         <v>25</v>
       </c>
       <c r="E21" s="45" t="s">
@@ -3240,20 +3327,20 @@
       <c r="G21" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="46">
         <v>25</v>
       </c>
-      <c r="J21" s="48"/>
-      <c r="K21" s="57">
+      <c r="J21" s="47"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="55">
         <v>38</v>
       </c>
-      <c r="L21" s="48"/>
       <c r="M21" s="45">
         <v>1</v>
       </c>
       <c r="N21" s="45"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
@@ -3266,9 +3353,9 @@
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
-      <c r="H22" s="51"/>
+      <c r="H22" s="50"/>
       <c r="I22" s="42"/>
-      <c r="K22" s="57"/>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
@@ -3280,7 +3367,7 @@
       <c r="C23" s="45">
         <v>3</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="46">
         <v>39</v>
       </c>
       <c r="E23" s="45" t="s">
@@ -3292,18 +3379,18 @@
       <c r="G23" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="46">
         <v>39</v>
       </c>
-      <c r="J23" s="48"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="48"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="47"/>
       <c r="M23" s="45">
         <v>2</v>
       </c>
       <c r="N23" s="45"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
@@ -3315,7 +3402,7 @@
       <c r="C24" s="45">
         <v>3</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="46">
         <v>38</v>
       </c>
       <c r="E24" s="45" t="s">
@@ -3327,20 +3414,20 @@
       <c r="G24" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="47">
+      <c r="I24" s="46">
         <v>38</v>
       </c>
-      <c r="J24" s="48"/>
-      <c r="K24" s="57">
+      <c r="J24" s="47"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="55">
         <v>61</v>
       </c>
-      <c r="L24" s="48"/>
       <c r="M24" s="45">
         <v>2</v>
       </c>
       <c r="N24" s="45"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
@@ -3352,7 +3439,7 @@
       <c r="C25" s="45">
         <v>3</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="46">
         <v>37</v>
       </c>
       <c r="E25" s="45" t="s">
@@ -3364,21 +3451,21 @@
       <c r="G25" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="I25" s="47">
-        <v>37</v>
-      </c>
-      <c r="J25" s="48"/>
-      <c r="K25" s="57">
+      <c r="I25" s="46">
+        <v>37</v>
+      </c>
+      <c r="J25" s="47"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="55">
         <v>62</v>
       </c>
-      <c r="L25" s="48"/>
       <c r="M25" s="45">
         <v>2</v>
       </c>
       <c r="N25" s="45"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48" t="s">
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3392,7 +3479,7 @@
       <c r="C26" s="45">
         <v>3</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="46">
         <v>45</v>
       </c>
       <c r="E26" s="45" t="s">
@@ -3404,18 +3491,18 @@
       <c r="G26" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="46">
         <v>45</v>
       </c>
-      <c r="J26" s="48"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="48"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="55"/>
       <c r="M26" s="45">
         <v>2</v>
       </c>
       <c r="N26" s="45"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -3427,7 +3514,7 @@
       <c r="C27" s="45">
         <v>3</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="46">
         <v>44</v>
       </c>
       <c r="E27" s="45" t="s">
@@ -3439,20 +3526,20 @@
       <c r="G27" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="47">
+      <c r="I27" s="46">
         <v>44</v>
       </c>
-      <c r="J27" s="48"/>
-      <c r="K27" s="57">
+      <c r="J27" s="47"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="55">
         <v>59</v>
       </c>
-      <c r="L27" s="48"/>
       <c r="M27" s="45">
         <v>2</v>
       </c>
       <c r="N27" s="45"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
@@ -3464,7 +3551,7 @@
       <c r="C28" s="45">
         <v>3</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="46">
         <v>43</v>
       </c>
       <c r="E28" s="45" t="s">
@@ -3476,20 +3563,20 @@
       <c r="G28" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="I28" s="47">
+      <c r="I28" s="46">
         <v>43</v>
       </c>
-      <c r="J28" s="48"/>
-      <c r="K28" s="57">
+      <c r="J28" s="47"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="55">
         <v>58</v>
       </c>
-      <c r="L28" s="48"/>
       <c r="M28" s="45">
         <v>2</v>
       </c>
       <c r="N28" s="45"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
@@ -3501,7 +3588,7 @@
       <c r="C29" s="45">
         <v>3</v>
       </c>
-      <c r="D29" s="47">
+      <c r="D29" s="46">
         <v>42</v>
       </c>
       <c r="E29" s="45" t="s">
@@ -3513,18 +3600,18 @@
       <c r="G29" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I29" s="47">
+      <c r="I29" s="46">
         <v>42</v>
       </c>
-      <c r="J29" s="48"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="48"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="55"/>
       <c r="M29" s="45">
         <v>2</v>
       </c>
       <c r="N29" s="45"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
@@ -3536,7 +3623,7 @@
       <c r="C30" s="45">
         <v>3</v>
       </c>
-      <c r="D30" s="47">
+      <c r="D30" s="46">
         <v>41</v>
       </c>
       <c r="E30" s="45" t="s">
@@ -3548,20 +3635,20 @@
       <c r="G30" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="47">
+      <c r="I30" s="46">
         <v>41</v>
       </c>
-      <c r="J30" s="48"/>
-      <c r="K30" s="57">
+      <c r="J30" s="47"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="55">
         <v>56</v>
       </c>
-      <c r="L30" s="48"/>
       <c r="M30" s="45">
         <v>2</v>
       </c>
       <c r="N30" s="45"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
@@ -3573,7 +3660,7 @@
       <c r="C31" s="45">
         <v>3</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D31" s="46">
         <v>40</v>
       </c>
       <c r="E31" s="45" t="s">
@@ -3585,20 +3672,20 @@
       <c r="G31" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="I31" s="47">
+      <c r="I31" s="46">
         <v>40</v>
       </c>
-      <c r="J31" s="48"/>
-      <c r="K31" s="57">
+      <c r="J31" s="47"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="55">
         <v>55</v>
       </c>
-      <c r="L31" s="48"/>
       <c r="M31" s="45">
         <v>2</v>
       </c>
       <c r="N31" s="45"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
@@ -3611,9 +3698,9 @@
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
-      <c r="H32" s="51"/>
+      <c r="H32" s="50"/>
       <c r="I32" s="42"/>
-      <c r="K32" s="57"/>
+      <c r="K32" s="54"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
@@ -3625,7 +3712,7 @@
       <c r="C33" s="45">
         <v>4</v>
       </c>
-      <c r="D33" s="47">
+      <c r="D33" s="46">
         <v>57</v>
       </c>
       <c r="E33" s="45" t="s">
@@ -3637,30 +3724,30 @@
       <c r="G33" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I33" s="47">
+      <c r="I33" s="46">
         <v>57</v>
       </c>
-      <c r="J33" s="48"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="48"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="47"/>
       <c r="M33" s="45">
         <v>3</v>
       </c>
       <c r="N33" s="45"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="50">
+      <c r="B34" s="49">
         <v>2</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="49">
         <v>4</v>
       </c>
-      <c r="D34" s="47">
+      <c r="D34" s="46">
         <v>56</v>
       </c>
       <c r="E34" s="45" t="s">
@@ -3672,32 +3759,32 @@
       <c r="G34" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="47">
+      <c r="I34" s="46">
         <v>56</v>
       </c>
-      <c r="J34" s="48"/>
-      <c r="K34" s="57">
+      <c r="J34" s="47"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="55">
         <v>79</v>
       </c>
-      <c r="L34" s="48"/>
       <c r="M34" s="45">
         <v>3</v>
       </c>
       <c r="N34" s="45"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="50">
+      <c r="B35" s="49">
         <v>3</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35" s="49">
         <v>4</v>
       </c>
-      <c r="D35" s="47">
+      <c r="D35" s="46">
         <v>55</v>
       </c>
       <c r="E35" s="45" t="s">
@@ -3709,55 +3796,55 @@
       <c r="G35" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="I35" s="47">
+      <c r="I35" s="46">
         <v>55</v>
       </c>
-      <c r="J35" s="48"/>
-      <c r="K35" s="57">
+      <c r="J35" s="47"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="55">
         <v>80</v>
       </c>
-      <c r="L35" s="48"/>
       <c r="M35" s="45">
         <v>3</v>
       </c>
       <c r="N35" s="45"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="50">
+      <c r="B36" s="49">
         <v>9</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="49">
         <v>4</v>
       </c>
-      <c r="D36" s="47">
+      <c r="D36" s="46">
         <v>63</v>
       </c>
       <c r="E36" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F36" s="48">
         <v>16</v>
       </c>
       <c r="G36" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I36" s="47">
+      <c r="I36" s="46">
         <v>63</v>
       </c>
-      <c r="J36" s="48"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="48"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="55"/>
       <c r="M36" s="45">
         <v>3</v>
       </c>
       <c r="N36" s="45"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
@@ -3769,32 +3856,32 @@
       <c r="C37" s="45">
         <v>4</v>
       </c>
-      <c r="D37" s="47">
+      <c r="D37" s="46">
         <v>62</v>
       </c>
       <c r="E37" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="49">
+      <c r="F37" s="48">
         <v>16</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="47">
+      <c r="I37" s="46">
         <v>62</v>
       </c>
-      <c r="J37" s="48"/>
-      <c r="K37" s="57">
+      <c r="J37" s="47"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="55">
         <v>77</v>
       </c>
-      <c r="L37" s="48"/>
       <c r="M37" s="45">
         <v>3</v>
       </c>
       <c r="N37" s="45"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
@@ -3806,32 +3893,32 @@
       <c r="C38" s="45">
         <v>4</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="46">
         <v>61</v>
       </c>
       <c r="E38" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="49">
+      <c r="F38" s="48">
         <v>16</v>
       </c>
       <c r="G38" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="I38" s="47">
+      <c r="I38" s="46">
         <v>61</v>
       </c>
-      <c r="J38" s="48"/>
-      <c r="K38" s="57">
+      <c r="J38" s="47"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="55">
         <v>78</v>
       </c>
-      <c r="L38" s="48"/>
       <c r="M38" s="45">
         <v>3</v>
       </c>
       <c r="N38" s="45"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
@@ -3843,7 +3930,7 @@
       <c r="C39" s="45">
         <v>4</v>
       </c>
-      <c r="D39" s="47">
+      <c r="D39" s="46">
         <v>60</v>
       </c>
       <c r="E39" s="45" t="s">
@@ -3855,18 +3942,18 @@
       <c r="G39" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I39" s="47">
+      <c r="I39" s="46">
         <v>60</v>
       </c>
-      <c r="J39" s="48"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="48"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="55"/>
       <c r="M39" s="45">
         <v>3</v>
       </c>
       <c r="N39" s="45"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
@@ -3878,7 +3965,7 @@
       <c r="C40" s="45">
         <v>4</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="46">
         <v>59</v>
       </c>
       <c r="E40" s="45" t="s">
@@ -3890,20 +3977,20 @@
       <c r="G40" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I40" s="47">
+      <c r="I40" s="46">
         <v>59</v>
       </c>
-      <c r="J40" s="48"/>
-      <c r="K40" s="57">
+      <c r="J40" s="47"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="55">
         <v>74</v>
       </c>
-      <c r="L40" s="48"/>
       <c r="M40" s="45">
         <v>3</v>
       </c>
       <c r="N40" s="45"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
@@ -3915,7 +4002,7 @@
       <c r="C41" s="45">
         <v>4</v>
       </c>
-      <c r="D41" s="47">
+      <c r="D41" s="46">
         <v>58</v>
       </c>
       <c r="E41" s="45" t="s">
@@ -3927,20 +4014,20 @@
       <c r="G41" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="I41" s="47">
+      <c r="I41" s="46">
         <v>58</v>
       </c>
-      <c r="J41" s="48"/>
-      <c r="K41" s="57">
+      <c r="J41" s="47"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="55">
         <v>73</v>
       </c>
-      <c r="L41" s="48"/>
       <c r="M41" s="45">
         <v>3</v>
       </c>
       <c r="N41" s="45"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
@@ -3953,21 +4040,21 @@
       <c r="E42" s="42"/>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
-      <c r="H42" s="51"/>
+      <c r="H42" s="50"/>
       <c r="I42" s="42"/>
-      <c r="K42" s="57"/>
+      <c r="K42" s="54"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B43" s="50">
+      <c r="B43" s="49">
         <v>1</v>
       </c>
-      <c r="C43" s="50">
+      <c r="C43" s="49">
         <v>5</v>
       </c>
-      <c r="D43" s="47">
+      <c r="D43" s="46">
         <v>73</v>
       </c>
       <c r="E43" s="45" t="s">
@@ -3979,18 +4066,18 @@
       <c r="G43" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="I43" s="47">
+      <c r="I43" s="46">
         <v>73</v>
       </c>
-      <c r="J43" s="48"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="48"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="47"/>
       <c r="M43" s="45">
         <v>4</v>
       </c>
       <c r="N43" s="45"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
@@ -4002,7 +4089,7 @@
       <c r="C44" s="45">
         <v>5</v>
       </c>
-      <c r="D44" s="47">
+      <c r="D44" s="46">
         <v>74</v>
       </c>
       <c r="E44" s="45" t="s">
@@ -4014,20 +4101,20 @@
       <c r="G44" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="47">
+      <c r="I44" s="46">
         <v>74</v>
       </c>
-      <c r="J44" s="48"/>
-      <c r="K44" s="57">
+      <c r="J44" s="47"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="55">
         <v>97</v>
       </c>
-      <c r="L44" s="48"/>
       <c r="M44" s="45">
         <v>4</v>
       </c>
       <c r="N44" s="45"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
@@ -4039,7 +4126,7 @@
       <c r="C45" s="45">
         <v>5</v>
       </c>
-      <c r="D45" s="47">
+      <c r="D45" s="46">
         <v>75</v>
       </c>
       <c r="E45" s="45" t="s">
@@ -4051,20 +4138,20 @@
       <c r="G45" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I45" s="47">
+      <c r="I45" s="46">
         <v>75</v>
       </c>
-      <c r="J45" s="48"/>
-      <c r="K45" s="57">
+      <c r="J45" s="47"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="55">
         <v>96</v>
       </c>
-      <c r="L45" s="48"/>
       <c r="M45" s="45">
         <v>4</v>
       </c>
       <c r="N45" s="45"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
@@ -4076,30 +4163,30 @@
       <c r="C46" s="45">
         <v>5</v>
       </c>
-      <c r="D46" s="47">
+      <c r="D46" s="46">
         <v>76</v>
       </c>
       <c r="E46" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="49">
+      <c r="F46" s="48">
         <v>11</v>
       </c>
       <c r="G46" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="I46" s="47">
+      <c r="I46" s="46">
         <v>76</v>
       </c>
-      <c r="J46" s="48"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="48"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="55"/>
       <c r="M46" s="45">
         <v>4</v>
       </c>
       <c r="N46" s="45"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="48"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
@@ -4111,32 +4198,32 @@
       <c r="C47" s="45">
         <v>5</v>
       </c>
-      <c r="D47" s="47">
+      <c r="D47" s="46">
         <v>77</v>
       </c>
       <c r="E47" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="49">
+      <c r="F47" s="48">
         <v>11</v>
       </c>
       <c r="G47" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="47">
+      <c r="I47" s="46">
         <v>77</v>
       </c>
-      <c r="J47" s="48"/>
-      <c r="K47" s="57">
+      <c r="J47" s="47"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="55">
         <v>95</v>
       </c>
-      <c r="L47" s="48"/>
       <c r="M47" s="45">
         <v>4</v>
       </c>
       <c r="N47" s="45"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
@@ -4148,32 +4235,32 @@
       <c r="C48" s="45">
         <v>5</v>
       </c>
-      <c r="D48" s="47">
+      <c r="D48" s="46">
         <v>78</v>
       </c>
       <c r="E48" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="49">
+      <c r="F48" s="48">
         <v>11</v>
       </c>
       <c r="G48" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I48" s="47">
+      <c r="I48" s="46">
         <v>78</v>
       </c>
-      <c r="J48" s="48"/>
-      <c r="K48" s="57">
+      <c r="J48" s="47"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="55">
         <v>94</v>
       </c>
-      <c r="L48" s="48"/>
       <c r="M48" s="45">
         <v>4</v>
       </c>
       <c r="N48" s="45"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
@@ -4185,7 +4272,7 @@
       <c r="C49" s="45">
         <v>5</v>
       </c>
-      <c r="D49" s="47">
+      <c r="D49" s="46">
         <v>79</v>
       </c>
       <c r="E49" s="45" t="s">
@@ -4197,18 +4284,18 @@
       <c r="G49" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="47">
+      <c r="I49" s="46">
         <v>79</v>
       </c>
-      <c r="J49" s="48"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="48"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="55"/>
       <c r="M49" s="45">
         <v>4</v>
       </c>
       <c r="N49" s="45"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
@@ -4220,7 +4307,7 @@
       <c r="C50" s="45">
         <v>5</v>
       </c>
-      <c r="D50" s="47">
+      <c r="D50" s="46">
         <v>80</v>
       </c>
       <c r="E50" s="45" t="s">
@@ -4232,20 +4319,20 @@
       <c r="G50" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="47">
+      <c r="I50" s="46">
         <v>80</v>
       </c>
-      <c r="J50" s="48"/>
-      <c r="K50" s="57">
+      <c r="J50" s="47"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="55">
         <v>92</v>
       </c>
-      <c r="L50" s="48"/>
       <c r="M50" s="45">
         <v>4</v>
       </c>
       <c r="N50" s="45"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
@@ -4257,7 +4344,7 @@
       <c r="C51" s="45">
         <v>5</v>
       </c>
-      <c r="D51" s="47">
+      <c r="D51" s="46">
         <v>81</v>
       </c>
       <c r="E51" s="45" t="s">
@@ -4269,20 +4356,20 @@
       <c r="G51" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="47">
+      <c r="I51" s="46">
         <v>81</v>
       </c>
-      <c r="J51" s="48"/>
-      <c r="K51" s="57">
+      <c r="J51" s="47"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="55">
         <v>91</v>
       </c>
-      <c r="L51" s="48"/>
       <c r="M51" s="45">
         <v>4</v>
       </c>
       <c r="N51" s="45"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
@@ -4295,22 +4382,22 @@
       <c r="E52" s="42"/>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
-      <c r="H52" s="51"/>
+      <c r="H52" s="50"/>
       <c r="I52" s="42"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="57"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="54"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B53" s="46">
+      <c r="B53" s="49">
         <v>9</v>
       </c>
-      <c r="C53" s="46">
+      <c r="C53" s="49">
         <v>6</v>
       </c>
-      <c r="D53" s="47">
+      <c r="D53" s="46">
         <v>98</v>
       </c>
       <c r="E53" s="45" t="s">
@@ -4322,32 +4409,30 @@
       <c r="G53" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="I53" s="47">
+      <c r="I53" s="46">
         <v>98</v>
       </c>
-      <c r="J53" s="48"/>
-      <c r="K53" s="57">
-        <v>115</v>
-      </c>
-      <c r="L53" s="48"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="47"/>
       <c r="M53" s="45">
         <v>5</v>
       </c>
       <c r="N53" s="45"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
+      <c r="O53" s="47"/>
+      <c r="P53" s="47"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="46">
+      <c r="B54" s="49">
         <v>7</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C54" s="49">
         <v>6</v>
       </c>
-      <c r="D54" s="47">
+      <c r="D54" s="46">
         <v>97</v>
       </c>
       <c r="E54" s="45" t="s">
@@ -4359,21 +4444,21 @@
       <c r="G54" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="I54" s="47">
+      <c r="I54" s="46">
         <v>97</v>
       </c>
-      <c r="J54" s="48"/>
-      <c r="K54" s="57">
-        <v>116</v>
-      </c>
-      <c r="L54" s="48"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="55">
+        <v>115</v>
+      </c>
       <c r="M54" s="45">
         <v>5</v>
       </c>
       <c r="N54" s="45"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="48" t="s">
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4381,13 +4466,13 @@
       <c r="A55" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="46">
+      <c r="B55" s="49">
         <v>8</v>
       </c>
-      <c r="C55" s="46">
+      <c r="C55" s="49">
         <v>6</v>
       </c>
-      <c r="D55" s="47">
+      <c r="D55" s="46">
         <v>99</v>
       </c>
       <c r="E55" s="45" t="s">
@@ -4399,142 +4484,144 @@
       <c r="G55" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I55" s="47">
+      <c r="I55" s="46">
         <v>99</v>
       </c>
-      <c r="J55" s="48"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="48"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="55">
+        <v>116</v>
+      </c>
       <c r="M55" s="45">
         <v>5</v>
       </c>
       <c r="N55" s="45"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48" t="s">
-        <v>165</v>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="46">
+      <c r="B56" s="49">
         <v>1</v>
       </c>
-      <c r="C56" s="46">
+      <c r="C56" s="49">
         <v>6</v>
       </c>
-      <c r="D56" s="47">
+      <c r="D56" s="46">
         <v>91</v>
       </c>
       <c r="E56" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="F56" s="49">
+      <c r="F56" s="48">
         <v>6</v>
       </c>
       <c r="G56" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="I56" s="47">
+      <c r="I56" s="46">
         <v>91</v>
       </c>
-      <c r="J56" s="48"/>
-      <c r="K56" s="57">
-        <v>113</v>
-      </c>
-      <c r="L56" s="48"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="55"/>
       <c r="M56" s="45">
         <v>5</v>
       </c>
       <c r="N56" s="45"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B57" s="46">
+      <c r="B57" s="49">
         <v>2</v>
       </c>
-      <c r="C57" s="46">
+      <c r="C57" s="49">
         <v>6</v>
       </c>
-      <c r="D57" s="47">
+      <c r="D57" s="46">
         <v>92</v>
       </c>
       <c r="E57" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="F57" s="49">
+      <c r="F57" s="48">
         <v>6</v>
       </c>
       <c r="G57" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="47">
+      <c r="I57" s="46">
         <v>92</v>
       </c>
-      <c r="J57" s="48"/>
-      <c r="K57" s="57">
-        <v>112</v>
-      </c>
-      <c r="L57" s="48"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="55">
+        <v>113</v>
+      </c>
       <c r="M57" s="45">
         <v>5</v>
       </c>
       <c r="N57" s="45"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B58" s="46">
+      <c r="B58" s="49">
         <v>3</v>
       </c>
-      <c r="C58" s="46">
+      <c r="C58" s="49">
         <v>6</v>
       </c>
-      <c r="D58" s="47">
+      <c r="D58" s="46">
         <v>92</v>
       </c>
       <c r="E58" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="F58" s="49">
+      <c r="F58" s="48">
         <v>6</v>
       </c>
       <c r="G58" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I58" s="47">
+      <c r="I58" s="46">
         <v>92</v>
       </c>
-      <c r="J58" s="48"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="48"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="55">
+        <v>112</v>
+      </c>
       <c r="M58" s="45">
         <v>5</v>
       </c>
       <c r="N58" s="45"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="48"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="47"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B59" s="46">
+      <c r="B59" s="49">
         <v>5</v>
       </c>
-      <c r="C59" s="46">
+      <c r="C59" s="49">
         <v>6</v>
       </c>
-      <c r="D59" s="47">
+      <c r="D59" s="46">
         <v>95</v>
       </c>
       <c r="E59" s="45" t="s">
@@ -4546,32 +4633,30 @@
       <c r="G59" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="47">
+      <c r="I59" s="46">
         <v>95</v>
       </c>
-      <c r="J59" s="48"/>
-      <c r="K59" s="57">
-        <v>110</v>
-      </c>
-      <c r="L59" s="48"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="55"/>
       <c r="M59" s="45">
         <v>5</v>
       </c>
       <c r="N59" s="45"/>
-      <c r="O59" s="48"/>
-      <c r="P59" s="48"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="47"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B60" s="46">
+      <c r="B60" s="49">
         <v>4</v>
       </c>
-      <c r="C60" s="46">
+      <c r="C60" s="49">
         <v>6</v>
       </c>
-      <c r="D60" s="47">
+      <c r="D60" s="46">
         <v>94</v>
       </c>
       <c r="E60" s="45" t="s">
@@ -4583,32 +4668,32 @@
       <c r="G60" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="I60" s="47">
+      <c r="I60" s="46">
         <v>94</v>
       </c>
-      <c r="J60" s="48"/>
-      <c r="K60" s="57">
-        <v>109</v>
-      </c>
-      <c r="L60" s="48"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="55">
+        <v>110</v>
+      </c>
       <c r="M60" s="45">
         <v>5</v>
       </c>
       <c r="N60" s="45"/>
-      <c r="O60" s="48"/>
-      <c r="P60" s="48"/>
+      <c r="O60" s="47"/>
+      <c r="P60" s="47"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B61" s="46">
+      <c r="B61" s="49">
         <v>6</v>
       </c>
-      <c r="C61" s="46">
+      <c r="C61" s="49">
         <v>6</v>
       </c>
-      <c r="D61" s="47">
+      <c r="D61" s="46">
         <v>96</v>
       </c>
       <c r="E61" s="45" t="s">
@@ -4620,18 +4705,20 @@
       <c r="G61" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I61" s="47">
+      <c r="I61" s="46">
         <v>96</v>
       </c>
-      <c r="J61" s="48"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="48"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="55">
+        <v>109</v>
+      </c>
       <c r="M61" s="45">
         <v>5</v>
       </c>
       <c r="N61" s="45"/>
-      <c r="O61" s="48"/>
-      <c r="P61" s="48"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="47"/>
     </row>
     <row r="1047512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1047512" s="1" t="s">
@@ -4651,7 +4738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39428A26-CF52-49B3-8663-C4128E0BA154}">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
@@ -4705,7 +4792,7 @@
       <c r="B2" s="32">
         <v>1</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>138</v>
       </c>
       <c r="D2" s="38" t="s">
@@ -4739,7 +4826,7 @@
       <c r="B3" s="32">
         <v>2</v>
       </c>
-      <c r="C3" s="56"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="38"/>
       <c r="E3" s="32"/>
       <c r="F3" s="38" t="s">
@@ -4767,7 +4854,7 @@
       <c r="B4" s="32">
         <v>3</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="38" t="s">
         <v>39</v>
       </c>
@@ -4797,7 +4884,7 @@
       <c r="B5" s="32">
         <v>4</v>
       </c>
-      <c r="C5" s="56"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="37" t="s">
         <v>131</v>
       </c>
@@ -4827,7 +4914,7 @@
       <c r="B6" s="32">
         <v>5</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="37"/>
       <c r="E6" s="32"/>
       <c r="F6" s="37" t="s">
@@ -4855,7 +4942,7 @@
       <c r="B7" s="32">
         <v>6</v>
       </c>
-      <c r="C7" s="56"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="37" t="s">
         <v>39</v>
       </c>
@@ -4885,7 +4972,7 @@
       <c r="B8" s="32">
         <v>7</v>
       </c>
-      <c r="C8" s="56"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="36" t="s">
         <v>131</v>
       </c>
@@ -4915,7 +5002,7 @@
       <c r="B9" s="32">
         <v>8</v>
       </c>
-      <c r="C9" s="56"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="36"/>
       <c r="E9" s="32"/>
       <c r="F9" s="36" t="s">
@@ -4945,7 +5032,7 @@
       <c r="B10" s="32">
         <v>9</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="36" t="s">
         <v>39</v>
       </c>
@@ -5027,7 +5114,7 @@
       <c r="B13" s="32">
         <v>12</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="56" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="41" t="s">
@@ -5059,7 +5146,7 @@
       <c r="B14" s="32">
         <v>13</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="41"/>
       <c r="E14" s="32"/>
       <c r="F14" s="41" t="s">
@@ -5087,7 +5174,7 @@
       <c r="B15" s="32">
         <v>14</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="56" t="s">
         <v>122</v>
       </c>
       <c r="D15" s="40" t="s">
@@ -5121,7 +5208,7 @@
       <c r="B16" s="32">
         <v>15</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40" t="s">
         <v>54</v>
@@ -5151,7 +5238,7 @@
       <c r="B17" s="32">
         <v>16</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="34" t="s">
         <v>100</v>
       </c>
@@ -5181,7 +5268,7 @@
       <c r="B18" s="32">
         <v>17</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="34"/>
       <c r="E18" s="32"/>
       <c r="F18" s="34" t="s">
@@ -5209,7 +5296,7 @@
       <c r="B19" s="32">
         <v>18</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="34"/>
       <c r="E19" s="32"/>
       <c r="F19" s="34" t="s">
@@ -5237,7 +5324,7 @@
       <c r="B20" s="32">
         <v>19</v>
       </c>
-      <c r="C20" s="56"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="38" t="s">
         <v>118</v>
       </c>
@@ -5267,7 +5354,7 @@
       <c r="B21" s="32">
         <v>20</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="38"/>
       <c r="E21" s="32"/>
       <c r="F21" s="38" t="s">
@@ -5295,7 +5382,7 @@
       <c r="B22" s="32">
         <v>21</v>
       </c>
-      <c r="C22" s="56"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="38" t="s">
         <v>39</v>
       </c>
@@ -5325,7 +5412,7 @@
       <c r="B23" s="32">
         <v>22</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="37" t="s">
         <v>111</v>
       </c>
@@ -5355,7 +5442,7 @@
       <c r="B24" s="32">
         <v>23</v>
       </c>
-      <c r="C24" s="56"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="37"/>
       <c r="E24" s="32"/>
       <c r="F24" s="37" t="s">
@@ -5383,7 +5470,7 @@
       <c r="B25" s="32">
         <v>24</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="37" t="s">
         <v>39</v>
       </c>
@@ -5413,7 +5500,7 @@
       <c r="B26" s="32">
         <v>25</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="36" t="s">
         <v>111</v>
       </c>
@@ -5443,7 +5530,7 @@
       <c r="B27" s="32">
         <v>26</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="36"/>
       <c r="E27" s="32"/>
       <c r="F27" s="36" t="s">
@@ -5471,7 +5558,7 @@
       <c r="B28" s="32">
         <v>27</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="36" t="s">
         <v>39</v>
       </c>
@@ -5615,7 +5702,7 @@
       <c r="B33" s="32">
         <v>32</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="56" t="s">
         <v>102</v>
       </c>
       <c r="D33" s="40" t="s">
@@ -5651,7 +5738,7 @@
       <c r="B34" s="32">
         <v>33</v>
       </c>
-      <c r="C34" s="56"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="40"/>
       <c r="E34" s="40" t="s">
         <v>54</v>
@@ -5683,7 +5770,7 @@
       <c r="B35" s="32">
         <v>34</v>
       </c>
-      <c r="C35" s="56"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="34" t="s">
         <v>100</v>
       </c>
@@ -5715,7 +5802,7 @@
       <c r="B36" s="32">
         <v>35</v>
       </c>
-      <c r="C36" s="56"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="34"/>
       <c r="E36" s="32"/>
       <c r="F36" s="34" t="s">
@@ -5745,7 +5832,7 @@
       <c r="B37" s="32">
         <v>36</v>
       </c>
-      <c r="C37" s="56"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="34"/>
       <c r="E37" s="32"/>
       <c r="F37" s="34" t="s">
@@ -5775,7 +5862,7 @@
       <c r="B38" s="32">
         <v>37</v>
       </c>
-      <c r="C38" s="56"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="38" t="s">
         <v>95</v>
       </c>
@@ -5807,7 +5894,7 @@
       <c r="B39" s="32">
         <v>38</v>
       </c>
-      <c r="C39" s="56"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="38"/>
       <c r="E39" s="32"/>
       <c r="F39" s="38" t="s">
@@ -5831,7 +5918,7 @@
       <c r="B40" s="32">
         <v>39</v>
       </c>
-      <c r="C40" s="56"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="38" t="s">
         <v>39</v>
       </c>
@@ -5857,7 +5944,7 @@
       <c r="B41" s="32">
         <v>40</v>
       </c>
-      <c r="C41" s="56"/>
+      <c r="C41" s="57"/>
       <c r="D41" s="37" t="s">
         <v>87</v>
       </c>
@@ -5883,7 +5970,7 @@
       <c r="B42" s="32">
         <v>41</v>
       </c>
-      <c r="C42" s="56"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="37"/>
       <c r="E42" s="32"/>
       <c r="F42" s="37" t="s">
@@ -5907,7 +5994,7 @@
       <c r="B43" s="32">
         <v>42</v>
       </c>
-      <c r="C43" s="56"/>
+      <c r="C43" s="57"/>
       <c r="D43" s="37" t="s">
         <v>39</v>
       </c>
@@ -5933,7 +6020,7 @@
       <c r="B44" s="32">
         <v>43</v>
       </c>
-      <c r="C44" s="56"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="36" t="s">
         <v>87</v>
       </c>
@@ -5959,7 +6046,7 @@
       <c r="B45" s="32">
         <v>44</v>
       </c>
-      <c r="C45" s="56"/>
+      <c r="C45" s="57"/>
       <c r="D45" s="36"/>
       <c r="E45" s="32"/>
       <c r="F45" s="36" t="s">
@@ -5983,7 +6070,7 @@
       <c r="B46" s="32">
         <v>45</v>
       </c>
-      <c r="C46" s="56"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="36" t="s">
         <v>39</v>
       </c>
@@ -6141,7 +6228,7 @@
       <c r="B53" s="32">
         <v>52</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="56" t="s">
         <v>82</v>
       </c>
       <c r="D53" s="34" t="s">
@@ -6169,7 +6256,7 @@
       <c r="B54" s="32">
         <v>53</v>
       </c>
-      <c r="C54" s="56"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="34"/>
       <c r="E54" s="32"/>
       <c r="F54" s="34" t="s">
@@ -6193,7 +6280,7 @@
       <c r="B55" s="32">
         <v>54</v>
       </c>
-      <c r="C55" s="56"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="34"/>
       <c r="E55" s="32"/>
       <c r="F55" s="34" t="s">
@@ -6217,7 +6304,7 @@
       <c r="B56" s="32">
         <v>55</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="56" t="s">
         <v>79</v>
       </c>
       <c r="D56" s="38" t="s">
@@ -6245,7 +6332,7 @@
       <c r="B57" s="32">
         <v>56</v>
       </c>
-      <c r="C57" s="56"/>
+      <c r="C57" s="57"/>
       <c r="D57" s="38"/>
       <c r="E57" s="32"/>
       <c r="F57" s="38" t="s">
@@ -6269,7 +6356,7 @@
       <c r="B58" s="32">
         <v>57</v>
       </c>
-      <c r="C58" s="56"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="38" t="s">
         <v>39</v>
       </c>
@@ -6295,7 +6382,7 @@
       <c r="B59" s="32">
         <v>58</v>
       </c>
-      <c r="C59" s="56"/>
+      <c r="C59" s="57"/>
       <c r="D59" s="37" t="s">
         <v>61</v>
       </c>
@@ -6321,7 +6408,7 @@
       <c r="B60" s="32">
         <v>59</v>
       </c>
-      <c r="C60" s="56"/>
+      <c r="C60" s="57"/>
       <c r="D60" s="37"/>
       <c r="E60" s="32"/>
       <c r="F60" s="37" t="s">
@@ -6345,7 +6432,7 @@
       <c r="B61" s="32">
         <v>60</v>
       </c>
-      <c r="C61" s="56"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="37" t="s">
         <v>39</v>
       </c>
@@ -6371,7 +6458,7 @@
       <c r="B62" s="32">
         <v>61</v>
       </c>
-      <c r="C62" s="56"/>
+      <c r="C62" s="57"/>
       <c r="D62" s="36" t="s">
         <v>61</v>
       </c>
@@ -6397,7 +6484,7 @@
       <c r="B63" s="32">
         <v>62</v>
       </c>
-      <c r="C63" s="56"/>
+      <c r="C63" s="57"/>
       <c r="D63" s="36"/>
       <c r="E63" s="32"/>
       <c r="F63" s="36" t="s">
@@ -6421,7 +6508,7 @@
       <c r="B64" s="32">
         <v>63</v>
       </c>
-      <c r="C64" s="56"/>
+      <c r="C64" s="57"/>
       <c r="D64" s="36" t="s">
         <v>39</v>
       </c>
@@ -6579,7 +6666,7 @@
       <c r="B71" s="32">
         <v>70</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="56" t="s">
         <v>70</v>
       </c>
       <c r="D71" s="34" t="s">
@@ -6607,7 +6694,7 @@
       <c r="B72" s="32">
         <v>71</v>
       </c>
-      <c r="C72" s="56"/>
+      <c r="C72" s="57"/>
       <c r="D72" s="34"/>
       <c r="E72" s="32"/>
       <c r="F72" s="34" t="s">
@@ -6631,7 +6718,7 @@
       <c r="B73" s="32">
         <v>72</v>
       </c>
-      <c r="C73" s="56"/>
+      <c r="C73" s="57"/>
       <c r="D73" s="34"/>
       <c r="E73" s="32"/>
       <c r="F73" s="34" t="s">
@@ -6655,7 +6742,7 @@
       <c r="B74" s="32">
         <v>73</v>
       </c>
-      <c r="C74" s="55" t="s">
+      <c r="C74" s="56" t="s">
         <v>67</v>
       </c>
       <c r="D74" s="38" t="s">
@@ -6683,7 +6770,7 @@
       <c r="B75" s="32">
         <v>74</v>
       </c>
-      <c r="C75" s="56"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="38"/>
       <c r="E75" s="32"/>
       <c r="F75" s="38" t="s">
@@ -6707,7 +6794,7 @@
       <c r="B76" s="32">
         <v>75</v>
       </c>
-      <c r="C76" s="56"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="38" t="s">
         <v>39</v>
       </c>
@@ -6733,7 +6820,7 @@
       <c r="B77" s="32">
         <v>76</v>
       </c>
-      <c r="C77" s="56"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="37" t="s">
         <v>61</v>
       </c>
@@ -6759,7 +6846,7 @@
       <c r="B78" s="32">
         <v>77</v>
       </c>
-      <c r="C78" s="56"/>
+      <c r="C78" s="57"/>
       <c r="D78" s="37"/>
       <c r="E78" s="32"/>
       <c r="F78" s="37" t="s">
@@ -6783,7 +6870,7 @@
       <c r="B79" s="32">
         <v>78</v>
       </c>
-      <c r="C79" s="56"/>
+      <c r="C79" s="57"/>
       <c r="D79" s="37" t="s">
         <v>39</v>
       </c>
@@ -6809,7 +6896,7 @@
       <c r="B80" s="32">
         <v>79</v>
       </c>
-      <c r="C80" s="56"/>
+      <c r="C80" s="57"/>
       <c r="D80" s="36" t="s">
         <v>61</v>
       </c>
@@ -6835,7 +6922,7 @@
       <c r="B81" s="32">
         <v>80</v>
       </c>
-      <c r="C81" s="56"/>
+      <c r="C81" s="57"/>
       <c r="D81" s="36"/>
       <c r="E81" s="32"/>
       <c r="F81" s="36" t="s">
@@ -6859,7 +6946,7 @@
       <c r="B82" s="32">
         <v>81</v>
       </c>
-      <c r="C82" s="56"/>
+      <c r="C82" s="57"/>
       <c r="D82" s="36" t="s">
         <v>39</v>
       </c>
@@ -6929,7 +7016,7 @@
       <c r="B85" s="32">
         <v>84</v>
       </c>
-      <c r="C85" s="55" t="s">
+      <c r="C85" s="56" t="s">
         <v>57</v>
       </c>
       <c r="D85" s="39"/>
@@ -6957,7 +7044,7 @@
       <c r="B86" s="32">
         <v>85</v>
       </c>
-      <c r="C86" s="56"/>
+      <c r="C86" s="57"/>
       <c r="D86" s="39"/>
       <c r="E86" s="32" t="s">
         <v>54</v>
@@ -6983,7 +7070,7 @@
       <c r="B87" s="32">
         <v>86</v>
       </c>
-      <c r="C87" s="56"/>
+      <c r="C87" s="57"/>
       <c r="D87" s="39"/>
       <c r="E87" s="32" t="s">
         <v>54</v>
@@ -7031,7 +7118,7 @@
       <c r="B89" s="32">
         <v>88</v>
       </c>
-      <c r="C89" s="55" t="s">
+      <c r="C89" s="56" t="s">
         <v>52</v>
       </c>
       <c r="D89" s="34" t="s">
@@ -7059,7 +7146,7 @@
       <c r="B90" s="32">
         <v>89</v>
       </c>
-      <c r="C90" s="56"/>
+      <c r="C90" s="57"/>
       <c r="D90" s="34"/>
       <c r="E90" s="32"/>
       <c r="F90" s="34" t="s">
@@ -7083,7 +7170,7 @@
       <c r="B91" s="32">
         <v>90</v>
       </c>
-      <c r="C91" s="56"/>
+      <c r="C91" s="57"/>
       <c r="D91" s="34"/>
       <c r="E91" s="32"/>
       <c r="F91" s="34" t="s">
@@ -7107,7 +7194,7 @@
       <c r="B92" s="32">
         <v>91</v>
       </c>
-      <c r="C92" s="55" t="s">
+      <c r="C92" s="56" t="s">
         <v>48</v>
       </c>
       <c r="D92" s="38" t="s">
@@ -7135,7 +7222,7 @@
       <c r="B93" s="32">
         <v>92</v>
       </c>
-      <c r="C93" s="56"/>
+      <c r="C93" s="57"/>
       <c r="D93" s="38"/>
       <c r="E93" s="32"/>
       <c r="F93" s="38" t="s">
@@ -7159,7 +7246,7 @@
       <c r="B94" s="32">
         <v>93</v>
       </c>
-      <c r="C94" s="56"/>
+      <c r="C94" s="57"/>
       <c r="D94" s="38" t="s">
         <v>39</v>
       </c>
@@ -7185,7 +7272,7 @@
       <c r="B95" s="32">
         <v>94</v>
       </c>
-      <c r="C95" s="56"/>
+      <c r="C95" s="57"/>
       <c r="D95" s="37" t="s">
         <v>42</v>
       </c>
@@ -7211,7 +7298,7 @@
       <c r="B96" s="32">
         <v>95</v>
       </c>
-      <c r="C96" s="56"/>
+      <c r="C96" s="57"/>
       <c r="D96" s="37"/>
       <c r="E96" s="32"/>
       <c r="F96" s="37" t="s">
@@ -7235,7 +7322,7 @@
       <c r="B97" s="32">
         <v>96</v>
       </c>
-      <c r="C97" s="56"/>
+      <c r="C97" s="57"/>
       <c r="D97" s="37" t="s">
         <v>39</v>
       </c>
@@ -7261,7 +7348,7 @@
       <c r="B98" s="32">
         <v>97</v>
       </c>
-      <c r="C98" s="56"/>
+      <c r="C98" s="57"/>
       <c r="D98" s="36" t="s">
         <v>42</v>
       </c>
@@ -7287,7 +7374,7 @@
       <c r="B99" s="32">
         <v>98</v>
       </c>
-      <c r="C99" s="56"/>
+      <c r="C99" s="57"/>
       <c r="D99" s="36"/>
       <c r="E99" s="32"/>
       <c r="F99" s="36" t="s">
@@ -7311,7 +7398,7 @@
       <c r="B100" s="32">
         <v>99</v>
       </c>
-      <c r="C100" s="56"/>
+      <c r="C100" s="57"/>
       <c r="D100" s="36" t="s">
         <v>39</v>
       </c>
@@ -7381,7 +7468,7 @@
       <c r="B103" s="32">
         <v>102</v>
       </c>
-      <c r="C103" s="55" t="s">
+      <c r="C103" s="56" t="s">
         <v>36</v>
       </c>
       <c r="D103" s="35" t="s">
@@ -7403,7 +7490,7 @@
       <c r="B104" s="32">
         <v>103</v>
       </c>
-      <c r="C104" s="56"/>
+      <c r="C104" s="57"/>
       <c r="D104" s="35">
         <v>0</v>
       </c>
@@ -7423,7 +7510,7 @@
       <c r="B105" s="32">
         <v>104</v>
       </c>
-      <c r="C105" s="56"/>
+      <c r="C105" s="57"/>
       <c r="D105" s="35" t="s">
         <v>35</v>
       </c>
@@ -7465,7 +7552,7 @@
       <c r="B107" s="32">
         <v>106</v>
       </c>
-      <c r="C107" s="55" t="s">
+      <c r="C107" s="56" t="s">
         <v>32</v>
       </c>
       <c r="D107" s="34" t="s">
@@ -7493,7 +7580,7 @@
       <c r="B108" s="32">
         <v>107</v>
       </c>
-      <c r="C108" s="56"/>
+      <c r="C108" s="57"/>
       <c r="D108" s="34"/>
       <c r="E108" s="32"/>
       <c r="F108" s="34" t="s">
@@ -7517,7 +7604,7 @@
       <c r="B109" s="32">
         <v>108</v>
       </c>
-      <c r="C109" s="56"/>
+      <c r="C109" s="57"/>
       <c r="D109" s="34"/>
       <c r="E109" s="32"/>
       <c r="F109" s="34" t="s">

--- a/umbilical_cable/Conections.xlsx
+++ b/umbilical_cable/Conections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deanf_iwtm3ll\OneDrive\Documents\GitHub\Staubli_RX60L\umbilical_cable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{464DDA0D-C18C-4A65-B073-FFD8AED40646}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B7A2A016-ABD5-4AC4-8B28-8EBDFD8B96E2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="674" activeTab="1" xr2:uid="{95819A87-8FD1-41E7-BA50-ADC82AE61CE3}"/>
   </bookViews>
@@ -529,10 +529,10 @@
     <t>97/98</t>
   </si>
   <si>
-    <t>ATQ(A)</t>
-  </si>
-  <si>
     <t>ATQ(O)</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -1169,12 +1169,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1192,6 +1186,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2561,7 +2561,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="132" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
+      <selection pane="bottomLeft" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2570,9 +2570,9 @@
     <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.28515625" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="43" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
@@ -2612,10 +2612,10 @@
         <v>148</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>152</v>
@@ -2636,8 +2636,8 @@
       </c>
       <c r="D2" s="42"/>
       <c r="I2" s="42"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="64"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="62"/>
       <c r="P2" s="50"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2666,8 +2666,8 @@
         <v>3</v>
       </c>
       <c r="J3" s="47"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="63"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="61"/>
       <c r="M3" s="45">
         <v>0</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="47"/>
-      <c r="K4" s="59">
+      <c r="K4" s="57">
         <v>20</v>
       </c>
       <c r="L4" s="55">
@@ -2744,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="47"/>
-      <c r="K5" s="60">
+      <c r="K5" s="58">
         <v>19</v>
       </c>
       <c r="L5" s="55">
@@ -2787,7 +2787,7 @@
         <v>9</v>
       </c>
       <c r="J6" s="47"/>
-      <c r="K6" s="59"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="55"/>
       <c r="M6" s="45">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="47"/>
-      <c r="K7" s="59">
+      <c r="K7" s="57">
         <v>26</v>
       </c>
       <c r="L7" s="55">
@@ -2865,7 +2865,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="47"/>
-      <c r="K8" s="59">
+      <c r="K8" s="57">
         <v>25</v>
       </c>
       <c r="L8" s="55">
@@ -2908,7 +2908,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="47"/>
-      <c r="K9" s="59"/>
+      <c r="K9" s="57"/>
       <c r="L9" s="55"/>
       <c r="M9" s="45">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="47"/>
-      <c r="K10" s="59">
+      <c r="K10" s="57">
         <v>22</v>
       </c>
       <c r="L10" s="55">
@@ -2986,7 +2986,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="47"/>
-      <c r="K11" s="59">
+      <c r="K11" s="57">
         <v>21</v>
       </c>
       <c r="L11" s="55">
@@ -3010,7 +3010,7 @@
       <c r="C12" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="61"/>
+      <c r="K12" s="59"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -3038,7 +3038,7 @@
         <v>21</v>
       </c>
       <c r="J13" s="47"/>
-      <c r="K13" s="62"/>
+      <c r="K13" s="60"/>
       <c r="L13" s="47"/>
       <c r="M13" s="45">
         <v>1</v>
@@ -3076,7 +3076,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="47"/>
-      <c r="K14" s="59"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="55">
         <v>44</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>19</v>
       </c>
       <c r="J15" s="47"/>
-      <c r="K15" s="59"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="55">
         <v>43</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>42</v>
       </c>
       <c r="J16" s="47"/>
-      <c r="K16" s="59"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="55"/>
       <c r="M16" s="45">
         <v>1</v>
@@ -3185,7 +3185,7 @@
         <v>41</v>
       </c>
       <c r="J17" s="47"/>
-      <c r="K17" s="59"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="55">
         <v>40</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>40</v>
       </c>
       <c r="J18" s="47"/>
-      <c r="K18" s="59"/>
+      <c r="K18" s="57"/>
       <c r="L18" s="55">
         <v>41</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>27</v>
       </c>
       <c r="J19" s="47"/>
-      <c r="K19" s="59"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="55"/>
       <c r="M19" s="45">
         <v>1</v>
@@ -3294,7 +3294,7 @@
         <v>26</v>
       </c>
       <c r="J20" s="47"/>
-      <c r="K20" s="59"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="55">
         <v>37</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>25</v>
       </c>
       <c r="J21" s="47"/>
-      <c r="K21" s="59"/>
+      <c r="K21" s="57"/>
       <c r="L21" s="55">
         <v>38</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>39</v>
       </c>
       <c r="J23" s="47"/>
-      <c r="K23" s="62"/>
+      <c r="K23" s="60"/>
       <c r="L23" s="47"/>
       <c r="M23" s="45">
         <v>2</v>
@@ -3418,7 +3418,7 @@
         <v>38</v>
       </c>
       <c r="J24" s="47"/>
-      <c r="K24" s="59"/>
+      <c r="K24" s="57"/>
       <c r="L24" s="55">
         <v>61</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>37</v>
       </c>
       <c r="J25" s="47"/>
-      <c r="K25" s="59"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="55">
         <v>62</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>45</v>
       </c>
       <c r="J26" s="47"/>
-      <c r="K26" s="59"/>
+      <c r="K26" s="57"/>
       <c r="L26" s="55"/>
       <c r="M26" s="45">
         <v>2</v>
@@ -3530,7 +3530,7 @@
         <v>44</v>
       </c>
       <c r="J27" s="47"/>
-      <c r="K27" s="59"/>
+      <c r="K27" s="57"/>
       <c r="L27" s="55">
         <v>59</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>43</v>
       </c>
       <c r="J28" s="47"/>
-      <c r="K28" s="59"/>
+      <c r="K28" s="57"/>
       <c r="L28" s="55">
         <v>58</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>42</v>
       </c>
       <c r="J29" s="47"/>
-      <c r="K29" s="59"/>
+      <c r="K29" s="57"/>
       <c r="L29" s="55"/>
       <c r="M29" s="45">
         <v>2</v>
@@ -3639,7 +3639,7 @@
         <v>41</v>
       </c>
       <c r="J30" s="47"/>
-      <c r="K30" s="59"/>
+      <c r="K30" s="57"/>
       <c r="L30" s="55">
         <v>56</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>40</v>
       </c>
       <c r="J31" s="47"/>
-      <c r="K31" s="59"/>
+      <c r="K31" s="57"/>
       <c r="L31" s="55">
         <v>55</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>57</v>
       </c>
       <c r="J33" s="47"/>
-      <c r="K33" s="62"/>
+      <c r="K33" s="60"/>
       <c r="L33" s="47"/>
       <c r="M33" s="45">
         <v>3</v>
@@ -3763,7 +3763,7 @@
         <v>56</v>
       </c>
       <c r="J34" s="47"/>
-      <c r="K34" s="59"/>
+      <c r="K34" s="57"/>
       <c r="L34" s="55">
         <v>79</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>55</v>
       </c>
       <c r="J35" s="47"/>
-      <c r="K35" s="59"/>
+      <c r="K35" s="57"/>
       <c r="L35" s="55">
         <v>80</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>63</v>
       </c>
       <c r="J36" s="47"/>
-      <c r="K36" s="59"/>
+      <c r="K36" s="57"/>
       <c r="L36" s="55"/>
       <c r="M36" s="45">
         <v>3</v>
@@ -3872,7 +3872,7 @@
         <v>62</v>
       </c>
       <c r="J37" s="47"/>
-      <c r="K37" s="59"/>
+      <c r="K37" s="57"/>
       <c r="L37" s="55">
         <v>77</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>61</v>
       </c>
       <c r="J38" s="47"/>
-      <c r="K38" s="59"/>
+      <c r="K38" s="57"/>
       <c r="L38" s="55">
         <v>78</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>60</v>
       </c>
       <c r="J39" s="47"/>
-      <c r="K39" s="59"/>
+      <c r="K39" s="57"/>
       <c r="L39" s="55"/>
       <c r="M39" s="45">
         <v>3</v>
@@ -3981,7 +3981,7 @@
         <v>59</v>
       </c>
       <c r="J40" s="47"/>
-      <c r="K40" s="59"/>
+      <c r="K40" s="57"/>
       <c r="L40" s="55">
         <v>74</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>58</v>
       </c>
       <c r="J41" s="47"/>
-      <c r="K41" s="59"/>
+      <c r="K41" s="57"/>
       <c r="L41" s="55">
         <v>73</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>73</v>
       </c>
       <c r="J43" s="47"/>
-      <c r="K43" s="62"/>
+      <c r="K43" s="60"/>
       <c r="L43" s="47"/>
       <c r="M43" s="45">
         <v>4</v>
@@ -4105,7 +4105,7 @@
         <v>74</v>
       </c>
       <c r="J44" s="47"/>
-      <c r="K44" s="59"/>
+      <c r="K44" s="57"/>
       <c r="L44" s="55">
         <v>97</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>75</v>
       </c>
       <c r="J45" s="47"/>
-      <c r="K45" s="59"/>
+      <c r="K45" s="57"/>
       <c r="L45" s="55">
         <v>96</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>76</v>
       </c>
       <c r="J46" s="47"/>
-      <c r="K46" s="59"/>
+      <c r="K46" s="57"/>
       <c r="L46" s="55"/>
       <c r="M46" s="45">
         <v>4</v>
@@ -4214,7 +4214,7 @@
         <v>77</v>
       </c>
       <c r="J47" s="47"/>
-      <c r="K47" s="59"/>
+      <c r="K47" s="57"/>
       <c r="L47" s="55">
         <v>95</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>78</v>
       </c>
       <c r="J48" s="47"/>
-      <c r="K48" s="59"/>
+      <c r="K48" s="57"/>
       <c r="L48" s="55">
         <v>94</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>79</v>
       </c>
       <c r="J49" s="47"/>
-      <c r="K49" s="59"/>
+      <c r="K49" s="57"/>
       <c r="L49" s="55"/>
       <c r="M49" s="45">
         <v>4</v>
@@ -4323,7 +4323,7 @@
         <v>80</v>
       </c>
       <c r="J50" s="47"/>
-      <c r="K50" s="59"/>
+      <c r="K50" s="57"/>
       <c r="L50" s="55">
         <v>92</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>81</v>
       </c>
       <c r="J51" s="47"/>
-      <c r="K51" s="59"/>
+      <c r="K51" s="57"/>
       <c r="L51" s="55">
         <v>91</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>98</v>
       </c>
       <c r="J53" s="47"/>
-      <c r="K53" s="62"/>
+      <c r="K53" s="60"/>
       <c r="L53" s="47"/>
       <c r="M53" s="45">
         <v>5</v>
@@ -4448,7 +4448,7 @@
         <v>97</v>
       </c>
       <c r="J54" s="47"/>
-      <c r="K54" s="59"/>
+      <c r="K54" s="57"/>
       <c r="L54" s="55">
         <v>115</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>99</v>
       </c>
       <c r="J55" s="47"/>
-      <c r="K55" s="59"/>
+      <c r="K55" s="57"/>
       <c r="L55" s="55">
         <v>116</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>91</v>
       </c>
       <c r="J56" s="47"/>
-      <c r="K56" s="59"/>
+      <c r="K56" s="57"/>
       <c r="L56" s="55"/>
       <c r="M56" s="45">
         <v>5</v>
@@ -4563,7 +4563,7 @@
         <v>92</v>
       </c>
       <c r="J57" s="47"/>
-      <c r="K57" s="59"/>
+      <c r="K57" s="57"/>
       <c r="L57" s="55">
         <v>113</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>92</v>
       </c>
       <c r="J58" s="47"/>
-      <c r="K58" s="59"/>
+      <c r="K58" s="57"/>
       <c r="L58" s="55">
         <v>112</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>95</v>
       </c>
       <c r="J59" s="47"/>
-      <c r="K59" s="59"/>
+      <c r="K59" s="57"/>
       <c r="L59" s="55"/>
       <c r="M59" s="45">
         <v>5</v>
@@ -4672,7 +4672,7 @@
         <v>94</v>
       </c>
       <c r="J60" s="47"/>
-      <c r="K60" s="59"/>
+      <c r="K60" s="57"/>
       <c r="L60" s="55">
         <v>110</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>96</v>
       </c>
       <c r="J61" s="47"/>
-      <c r="K61" s="59"/>
+      <c r="K61" s="57"/>
       <c r="L61" s="55">
         <v>109</v>
       </c>
@@ -4792,7 +4792,7 @@
       <c r="B2" s="32">
         <v>1</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="63" t="s">
         <v>138</v>
       </c>
       <c r="D2" s="38" t="s">
@@ -4826,7 +4826,7 @@
       <c r="B3" s="32">
         <v>2</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="38"/>
       <c r="E3" s="32"/>
       <c r="F3" s="38" t="s">
@@ -4854,7 +4854,7 @@
       <c r="B4" s="32">
         <v>3</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="38" t="s">
         <v>39</v>
       </c>
@@ -4884,7 +4884,7 @@
       <c r="B5" s="32">
         <v>4</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="37" t="s">
         <v>131</v>
       </c>
@@ -4914,7 +4914,7 @@
       <c r="B6" s="32">
         <v>5</v>
       </c>
-      <c r="C6" s="57"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="37"/>
       <c r="E6" s="32"/>
       <c r="F6" s="37" t="s">
@@ -4942,7 +4942,7 @@
       <c r="B7" s="32">
         <v>6</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="37" t="s">
         <v>39</v>
       </c>
@@ -4972,7 +4972,7 @@
       <c r="B8" s="32">
         <v>7</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="36" t="s">
         <v>131</v>
       </c>
@@ -5002,7 +5002,7 @@
       <c r="B9" s="32">
         <v>8</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="36"/>
       <c r="E9" s="32"/>
       <c r="F9" s="36" t="s">
@@ -5032,7 +5032,7 @@
       <c r="B10" s="32">
         <v>9</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="36" t="s">
         <v>39</v>
       </c>
@@ -5114,7 +5114,7 @@
       <c r="B13" s="32">
         <v>12</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="63" t="s">
         <v>126</v>
       </c>
       <c r="D13" s="41" t="s">
@@ -5146,7 +5146,7 @@
       <c r="B14" s="32">
         <v>13</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="41"/>
       <c r="E14" s="32"/>
       <c r="F14" s="41" t="s">
@@ -5174,7 +5174,7 @@
       <c r="B15" s="32">
         <v>14</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="63" t="s">
         <v>122</v>
       </c>
       <c r="D15" s="40" t="s">
@@ -5208,7 +5208,7 @@
       <c r="B16" s="32">
         <v>15</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40" t="s">
         <v>54</v>
@@ -5238,7 +5238,7 @@
       <c r="B17" s="32">
         <v>16</v>
       </c>
-      <c r="C17" s="57"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="34" t="s">
         <v>100</v>
       </c>
@@ -5268,7 +5268,7 @@
       <c r="B18" s="32">
         <v>17</v>
       </c>
-      <c r="C18" s="57"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="34"/>
       <c r="E18" s="32"/>
       <c r="F18" s="34" t="s">
@@ -5296,7 +5296,7 @@
       <c r="B19" s="32">
         <v>18</v>
       </c>
-      <c r="C19" s="57"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="34"/>
       <c r="E19" s="32"/>
       <c r="F19" s="34" t="s">
@@ -5324,7 +5324,7 @@
       <c r="B20" s="32">
         <v>19</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="38" t="s">
         <v>118</v>
       </c>
@@ -5354,7 +5354,7 @@
       <c r="B21" s="32">
         <v>20</v>
       </c>
-      <c r="C21" s="57"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="38"/>
       <c r="E21" s="32"/>
       <c r="F21" s="38" t="s">
@@ -5382,7 +5382,7 @@
       <c r="B22" s="32">
         <v>21</v>
       </c>
-      <c r="C22" s="57"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="38" t="s">
         <v>39</v>
       </c>
@@ -5412,7 +5412,7 @@
       <c r="B23" s="32">
         <v>22</v>
       </c>
-      <c r="C23" s="57"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="37" t="s">
         <v>111</v>
       </c>
@@ -5442,7 +5442,7 @@
       <c r="B24" s="32">
         <v>23</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="37"/>
       <c r="E24" s="32"/>
       <c r="F24" s="37" t="s">
@@ -5470,7 +5470,7 @@
       <c r="B25" s="32">
         <v>24</v>
       </c>
-      <c r="C25" s="57"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="37" t="s">
         <v>39</v>
       </c>
@@ -5500,7 +5500,7 @@
       <c r="B26" s="32">
         <v>25</v>
       </c>
-      <c r="C26" s="57"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="36" t="s">
         <v>111</v>
       </c>
@@ -5530,7 +5530,7 @@
       <c r="B27" s="32">
         <v>26</v>
       </c>
-      <c r="C27" s="57"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="36"/>
       <c r="E27" s="32"/>
       <c r="F27" s="36" t="s">
@@ -5558,7 +5558,7 @@
       <c r="B28" s="32">
         <v>27</v>
       </c>
-      <c r="C28" s="57"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="36" t="s">
         <v>39</v>
       </c>
@@ -5702,7 +5702,7 @@
       <c r="B33" s="32">
         <v>32</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="63" t="s">
         <v>102</v>
       </c>
       <c r="D33" s="40" t="s">
@@ -5738,7 +5738,7 @@
       <c r="B34" s="32">
         <v>33</v>
       </c>
-      <c r="C34" s="57"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="40"/>
       <c r="E34" s="40" t="s">
         <v>54</v>
@@ -5770,7 +5770,7 @@
       <c r="B35" s="32">
         <v>34</v>
       </c>
-      <c r="C35" s="57"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="34" t="s">
         <v>100</v>
       </c>
@@ -5802,7 +5802,7 @@
       <c r="B36" s="32">
         <v>35</v>
       </c>
-      <c r="C36" s="57"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="34"/>
       <c r="E36" s="32"/>
       <c r="F36" s="34" t="s">
@@ -5832,7 +5832,7 @@
       <c r="B37" s="32">
         <v>36</v>
       </c>
-      <c r="C37" s="57"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="34"/>
       <c r="E37" s="32"/>
       <c r="F37" s="34" t="s">
@@ -5862,7 +5862,7 @@
       <c r="B38" s="32">
         <v>37</v>
       </c>
-      <c r="C38" s="57"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="38" t="s">
         <v>95</v>
       </c>
@@ -5894,7 +5894,7 @@
       <c r="B39" s="32">
         <v>38</v>
       </c>
-      <c r="C39" s="57"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="38"/>
       <c r="E39" s="32"/>
       <c r="F39" s="38" t="s">
@@ -5918,7 +5918,7 @@
       <c r="B40" s="32">
         <v>39</v>
       </c>
-      <c r="C40" s="57"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="38" t="s">
         <v>39</v>
       </c>
@@ -5944,7 +5944,7 @@
       <c r="B41" s="32">
         <v>40</v>
       </c>
-      <c r="C41" s="57"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="37" t="s">
         <v>87</v>
       </c>
@@ -5970,7 +5970,7 @@
       <c r="B42" s="32">
         <v>41</v>
       </c>
-      <c r="C42" s="57"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="37"/>
       <c r="E42" s="32"/>
       <c r="F42" s="37" t="s">
@@ -5994,7 +5994,7 @@
       <c r="B43" s="32">
         <v>42</v>
       </c>
-      <c r="C43" s="57"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="37" t="s">
         <v>39</v>
       </c>
@@ -6020,7 +6020,7 @@
       <c r="B44" s="32">
         <v>43</v>
       </c>
-      <c r="C44" s="57"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="36" t="s">
         <v>87</v>
       </c>
@@ -6046,7 +6046,7 @@
       <c r="B45" s="32">
         <v>44</v>
       </c>
-      <c r="C45" s="57"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="36"/>
       <c r="E45" s="32"/>
       <c r="F45" s="36" t="s">
@@ -6070,7 +6070,7 @@
       <c r="B46" s="32">
         <v>45</v>
       </c>
-      <c r="C46" s="57"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="36" t="s">
         <v>39</v>
       </c>
@@ -6228,7 +6228,7 @@
       <c r="B53" s="32">
         <v>52</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="63" t="s">
         <v>82</v>
       </c>
       <c r="D53" s="34" t="s">
@@ -6256,7 +6256,7 @@
       <c r="B54" s="32">
         <v>53</v>
       </c>
-      <c r="C54" s="57"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="34"/>
       <c r="E54" s="32"/>
       <c r="F54" s="34" t="s">
@@ -6280,7 +6280,7 @@
       <c r="B55" s="32">
         <v>54</v>
       </c>
-      <c r="C55" s="57"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="34"/>
       <c r="E55" s="32"/>
       <c r="F55" s="34" t="s">
@@ -6304,7 +6304,7 @@
       <c r="B56" s="32">
         <v>55</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="63" t="s">
         <v>79</v>
       </c>
       <c r="D56" s="38" t="s">
@@ -6332,7 +6332,7 @@
       <c r="B57" s="32">
         <v>56</v>
       </c>
-      <c r="C57" s="57"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="38"/>
       <c r="E57" s="32"/>
       <c r="F57" s="38" t="s">
@@ -6356,7 +6356,7 @@
       <c r="B58" s="32">
         <v>57</v>
       </c>
-      <c r="C58" s="57"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="38" t="s">
         <v>39</v>
       </c>
@@ -6382,7 +6382,7 @@
       <c r="B59" s="32">
         <v>58</v>
       </c>
-      <c r="C59" s="57"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="37" t="s">
         <v>61</v>
       </c>
@@ -6408,7 +6408,7 @@
       <c r="B60" s="32">
         <v>59</v>
       </c>
-      <c r="C60" s="57"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="37"/>
       <c r="E60" s="32"/>
       <c r="F60" s="37" t="s">
@@ -6432,7 +6432,7 @@
       <c r="B61" s="32">
         <v>60</v>
       </c>
-      <c r="C61" s="57"/>
+      <c r="C61" s="64"/>
       <c r="D61" s="37" t="s">
         <v>39</v>
       </c>
@@ -6458,7 +6458,7 @@
       <c r="B62" s="32">
         <v>61</v>
       </c>
-      <c r="C62" s="57"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="36" t="s">
         <v>61</v>
       </c>
@@ -6484,7 +6484,7 @@
       <c r="B63" s="32">
         <v>62</v>
       </c>
-      <c r="C63" s="57"/>
+      <c r="C63" s="64"/>
       <c r="D63" s="36"/>
       <c r="E63" s="32"/>
       <c r="F63" s="36" t="s">
@@ -6508,7 +6508,7 @@
       <c r="B64" s="32">
         <v>63</v>
       </c>
-      <c r="C64" s="57"/>
+      <c r="C64" s="64"/>
       <c r="D64" s="36" t="s">
         <v>39</v>
       </c>
@@ -6666,7 +6666,7 @@
       <c r="B71" s="32">
         <v>70</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="63" t="s">
         <v>70</v>
       </c>
       <c r="D71" s="34" t="s">
@@ -6694,7 +6694,7 @@
       <c r="B72" s="32">
         <v>71</v>
       </c>
-      <c r="C72" s="57"/>
+      <c r="C72" s="64"/>
       <c r="D72" s="34"/>
       <c r="E72" s="32"/>
       <c r="F72" s="34" t="s">
@@ -6718,7 +6718,7 @@
       <c r="B73" s="32">
         <v>72</v>
       </c>
-      <c r="C73" s="57"/>
+      <c r="C73" s="64"/>
       <c r="D73" s="34"/>
       <c r="E73" s="32"/>
       <c r="F73" s="34" t="s">
@@ -6742,7 +6742,7 @@
       <c r="B74" s="32">
         <v>73</v>
       </c>
-      <c r="C74" s="56" t="s">
+      <c r="C74" s="63" t="s">
         <v>67</v>
       </c>
       <c r="D74" s="38" t="s">
@@ -6770,7 +6770,7 @@
       <c r="B75" s="32">
         <v>74</v>
       </c>
-      <c r="C75" s="57"/>
+      <c r="C75" s="64"/>
       <c r="D75" s="38"/>
       <c r="E75" s="32"/>
       <c r="F75" s="38" t="s">
@@ -6794,7 +6794,7 @@
       <c r="B76" s="32">
         <v>75</v>
       </c>
-      <c r="C76" s="57"/>
+      <c r="C76" s="64"/>
       <c r="D76" s="38" t="s">
         <v>39</v>
       </c>
@@ -6820,7 +6820,7 @@
       <c r="B77" s="32">
         <v>76</v>
       </c>
-      <c r="C77" s="57"/>
+      <c r="C77" s="64"/>
       <c r="D77" s="37" t="s">
         <v>61</v>
       </c>
@@ -6846,7 +6846,7 @@
       <c r="B78" s="32">
         <v>77</v>
       </c>
-      <c r="C78" s="57"/>
+      <c r="C78" s="64"/>
       <c r="D78" s="37"/>
       <c r="E78" s="32"/>
       <c r="F78" s="37" t="s">
@@ -6870,7 +6870,7 @@
       <c r="B79" s="32">
         <v>78</v>
       </c>
-      <c r="C79" s="57"/>
+      <c r="C79" s="64"/>
       <c r="D79" s="37" t="s">
         <v>39</v>
       </c>
@@ -6896,7 +6896,7 @@
       <c r="B80" s="32">
         <v>79</v>
       </c>
-      <c r="C80" s="57"/>
+      <c r="C80" s="64"/>
       <c r="D80" s="36" t="s">
         <v>61</v>
       </c>
@@ -6922,7 +6922,7 @@
       <c r="B81" s="32">
         <v>80</v>
       </c>
-      <c r="C81" s="57"/>
+      <c r="C81" s="64"/>
       <c r="D81" s="36"/>
       <c r="E81" s="32"/>
       <c r="F81" s="36" t="s">
@@ -6946,7 +6946,7 @@
       <c r="B82" s="32">
         <v>81</v>
       </c>
-      <c r="C82" s="57"/>
+      <c r="C82" s="64"/>
       <c r="D82" s="36" t="s">
         <v>39</v>
       </c>
@@ -7016,7 +7016,7 @@
       <c r="B85" s="32">
         <v>84</v>
       </c>
-      <c r="C85" s="56" t="s">
+      <c r="C85" s="63" t="s">
         <v>57</v>
       </c>
       <c r="D85" s="39"/>
@@ -7044,7 +7044,7 @@
       <c r="B86" s="32">
         <v>85</v>
       </c>
-      <c r="C86" s="57"/>
+      <c r="C86" s="64"/>
       <c r="D86" s="39"/>
       <c r="E86" s="32" t="s">
         <v>54</v>
@@ -7070,7 +7070,7 @@
       <c r="B87" s="32">
         <v>86</v>
       </c>
-      <c r="C87" s="57"/>
+      <c r="C87" s="64"/>
       <c r="D87" s="39"/>
       <c r="E87" s="32" t="s">
         <v>54</v>
@@ -7118,7 +7118,7 @@
       <c r="B89" s="32">
         <v>88</v>
       </c>
-      <c r="C89" s="56" t="s">
+      <c r="C89" s="63" t="s">
         <v>52</v>
       </c>
       <c r="D89" s="34" t="s">
@@ -7146,7 +7146,7 @@
       <c r="B90" s="32">
         <v>89</v>
       </c>
-      <c r="C90" s="57"/>
+      <c r="C90" s="64"/>
       <c r="D90" s="34"/>
       <c r="E90" s="32"/>
       <c r="F90" s="34" t="s">
@@ -7170,7 +7170,7 @@
       <c r="B91" s="32">
         <v>90</v>
       </c>
-      <c r="C91" s="57"/>
+      <c r="C91" s="64"/>
       <c r="D91" s="34"/>
       <c r="E91" s="32"/>
       <c r="F91" s="34" t="s">
@@ -7194,7 +7194,7 @@
       <c r="B92" s="32">
         <v>91</v>
       </c>
-      <c r="C92" s="56" t="s">
+      <c r="C92" s="63" t="s">
         <v>48</v>
       </c>
       <c r="D92" s="38" t="s">
@@ -7222,7 +7222,7 @@
       <c r="B93" s="32">
         <v>92</v>
       </c>
-      <c r="C93" s="57"/>
+      <c r="C93" s="64"/>
       <c r="D93" s="38"/>
       <c r="E93" s="32"/>
       <c r="F93" s="38" t="s">
@@ -7246,7 +7246,7 @@
       <c r="B94" s="32">
         <v>93</v>
       </c>
-      <c r="C94" s="57"/>
+      <c r="C94" s="64"/>
       <c r="D94" s="38" t="s">
         <v>39</v>
       </c>
@@ -7272,7 +7272,7 @@
       <c r="B95" s="32">
         <v>94</v>
       </c>
-      <c r="C95" s="57"/>
+      <c r="C95" s="64"/>
       <c r="D95" s="37" t="s">
         <v>42</v>
       </c>
@@ -7298,7 +7298,7 @@
       <c r="B96" s="32">
         <v>95</v>
       </c>
-      <c r="C96" s="57"/>
+      <c r="C96" s="64"/>
       <c r="D96" s="37"/>
       <c r="E96" s="32"/>
       <c r="F96" s="37" t="s">
@@ -7322,7 +7322,7 @@
       <c r="B97" s="32">
         <v>96</v>
       </c>
-      <c r="C97" s="57"/>
+      <c r="C97" s="64"/>
       <c r="D97" s="37" t="s">
         <v>39</v>
       </c>
@@ -7348,7 +7348,7 @@
       <c r="B98" s="32">
         <v>97</v>
       </c>
-      <c r="C98" s="57"/>
+      <c r="C98" s="64"/>
       <c r="D98" s="36" t="s">
         <v>42</v>
       </c>
@@ -7374,7 +7374,7 @@
       <c r="B99" s="32">
         <v>98</v>
       </c>
-      <c r="C99" s="57"/>
+      <c r="C99" s="64"/>
       <c r="D99" s="36"/>
       <c r="E99" s="32"/>
       <c r="F99" s="36" t="s">
@@ -7398,7 +7398,7 @@
       <c r="B100" s="32">
         <v>99</v>
       </c>
-      <c r="C100" s="57"/>
+      <c r="C100" s="64"/>
       <c r="D100" s="36" t="s">
         <v>39</v>
       </c>
@@ -7468,7 +7468,7 @@
       <c r="B103" s="32">
         <v>102</v>
       </c>
-      <c r="C103" s="56" t="s">
+      <c r="C103" s="63" t="s">
         <v>36</v>
       </c>
       <c r="D103" s="35" t="s">
@@ -7490,7 +7490,7 @@
       <c r="B104" s="32">
         <v>103</v>
       </c>
-      <c r="C104" s="57"/>
+      <c r="C104" s="64"/>
       <c r="D104" s="35">
         <v>0</v>
       </c>
@@ -7510,7 +7510,7 @@
       <c r="B105" s="32">
         <v>104</v>
       </c>
-      <c r="C105" s="57"/>
+      <c r="C105" s="64"/>
       <c r="D105" s="35" t="s">
         <v>35</v>
       </c>
@@ -7552,7 +7552,7 @@
       <c r="B107" s="32">
         <v>106</v>
       </c>
-      <c r="C107" s="56" t="s">
+      <c r="C107" s="63" t="s">
         <v>32</v>
       </c>
       <c r="D107" s="34" t="s">
@@ -7580,7 +7580,7 @@
       <c r="B108" s="32">
         <v>107</v>
       </c>
-      <c r="C108" s="57"/>
+      <c r="C108" s="64"/>
       <c r="D108" s="34"/>
       <c r="E108" s="32"/>
       <c r="F108" s="34" t="s">
@@ -7604,7 +7604,7 @@
       <c r="B109" s="32">
         <v>108</v>
       </c>
-      <c r="C109" s="57"/>
+      <c r="C109" s="64"/>
       <c r="D109" s="34"/>
       <c r="E109" s="32"/>
       <c r="F109" s="34" t="s">
@@ -7623,6 +7623,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C92:C100"/>
     <mergeCell ref="C107:C109"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C28"/>
@@ -7631,11 +7636,6 @@
     <mergeCell ref="C74:C82"/>
     <mergeCell ref="C71:C73"/>
     <mergeCell ref="C103:C105"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C92:C100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/umbilical_cable/Conections.xlsx
+++ b/umbilical_cable/Conections.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deanf_iwtm3ll\OneDrive\Documents\GitHub\Staubli_RX60L\umbilical_cable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B7A2A016-ABD5-4AC4-8B28-8EBDFD8B96E2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D839155-EEB5-42EB-BF29-84F7FDD654A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="674" activeTab="1" xr2:uid="{95819A87-8FD1-41E7-BA50-ADC82AE61CE3}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ATQ RJ45 Han108'!$A$1:$K$60</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Han108_Wire_Details!$A$1:$Q$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Han108_Wire_Details!$A$1:$P$61</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Han108_Wire_Details!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -529,10 +529,10 @@
     <t>97/98</t>
   </si>
   <si>
-    <t>ATQ(O)</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>ACTUAL</t>
+  </si>
+  <si>
+    <t>AT?</t>
   </si>
 </sst>
 </file>
@@ -2561,7 +2561,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="132" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,7 +2576,7 @@
     <col min="8" max="8" width="2.28515625" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="43" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="1"/>
     <col min="14" max="14" width="4.140625" style="1" customWidth="1"/>
@@ -2612,10 +2612,10 @@
         <v>148</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>152</v>
@@ -2701,9 +2701,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="47"/>
-      <c r="K4" s="57">
-        <v>20</v>
-      </c>
+      <c r="K4" s="57"/>
       <c r="L4" s="55">
         <v>26</v>
       </c>
@@ -2744,9 +2742,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="47"/>
-      <c r="K5" s="58">
-        <v>19</v>
-      </c>
+      <c r="K5" s="58"/>
       <c r="L5" s="55">
         <v>25</v>
       </c>
@@ -2822,9 +2818,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="47"/>
-      <c r="K7" s="57">
-        <v>26</v>
-      </c>
+      <c r="K7" s="57"/>
       <c r="L7" s="55">
         <v>22</v>
       </c>
@@ -2865,9 +2859,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="47"/>
-      <c r="K8" s="57">
-        <v>25</v>
-      </c>
+      <c r="K8" s="57"/>
       <c r="L8" s="55">
         <v>23</v>
       </c>
@@ -2943,9 +2935,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="47"/>
-      <c r="K10" s="57">
-        <v>22</v>
-      </c>
+      <c r="K10" s="57"/>
       <c r="L10" s="55">
         <v>19</v>
       </c>
@@ -2986,9 +2976,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="47"/>
-      <c r="K11" s="57">
-        <v>21</v>
-      </c>
+      <c r="K11" s="57"/>
       <c r="L11" s="55">
         <v>20</v>
       </c>
@@ -4727,9 +4715,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="95" fitToHeight="2" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="32" max="16" man="1"/>
+  <pageSetup scale="88" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="22" max="15" man="1"/>
+    <brk id="42" max="15" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -7623,11 +7612,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C92:C100"/>
     <mergeCell ref="C107:C109"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C28"/>
@@ -7636,6 +7620,11 @@
     <mergeCell ref="C74:C82"/>
     <mergeCell ref="C71:C73"/>
     <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C92:C100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
